--- a/InstrumentList_v1.1.xlsx
+++ b/InstrumentList_v1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\MAQ-Observations.nl\Admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte035\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969811B0-8FDB-48F4-8BB2-7E6DD6196831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400ADCD6-79A6-4BD9-9B4F-2CB5680D5CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Veenkampen" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3747" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3749" uniqueCount="767">
   <si>
     <t>Stream name</t>
   </si>
@@ -3006,7 +3006,10 @@
     <t>Changed Advanced Flux package, updated corresponding streams</t>
   </si>
   <si>
-    <t>Fixed unit of streams 'LE' to W m-2 (Veenkampen, Loobos, Amsterdam), 'rand_err_H' to W m-2 (Loobos) and 'rand_err_LE' to W m-2</t>
+    <t>Fixed unit of streams 'LE' to W m-2 (Veenkampen, Loobos, Amsterdam), rand_err_H to W m-2 (Loobos) and rand_err_LE to W m-2</t>
+  </si>
+  <si>
+    <t>Added Water Table Depth to Advanced-Soil packages for Veenkampen and Loobos</t>
   </si>
 </sst>
 </file>
@@ -3454,7 +3457,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4069,7 +4072,7 @@
         <v>524</v>
       </c>
       <c r="F32" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>743</v>
@@ -8733,7 +8736,7 @@
         <v>610</v>
       </c>
       <c r="F72" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="G72" t="s">
         <v>739</v>
@@ -8753,7 +8756,7 @@
         <v>611</v>
       </c>
       <c r="F73" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="G73" t="s">
         <v>739</v>
@@ -15943,9 +15946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C5BFE-6C5D-49EF-B6DC-8FDF9610AF86}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16103,6 +16104,15 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
+      <c r="B19" s="10">
+        <v>45565</v>
+      </c>
+      <c r="C19" t="s">
+        <v>747</v>
+      </c>
+      <c r="D19" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>

--- a/InstrumentList_v1.1.xlsx
+++ b/InstrumentList_v1.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte035\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\MAQ-Observations.nl\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400ADCD6-79A6-4BD9-9B4F-2CB5680D5CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C856C9-95E3-4962-9A22-58169927B6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3749" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3859" uniqueCount="807">
   <si>
     <t>Stream name</t>
   </si>
@@ -3010,6 +3010,150 @@
   </si>
   <si>
     <t>Added Water Table Depth to Advanced-Soil packages for Veenkampen and Loobos</t>
+  </si>
+  <si>
+    <t>BAM_Conc</t>
+  </si>
+  <si>
+    <t>BAM_Qtot</t>
+  </si>
+  <si>
+    <t>BAM_WS</t>
+  </si>
+  <si>
+    <t>BAM_RH</t>
+  </si>
+  <si>
+    <t>BAM_Delta</t>
+  </si>
+  <si>
+    <t>BAM_AT</t>
+  </si>
+  <si>
+    <t>BAM_E</t>
+  </si>
+  <si>
+    <t>BAM_U</t>
+  </si>
+  <si>
+    <t>BAM_M</t>
+  </si>
+  <si>
+    <t>BAM_I</t>
+  </si>
+  <si>
+    <t>BAM_L</t>
+  </si>
+  <si>
+    <t>BAM_R</t>
+  </si>
+  <si>
+    <t>BAM_N</t>
+  </si>
+  <si>
+    <t>BAM_F</t>
+  </si>
+  <si>
+    <t>BAM_P</t>
+  </si>
+  <si>
+    <t>BAM_D</t>
+  </si>
+  <si>
+    <t>BAM_C</t>
+  </si>
+  <si>
+    <t>BAM_T</t>
+  </si>
+  <si>
+    <r>
+      <t>mg m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Added Veenkampen BAM data (18 new streams), added BAM_Conc to Veenkampen Air Quality package</t>
+  </si>
+  <si>
+    <t>Beta Attenuation Mass Monitor 1020</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>Total flow volume</t>
+  </si>
+  <si>
+    <t>Wind Speed (BX-591)</t>
+  </si>
+  <si>
+    <t>Relative humidity (BX-593)</t>
+  </si>
+  <si>
+    <t>Air temperature (BX-597)</t>
+  </si>
+  <si>
+    <t>Delta temperature (BX-597)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag: Telemetry Fault or Interface Fault </t>
+  </si>
+  <si>
+    <t>Flag: External reset or Interface Reset</t>
+  </si>
+  <si>
+    <t>Flag: Maintenance Alarm</t>
+  </si>
+  <si>
+    <t>Flag: Internal Error or Coarse Link Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag: Power Failure or Processor Reset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag: Reference Error or Membrane Timeout </t>
+  </si>
+  <si>
+    <t>Flag: Nozzle Error</t>
+  </si>
+  <si>
+    <t>Flag: Flow Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag: Pressure Drop Alarm or Delta-Pressure Alarm </t>
+  </si>
+  <si>
+    <t>Flag: Deviant Membrane Density Alarm or BAM CAL alarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag: Count Error or Data Error </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag: Tape System Error or Filter Tape Error </t>
   </si>
 </sst>
 </file>
@@ -3455,7 +3599,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603FFA7C-CA32-46E1-B5C1-AB3A403C245A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G194"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7307,6 +7451,366 @@
       </c>
       <c r="G194" t="s">
         <v>743</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>767</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D195" t="s">
+        <v>642</v>
+      </c>
+      <c r="F195" t="s">
+        <v>733</v>
+      </c>
+      <c r="G195" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>768</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="F196" t="s">
+        <v>728</v>
+      </c>
+      <c r="G196" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>769</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D197" t="s">
+        <v>791</v>
+      </c>
+      <c r="F197" t="s">
+        <v>728</v>
+      </c>
+      <c r="G197" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>770</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="F198" t="s">
+        <v>728</v>
+      </c>
+      <c r="G198" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>771</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="F199" t="s">
+        <v>728</v>
+      </c>
+      <c r="G199" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>772</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="F200" t="s">
+        <v>728</v>
+      </c>
+      <c r="G200" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>773</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D201" t="s">
+        <v>796</v>
+      </c>
+      <c r="F201" t="s">
+        <v>728</v>
+      </c>
+      <c r="G201" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>774</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="F202" t="s">
+        <v>728</v>
+      </c>
+      <c r="G202" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>775</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="F203" t="s">
+        <v>728</v>
+      </c>
+      <c r="G203" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>776</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F204" t="s">
+        <v>728</v>
+      </c>
+      <c r="G204" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>777</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="F205" t="s">
+        <v>728</v>
+      </c>
+      <c r="G205" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>778</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="F206" t="s">
+        <v>728</v>
+      </c>
+      <c r="G206" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>779</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="F207" t="s">
+        <v>728</v>
+      </c>
+      <c r="G207" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>780</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="F208" t="s">
+        <v>728</v>
+      </c>
+      <c r="G208" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>781</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="F209" t="s">
+        <v>728</v>
+      </c>
+      <c r="G209" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>782</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="F210" t="s">
+        <v>728</v>
+      </c>
+      <c r="G210" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>783</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="F211" t="s">
+        <v>728</v>
+      </c>
+      <c r="G211" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>784</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="F212" t="s">
+        <v>728</v>
+      </c>
+      <c r="G212" t="s">
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -16033,7 +16537,7 @@
         <v>755</v>
       </c>
       <c r="B13" s="10">
-        <v>45616</v>
+        <v>45250</v>
       </c>
       <c r="C13" t="s">
         <v>747</v>
@@ -16045,7 +16549,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="10">
-        <v>45627</v>
+        <v>45261</v>
       </c>
       <c r="C14" t="s">
         <v>747</v>
@@ -16057,7 +16561,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="10">
-        <v>45634</v>
+        <v>45268</v>
       </c>
       <c r="C15" t="s">
         <v>747</v>
@@ -16116,6 +16620,15 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
+      <c r="B20" s="10">
+        <v>45638</v>
+      </c>
+      <c r="C20" t="s">
+        <v>747</v>
+      </c>
+      <c r="D20" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>

--- a/InstrumentList_v1.1.xlsx
+++ b/InstrumentList_v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\MAQ-Observations.nl\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64AF7E4-F627-4652-8DAA-95510805296E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D48DD6-CF53-4741-AC54-FD356C1820FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3859" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3883" uniqueCount="811">
   <si>
     <t>Stream name</t>
   </si>
@@ -3154,6 +3154,18 @@
   </si>
   <si>
     <t>Relative humidity (1.5 m)</t>
+  </si>
+  <si>
+    <t>Uncalibrated sensor, low quality</t>
+  </si>
+  <si>
+    <t>Not fully quality controlled</t>
+  </si>
+  <si>
+    <t>Issues with filterhead air leakage, leading to potential underestimation of some data</t>
+  </si>
+  <si>
+    <t>Added extra notes for Veenkampen Teledynes and BAM. Work in progress to add additional quality flags.</t>
   </si>
 </sst>
 </file>
@@ -3609,7 +3621,7 @@
     <col min="2" max="2" width="8.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.42578125" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
@@ -7364,7 +7376,7 @@
         <v>639</v>
       </c>
       <c r="E190" t="s">
-        <v>710</v>
+        <v>807</v>
       </c>
       <c r="F190" t="s">
         <v>729</v>
@@ -7386,6 +7398,9 @@
       <c r="D191" t="s">
         <v>649</v>
       </c>
+      <c r="E191" t="s">
+        <v>808</v>
+      </c>
       <c r="F191" t="s">
         <v>729</v>
       </c>
@@ -7406,6 +7421,9 @@
       <c r="D192" t="s">
         <v>646</v>
       </c>
+      <c r="E192" t="s">
+        <v>808</v>
+      </c>
       <c r="F192" t="s">
         <v>729</v>
       </c>
@@ -7426,6 +7444,9 @@
       <c r="D193" t="s">
         <v>648</v>
       </c>
+      <c r="E193" t="s">
+        <v>808</v>
+      </c>
       <c r="F193" t="s">
         <v>729</v>
       </c>
@@ -7446,6 +7467,9 @@
       <c r="D194" t="s">
         <v>650</v>
       </c>
+      <c r="E194" t="s">
+        <v>808</v>
+      </c>
       <c r="F194" t="s">
         <v>729</v>
       </c>
@@ -7466,6 +7490,9 @@
       <c r="D195" t="s">
         <v>638</v>
       </c>
+      <c r="E195" t="s">
+        <v>809</v>
+      </c>
       <c r="F195" t="s">
         <v>729</v>
       </c>
@@ -7486,6 +7513,9 @@
       <c r="D196" s="4" t="s">
         <v>786</v>
       </c>
+      <c r="E196" t="s">
+        <v>809</v>
+      </c>
       <c r="F196" t="s">
         <v>724</v>
       </c>
@@ -7506,6 +7536,9 @@
       <c r="D197" t="s">
         <v>787</v>
       </c>
+      <c r="E197" t="s">
+        <v>809</v>
+      </c>
       <c r="F197" t="s">
         <v>724</v>
       </c>
@@ -7526,6 +7559,9 @@
       <c r="D198" s="4" t="s">
         <v>788</v>
       </c>
+      <c r="E198" t="s">
+        <v>809</v>
+      </c>
       <c r="F198" t="s">
         <v>724</v>
       </c>
@@ -7546,6 +7582,9 @@
       <c r="D199" s="4" t="s">
         <v>790</v>
       </c>
+      <c r="E199" t="s">
+        <v>809</v>
+      </c>
       <c r="F199" t="s">
         <v>724</v>
       </c>
@@ -7566,6 +7605,9 @@
       <c r="D200" s="4" t="s">
         <v>789</v>
       </c>
+      <c r="E200" t="s">
+        <v>809</v>
+      </c>
       <c r="F200" t="s">
         <v>724</v>
       </c>
@@ -7586,6 +7628,9 @@
       <c r="D201" t="s">
         <v>792</v>
       </c>
+      <c r="E201" t="s">
+        <v>809</v>
+      </c>
       <c r="F201" t="s">
         <v>724</v>
       </c>
@@ -7606,6 +7651,9 @@
       <c r="D202" s="4" t="s">
         <v>791</v>
       </c>
+      <c r="E202" t="s">
+        <v>809</v>
+      </c>
       <c r="F202" t="s">
         <v>724</v>
       </c>
@@ -7626,6 +7674,9 @@
       <c r="D203" s="4" t="s">
         <v>793</v>
       </c>
+      <c r="E203" t="s">
+        <v>809</v>
+      </c>
       <c r="F203" t="s">
         <v>724</v>
       </c>
@@ -7646,6 +7697,9 @@
       <c r="D204" s="4" t="s">
         <v>794</v>
       </c>
+      <c r="E204" t="s">
+        <v>809</v>
+      </c>
       <c r="F204" t="s">
         <v>724</v>
       </c>
@@ -7666,6 +7720,9 @@
       <c r="D205" s="4" t="s">
         <v>795</v>
       </c>
+      <c r="E205" t="s">
+        <v>809</v>
+      </c>
       <c r="F205" t="s">
         <v>724</v>
       </c>
@@ -7686,6 +7743,9 @@
       <c r="D206" s="4" t="s">
         <v>796</v>
       </c>
+      <c r="E206" t="s">
+        <v>809</v>
+      </c>
       <c r="F206" t="s">
         <v>724</v>
       </c>
@@ -7706,6 +7766,9 @@
       <c r="D207" s="4" t="s">
         <v>797</v>
       </c>
+      <c r="E207" t="s">
+        <v>809</v>
+      </c>
       <c r="F207" t="s">
         <v>724</v>
       </c>
@@ -7726,6 +7789,9 @@
       <c r="D208" s="4" t="s">
         <v>798</v>
       </c>
+      <c r="E208" t="s">
+        <v>809</v>
+      </c>
       <c r="F208" t="s">
         <v>724</v>
       </c>
@@ -7746,6 +7812,9 @@
       <c r="D209" s="4" t="s">
         <v>799</v>
       </c>
+      <c r="E209" t="s">
+        <v>809</v>
+      </c>
       <c r="F209" t="s">
         <v>724</v>
       </c>
@@ -7766,6 +7835,9 @@
       <c r="D210" s="4" t="s">
         <v>800</v>
       </c>
+      <c r="E210" t="s">
+        <v>809</v>
+      </c>
       <c r="F210" t="s">
         <v>724</v>
       </c>
@@ -7786,6 +7858,9 @@
       <c r="D211" s="4" t="s">
         <v>801</v>
       </c>
+      <c r="E211" t="s">
+        <v>809</v>
+      </c>
       <c r="F211" t="s">
         <v>724</v>
       </c>
@@ -7805,6 +7880,9 @@
       </c>
       <c r="D212" s="4" t="s">
         <v>802</v>
+      </c>
+      <c r="E212" t="s">
+        <v>809</v>
       </c>
       <c r="F212" t="s">
         <v>724</v>
@@ -16632,6 +16710,15 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
+      <c r="B21" s="10">
+        <v>45714</v>
+      </c>
+      <c r="C21" t="s">
+        <v>743</v>
+      </c>
+      <c r="D21" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>

--- a/InstrumentList_v1.1.xlsx
+++ b/InstrumentList_v1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\MAQ-Observations.nl\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D48DD6-CF53-4741-AC54-FD356C1820FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B858E42-D3B2-4471-AC90-318EAF24F6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Veenkampen" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3883" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="829">
   <si>
     <t>Stream name</t>
   </si>
@@ -2913,9 +2913,6 @@
     <t>Measurement interval</t>
   </si>
   <si>
-    <t>2 seconds</t>
-  </si>
-  <si>
     <t>1 minute</t>
   </si>
   <si>
@@ -2923,12 +2920,6 @@
   </si>
   <si>
     <t>30 seconds</t>
-  </si>
-  <si>
-    <t>5 seconds</t>
-  </si>
-  <si>
-    <t>1 second</t>
   </si>
   <si>
     <t>Metadata</t>
@@ -3166,6 +3157,69 @@
   </si>
   <si>
     <t>Added extra notes for Veenkampen Teledynes and BAM. Work in progress to add additional quality flags.</t>
+  </si>
+  <si>
+    <t>Do not use. Needs corrections first.</t>
+  </si>
+  <si>
+    <t>Added disclaimer for Snow Height data. Please do not use this data. This data has not been properly documented. We will check whether we can get a signal from this data.</t>
+  </si>
+  <si>
+    <t>The source data in the SQL database originates from various sensors. We post-process and quality control the collected data using Python scripts before sending to the SQL database. Near real-time data is submitted every 10 minutes. The data is available at a temporal resolution of up to 20 seconds. Data collection is fully automated and quality-controlled before sending to our database.</t>
+  </si>
+  <si>
+    <t>The data being measured is provided as Open Access data through https://maq-observations.nl/. This site is also part of the Ruisdael Observatory, a nationwide observatory for measurements of the atmosphere.</t>
+  </si>
+  <si>
+    <t>Please refer to our data license page: https://maq-observations.nl/maq-data-license/</t>
+  </si>
+  <si>
+    <t>Lineage statement:</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Use limitation:</t>
+  </si>
+  <si>
+    <t>Unlimited</t>
+  </si>
+  <si>
+    <t>Dataset start time:</t>
+  </si>
+  <si>
+    <t>Dataset end time:</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t>License:</t>
+  </si>
+  <si>
+    <t>Update frequency:</t>
+  </si>
+  <si>
+    <t>Continual, 10 minutes</t>
+  </si>
+  <si>
+    <t>Missing data identifier:</t>
+  </si>
+  <si>
+    <t>Every measurement (MEASURE) is a unique combination of STREAM_ID (a proxy of variable name), UNIT, and TIMESTAMP. To save storage in the SQL database and increase API speed, missing measurements are not saved as such (NaN, None, -999. e.g.). If you retrieve data through the API, missing data will actually be missing, rather than having a missing data identifier.</t>
+  </si>
+  <si>
+    <t>Added additional metadata information: Lineage statement, purpose, use limitation, dataset start time, dataset end time, update frequency, missing data identifier, license</t>
+  </si>
+  <si>
+    <t>5 minutes</t>
+  </si>
+  <si>
+    <t>20 seconds</t>
+  </si>
+  <si>
+    <t>Corrected measurement interval for many variables across Veenkampen, Loobos and Amsterdam</t>
   </si>
 </sst>
 </file>
@@ -3281,7 +3335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3295,6 +3349,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3665,13 +3722,13 @@
         <v>690</v>
       </c>
       <c r="D4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>726</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3685,13 +3742,13 @@
         <v>690</v>
       </c>
       <c r="D5" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F5" t="s">
         <v>724</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3705,13 +3762,13 @@
         <v>690</v>
       </c>
       <c r="D6" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>731</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3725,13 +3782,13 @@
         <v>690</v>
       </c>
       <c r="D7" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F7" t="s">
         <v>724</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3751,7 +3808,7 @@
         <v>724</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3765,13 +3822,13 @@
         <v>691</v>
       </c>
       <c r="D9" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F9" t="s">
         <v>724</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3785,13 +3842,13 @@
         <v>691</v>
       </c>
       <c r="D10" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>731</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -3811,7 +3868,7 @@
         <v>731</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -3831,7 +3888,7 @@
         <v>726</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -3851,7 +3908,7 @@
         <v>726</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -3871,7 +3928,7 @@
         <v>726</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -3891,7 +3948,7 @@
         <v>724</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -3911,7 +3968,7 @@
         <v>724</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -3931,7 +3988,7 @@
         <v>724</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -3951,7 +4008,7 @@
         <v>724</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3971,7 +4028,7 @@
         <v>724</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3991,7 +4048,7 @@
         <v>726</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4011,7 +4068,7 @@
         <v>724</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4027,11 +4084,14 @@
       <c r="D22" t="s">
         <v>514</v>
       </c>
+      <c r="E22" t="s">
+        <v>808</v>
+      </c>
       <c r="F22" t="s">
         <v>724</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4051,7 +4111,7 @@
         <v>732</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4071,7 +4131,7 @@
         <v>724</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4091,7 +4151,7 @@
         <v>724</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4111,7 +4171,7 @@
         <v>731</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4131,7 +4191,7 @@
         <v>724</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -4151,7 +4211,7 @@
         <v>731</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4171,7 +4231,7 @@
         <v>724</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4191,7 +4251,7 @@
         <v>724</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -4211,7 +4271,7 @@
         <v>724</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -4231,7 +4291,7 @@
         <v>730</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4251,7 +4311,7 @@
         <v>730</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -4271,7 +4331,7 @@
         <v>730</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4291,7 +4351,7 @@
         <v>730</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -4311,7 +4371,7 @@
         <v>730</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -4331,7 +4391,7 @@
         <v>730</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -4351,7 +4411,7 @@
         <v>730</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4371,7 +4431,7 @@
         <v>730</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -4391,7 +4451,7 @@
         <v>730</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4411,7 +4471,7 @@
         <v>730</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -4431,7 +4491,7 @@
         <v>730</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4451,7 +4511,7 @@
         <v>730</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4471,7 +4531,7 @@
         <v>730</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4491,7 +4551,7 @@
         <v>730</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4511,7 +4571,7 @@
         <v>730</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4531,7 +4591,7 @@
         <v>730</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4551,7 +4611,7 @@
         <v>730</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4571,7 +4631,7 @@
         <v>730</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4591,7 +4651,7 @@
         <v>730</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4611,7 +4671,7 @@
         <v>730</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4631,7 +4691,7 @@
         <v>730</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4651,7 +4711,7 @@
         <v>730</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4671,7 +4731,7 @@
         <v>730</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4691,7 +4751,7 @@
         <v>730</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -4711,7 +4771,7 @@
         <v>731</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4731,7 +4791,7 @@
         <v>724</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -4751,7 +4811,7 @@
         <v>724</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -4771,7 +4831,7 @@
         <v>724</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -4791,7 +4851,7 @@
         <v>724</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -4811,7 +4871,7 @@
         <v>724</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -4831,7 +4891,7 @@
         <v>724</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4851,7 +4911,7 @@
         <v>724</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -4871,7 +4931,7 @@
         <v>724</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -4891,7 +4951,7 @@
         <v>724</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4911,7 +4971,7 @@
         <v>727</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -4931,7 +4991,7 @@
         <v>727</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4951,7 +5011,7 @@
         <v>727</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -4971,7 +5031,7 @@
         <v>727</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4991,7 +5051,7 @@
         <v>727</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -5011,7 +5071,7 @@
         <v>727</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5031,7 +5091,7 @@
         <v>727</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -5051,7 +5111,7 @@
         <v>727</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5071,7 +5131,7 @@
         <v>727</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -5091,7 +5151,7 @@
         <v>727</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5111,7 +5171,7 @@
         <v>724</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5131,7 +5191,7 @@
         <v>724</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5151,7 +5211,7 @@
         <v>724</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5171,7 +5231,7 @@
         <v>724</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5191,7 +5251,7 @@
         <v>724</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5211,7 +5271,7 @@
         <v>724</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5231,7 +5291,7 @@
         <v>724</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
@@ -5251,7 +5311,7 @@
         <v>727</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
@@ -5271,7 +5331,7 @@
         <v>729</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -5291,7 +5351,7 @@
         <v>724</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -5311,7 +5371,7 @@
         <v>724</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5331,7 +5391,7 @@
         <v>724</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
@@ -5351,7 +5411,7 @@
         <v>727</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
@@ -5371,7 +5431,7 @@
         <v>729</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -5391,7 +5451,7 @@
         <v>724</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -5411,7 +5471,7 @@
         <v>724</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -5431,7 +5491,7 @@
         <v>724</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -5451,7 +5511,7 @@
         <v>724</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -5471,7 +5531,7 @@
         <v>724</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5491,7 +5551,7 @@
         <v>724</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5511,7 +5571,7 @@
         <v>724</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5531,7 +5591,7 @@
         <v>724</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5551,7 +5611,7 @@
         <v>724</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5571,7 +5631,7 @@
         <v>724</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -5591,7 +5651,7 @@
         <v>724</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -5611,7 +5671,7 @@
         <v>724</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5631,7 +5691,7 @@
         <v>724</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -5651,7 +5711,7 @@
         <v>724</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -5671,7 +5731,7 @@
         <v>724</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -5691,7 +5751,7 @@
         <v>724</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5711,7 +5771,7 @@
         <v>724</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5731,7 +5791,7 @@
         <v>724</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5751,7 +5811,7 @@
         <v>724</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5771,7 +5831,7 @@
         <v>724</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5791,7 +5851,7 @@
         <v>724</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5811,7 +5871,7 @@
         <v>724</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5831,7 +5891,7 @@
         <v>724</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5851,7 +5911,7 @@
         <v>724</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -5871,7 +5931,7 @@
         <v>724</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -5891,7 +5951,7 @@
         <v>724</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -5911,7 +5971,7 @@
         <v>724</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5931,7 +5991,7 @@
         <v>724</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5951,7 +6011,7 @@
         <v>727</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5971,7 +6031,7 @@
         <v>724</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -5991,7 +6051,7 @@
         <v>727</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -6011,7 +6071,7 @@
         <v>724</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -6031,7 +6091,7 @@
         <v>724</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -6051,7 +6111,7 @@
         <v>724</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -6071,7 +6131,7 @@
         <v>724</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -6091,7 +6151,7 @@
         <v>724</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -6111,7 +6171,7 @@
         <v>724</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -6131,7 +6191,7 @@
         <v>724</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -6151,7 +6211,7 @@
         <v>724</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -6171,7 +6231,7 @@
         <v>724</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -6191,7 +6251,7 @@
         <v>724</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -6211,7 +6271,7 @@
         <v>724</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -6231,7 +6291,7 @@
         <v>724</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -6251,7 +6311,7 @@
         <v>724</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -6271,7 +6331,7 @@
         <v>724</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -6291,7 +6351,7 @@
         <v>724</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -6311,7 +6371,7 @@
         <v>724</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -6331,7 +6391,7 @@
         <v>724</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -6351,7 +6411,7 @@
         <v>724</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -6371,7 +6431,7 @@
         <v>724</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -6391,7 +6451,7 @@
         <v>724</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -6411,7 +6471,7 @@
         <v>724</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -6431,7 +6491,7 @@
         <v>724</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -6451,7 +6511,7 @@
         <v>724</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -6471,7 +6531,7 @@
         <v>724</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -6491,7 +6551,7 @@
         <v>724</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -6511,7 +6571,7 @@
         <v>724</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -6531,7 +6591,7 @@
         <v>724</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -6551,7 +6611,7 @@
         <v>724</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -6571,7 +6631,7 @@
         <v>724</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -6591,7 +6651,7 @@
         <v>724</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -6611,7 +6671,7 @@
         <v>724</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -6631,7 +6691,7 @@
         <v>724</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -6651,7 +6711,7 @@
         <v>724</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -6671,7 +6731,7 @@
         <v>724</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -6691,7 +6751,7 @@
         <v>724</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -6711,7 +6771,7 @@
         <v>724</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -6731,7 +6791,7 @@
         <v>724</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -6751,7 +6811,7 @@
         <v>724</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -6771,7 +6831,7 @@
         <v>724</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -6788,7 +6848,7 @@
         <v>724</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -6805,7 +6865,7 @@
         <v>724</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -6822,7 +6882,7 @@
         <v>724</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -6839,7 +6899,7 @@
         <v>724</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -6856,7 +6916,7 @@
         <v>724</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -6876,7 +6936,7 @@
         <v>727</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -6896,7 +6956,7 @@
         <v>727</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -6916,7 +6976,7 @@
         <v>727</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -6936,7 +6996,7 @@
         <v>727</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -6956,7 +7016,7 @@
         <v>724</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -6976,7 +7036,7 @@
         <v>724</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -6996,7 +7056,7 @@
         <v>724</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -7016,7 +7076,7 @@
         <v>724</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -7036,7 +7096,7 @@
         <v>724</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -7056,7 +7116,7 @@
         <v>729</v>
       </c>
       <c r="G174" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -7076,7 +7136,7 @@
         <v>724</v>
       </c>
       <c r="G175" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -7096,7 +7156,7 @@
         <v>724</v>
       </c>
       <c r="G176" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -7116,7 +7176,7 @@
         <v>724</v>
       </c>
       <c r="G177" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -7136,7 +7196,7 @@
         <v>724</v>
       </c>
       <c r="G178" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -7156,7 +7216,7 @@
         <v>724</v>
       </c>
       <c r="G179" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -7176,7 +7236,7 @@
         <v>724</v>
       </c>
       <c r="G180" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -7196,7 +7256,7 @@
         <v>724</v>
       </c>
       <c r="G181" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -7216,7 +7276,7 @@
         <v>724</v>
       </c>
       <c r="G182" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -7236,7 +7296,7 @@
         <v>724</v>
       </c>
       <c r="G183" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -7256,7 +7316,7 @@
         <v>724</v>
       </c>
       <c r="G184" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -7276,7 +7336,7 @@
         <v>724</v>
       </c>
       <c r="G185" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -7296,7 +7356,7 @@
         <v>724</v>
       </c>
       <c r="G186" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -7316,7 +7376,7 @@
         <v>724</v>
       </c>
       <c r="G187" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -7336,7 +7396,7 @@
         <v>724</v>
       </c>
       <c r="G188" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -7359,7 +7419,7 @@
         <v>729</v>
       </c>
       <c r="G189" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -7376,13 +7436,13 @@
         <v>639</v>
       </c>
       <c r="E190" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F190" t="s">
         <v>729</v>
       </c>
       <c r="G190" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -7399,13 +7459,13 @@
         <v>649</v>
       </c>
       <c r="E191" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F191" t="s">
         <v>729</v>
       </c>
       <c r="G191" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -7422,13 +7482,13 @@
         <v>646</v>
       </c>
       <c r="E192" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F192" t="s">
         <v>729</v>
       </c>
       <c r="G192" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -7445,13 +7505,13 @@
         <v>648</v>
       </c>
       <c r="E193" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F193" t="s">
         <v>729</v>
       </c>
       <c r="G193" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -7468,427 +7528,427 @@
         <v>650</v>
       </c>
       <c r="E194" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F194" t="s">
         <v>729</v>
       </c>
       <c r="G194" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B195" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C195" s="4" t="s">
         <v>781</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>784</v>
       </c>
       <c r="D195" t="s">
         <v>638</v>
       </c>
       <c r="E195" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F195" t="s">
         <v>729</v>
       </c>
       <c r="G195" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B196" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="E196" t="s">
+        <v>806</v>
+      </c>
+      <c r="F196" t="s">
+        <v>724</v>
+      </c>
+      <c r="G196" t="s">
         <v>782</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="E196" t="s">
-        <v>809</v>
-      </c>
-      <c r="F196" t="s">
-        <v>724</v>
-      </c>
-      <c r="G196" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C197" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="D197" t="s">
         <v>784</v>
       </c>
-      <c r="D197" t="s">
-        <v>787</v>
-      </c>
       <c r="E197" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F197" t="s">
         <v>724</v>
       </c>
       <c r="G197" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E198" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F198" t="s">
         <v>724</v>
       </c>
       <c r="G198" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E199" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F199" t="s">
         <v>724</v>
       </c>
       <c r="G199" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E200" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F200" t="s">
         <v>724</v>
       </c>
       <c r="G200" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D201" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E201" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F201" t="s">
         <v>724</v>
       </c>
       <c r="G201" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E202" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F202" t="s">
         <v>724</v>
       </c>
       <c r="G202" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E203" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F203" t="s">
         <v>724</v>
       </c>
       <c r="G203" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="E204" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F204" t="s">
         <v>724</v>
       </c>
       <c r="G204" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E205" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F205" t="s">
         <v>724</v>
       </c>
       <c r="G205" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E206" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F206" t="s">
         <v>724</v>
       </c>
       <c r="G206" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E207" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F207" t="s">
         <v>724</v>
       </c>
       <c r="G207" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E208" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F208" t="s">
         <v>724</v>
       </c>
       <c r="G208" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E209" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F209" t="s">
         <v>724</v>
       </c>
       <c r="G209" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E210" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F210" t="s">
         <v>724</v>
       </c>
       <c r="G210" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E211" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F211" t="s">
         <v>724</v>
       </c>
       <c r="G211" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E212" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F212" t="s">
         <v>724</v>
       </c>
       <c r="G212" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -7961,7 +8021,7 @@
         <v>731</v>
       </c>
       <c r="G4" t="s">
-        <v>734</v>
+        <v>827</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -7981,7 +8041,7 @@
         <v>726</v>
       </c>
       <c r="G5" t="s">
-        <v>734</v>
+        <v>827</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8001,7 +8061,7 @@
         <v>726</v>
       </c>
       <c r="G6" t="s">
-        <v>734</v>
+        <v>827</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8021,7 +8081,7 @@
         <v>726</v>
       </c>
       <c r="G7" t="s">
-        <v>734</v>
+        <v>827</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8040,8 +8100,8 @@
       <c r="F8" t="s">
         <v>724</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>734</v>
+      <c r="G8" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8060,8 +8120,8 @@
       <c r="F9" t="s">
         <v>724</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>734</v>
+      <c r="G9" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8080,8 +8140,8 @@
       <c r="F10" t="s">
         <v>724</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>734</v>
+      <c r="G10" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -8101,7 +8161,7 @@
         <v>731</v>
       </c>
       <c r="G11" t="s">
-        <v>734</v>
+        <v>827</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -8121,7 +8181,7 @@
         <v>731</v>
       </c>
       <c r="G12" t="s">
-        <v>734</v>
+        <v>827</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -8140,8 +8200,8 @@
       <c r="F13" t="s">
         <v>724</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>734</v>
+      <c r="G13" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -8160,8 +8220,8 @@
       <c r="F14" t="s">
         <v>724</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>734</v>
+      <c r="G14" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -8180,8 +8240,8 @@
       <c r="F15" t="s">
         <v>724</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>734</v>
+      <c r="G15" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -8200,8 +8260,8 @@
       <c r="F16" t="s">
         <v>724</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>734</v>
+      <c r="G16" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -8220,8 +8280,8 @@
       <c r="F17" t="s">
         <v>724</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>734</v>
+      <c r="G17" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -8240,8 +8300,8 @@
       <c r="F18" t="s">
         <v>732</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>734</v>
+      <c r="G18" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -8261,7 +8321,7 @@
         <v>731</v>
       </c>
       <c r="G19" t="s">
-        <v>734</v>
+        <v>827</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8281,7 +8341,7 @@
         <v>731</v>
       </c>
       <c r="G20" t="s">
-        <v>734</v>
+        <v>827</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8300,8 +8360,8 @@
       <c r="F21" t="s">
         <v>724</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>734</v>
+      <c r="G21" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8320,8 +8380,8 @@
       <c r="F22" t="s">
         <v>724</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>734</v>
+      <c r="G22" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8340,8 +8400,8 @@
       <c r="F23" t="s">
         <v>724</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>734</v>
+      <c r="G23" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8360,8 +8420,8 @@
       <c r="F24" t="s">
         <v>724</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>734</v>
+      <c r="G24" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -8381,7 +8441,7 @@
         <v>731</v>
       </c>
       <c r="G25" t="s">
-        <v>734</v>
+        <v>827</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -8400,8 +8460,8 @@
       <c r="F26" t="s">
         <v>724</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>734</v>
+      <c r="G26" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -8420,8 +8480,8 @@
       <c r="F27" t="s">
         <v>724</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>734</v>
+      <c r="G27" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -8440,8 +8500,8 @@
       <c r="F28" t="s">
         <v>724</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>734</v>
+      <c r="G28" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -8460,8 +8520,8 @@
       <c r="F29" t="s">
         <v>724</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>734</v>
+      <c r="G29" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -8481,7 +8541,7 @@
         <v>730</v>
       </c>
       <c r="G30" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -8501,7 +8561,7 @@
         <v>730</v>
       </c>
       <c r="G31" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -8521,7 +8581,7 @@
         <v>730</v>
       </c>
       <c r="G32" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -8541,7 +8601,7 @@
         <v>730</v>
       </c>
       <c r="G33" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -8561,7 +8621,7 @@
         <v>730</v>
       </c>
       <c r="G34" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -8581,7 +8641,7 @@
         <v>730</v>
       </c>
       <c r="G35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -8601,7 +8661,7 @@
         <v>730</v>
       </c>
       <c r="G36" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -8620,7 +8680,7 @@
       <c r="F37" t="s">
         <v>724</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" t="s">
         <v>734</v>
       </c>
     </row>
@@ -8641,7 +8701,7 @@
         <v>730</v>
       </c>
       <c r="G38" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -8661,7 +8721,7 @@
         <v>730</v>
       </c>
       <c r="G39" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -8681,7 +8741,7 @@
         <v>730</v>
       </c>
       <c r="G40" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -8701,7 +8761,7 @@
         <v>730</v>
       </c>
       <c r="G41" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -8721,7 +8781,7 @@
         <v>730</v>
       </c>
       <c r="G42" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -8741,7 +8801,7 @@
         <v>730</v>
       </c>
       <c r="G43" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -8761,7 +8821,7 @@
         <v>730</v>
       </c>
       <c r="G44" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -8780,7 +8840,7 @@
       <c r="F45" t="s">
         <v>724</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" t="s">
         <v>734</v>
       </c>
     </row>
@@ -8801,7 +8861,7 @@
         <v>730</v>
       </c>
       <c r="G46" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -8821,7 +8881,7 @@
         <v>730</v>
       </c>
       <c r="G47" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -8840,7 +8900,7 @@
       <c r="F48" t="s">
         <v>724</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" t="s">
         <v>734</v>
       </c>
     </row>
@@ -8861,7 +8921,7 @@
         <v>730</v>
       </c>
       <c r="G49" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -8881,7 +8941,7 @@
         <v>730</v>
       </c>
       <c r="G50" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -8901,7 +8961,7 @@
         <v>730</v>
       </c>
       <c r="G51" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -8921,7 +8981,7 @@
         <v>730</v>
       </c>
       <c r="G52" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -8941,7 +9001,7 @@
         <v>730</v>
       </c>
       <c r="G53" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -8961,7 +9021,7 @@
         <v>730</v>
       </c>
       <c r="G54" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -8981,7 +9041,7 @@
         <v>730</v>
       </c>
       <c r="G55" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -9001,7 +9061,7 @@
         <v>730</v>
       </c>
       <c r="G56" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -9021,7 +9081,7 @@
         <v>730</v>
       </c>
       <c r="G57" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -9041,7 +9101,7 @@
         <v>730</v>
       </c>
       <c r="G58" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -9061,7 +9121,7 @@
         <v>730</v>
       </c>
       <c r="G59" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -9081,7 +9141,7 @@
         <v>730</v>
       </c>
       <c r="G60" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -9101,7 +9161,7 @@
         <v>730</v>
       </c>
       <c r="G61" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -9121,7 +9181,7 @@
         <v>730</v>
       </c>
       <c r="G62" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -9141,7 +9201,7 @@
         <v>730</v>
       </c>
       <c r="G63" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -9161,7 +9221,7 @@
         <v>730</v>
       </c>
       <c r="G64" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -9181,7 +9241,7 @@
         <v>724</v>
       </c>
       <c r="G65" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -9201,7 +9261,7 @@
         <v>730</v>
       </c>
       <c r="G66" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -9221,7 +9281,7 @@
         <v>724</v>
       </c>
       <c r="G67" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -9241,7 +9301,7 @@
         <v>730</v>
       </c>
       <c r="G68" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -9261,7 +9321,7 @@
         <v>724</v>
       </c>
       <c r="G69" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -9281,7 +9341,7 @@
         <v>730</v>
       </c>
       <c r="G70" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -9301,7 +9361,7 @@
         <v>724</v>
       </c>
       <c r="G71" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -9321,7 +9381,7 @@
         <v>730</v>
       </c>
       <c r="G72" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -9341,7 +9401,7 @@
         <v>730</v>
       </c>
       <c r="G73" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -9361,7 +9421,7 @@
         <v>724</v>
       </c>
       <c r="G74" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -9381,7 +9441,7 @@
         <v>724</v>
       </c>
       <c r="G75" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -9401,7 +9461,7 @@
         <v>724</v>
       </c>
       <c r="G76" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -9421,7 +9481,7 @@
         <v>724</v>
       </c>
       <c r="G77" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -9441,7 +9501,7 @@
         <v>724</v>
       </c>
       <c r="G78" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -9461,7 +9521,7 @@
         <v>724</v>
       </c>
       <c r="G79" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -9481,7 +9541,7 @@
         <v>724</v>
       </c>
       <c r="G80" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -9501,7 +9561,7 @@
         <v>724</v>
       </c>
       <c r="G81" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -9521,7 +9581,7 @@
         <v>724</v>
       </c>
       <c r="G82" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -9541,7 +9601,7 @@
         <v>724</v>
       </c>
       <c r="G83" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -9561,7 +9621,7 @@
         <v>724</v>
       </c>
       <c r="G84" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -9581,7 +9641,7 @@
         <v>724</v>
       </c>
       <c r="G85" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -9601,7 +9661,7 @@
         <v>724</v>
       </c>
       <c r="G86" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -9621,7 +9681,7 @@
         <v>724</v>
       </c>
       <c r="G87" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -9641,7 +9701,7 @@
         <v>724</v>
       </c>
       <c r="G88" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -9661,7 +9721,7 @@
         <v>724</v>
       </c>
       <c r="G89" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -9678,7 +9738,7 @@
         <v>724</v>
       </c>
       <c r="G90" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -9695,7 +9755,7 @@
         <v>724</v>
       </c>
       <c r="G91" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -9712,7 +9772,7 @@
         <v>724</v>
       </c>
       <c r="G92" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -9729,7 +9789,7 @@
         <v>724</v>
       </c>
       <c r="G93" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -9749,7 +9809,7 @@
         <v>724</v>
       </c>
       <c r="G94" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -9769,7 +9829,7 @@
         <v>724</v>
       </c>
       <c r="G95" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -9789,7 +9849,7 @@
         <v>724</v>
       </c>
       <c r="G96" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -9809,7 +9869,7 @@
         <v>724</v>
       </c>
       <c r="G97" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -9829,7 +9889,7 @@
         <v>724</v>
       </c>
       <c r="G98" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -9849,7 +9909,7 @@
         <v>724</v>
       </c>
       <c r="G99" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -9869,7 +9929,7 @@
         <v>727</v>
       </c>
       <c r="G100" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -9889,7 +9949,7 @@
         <v>727</v>
       </c>
       <c r="G101" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -9909,7 +9969,7 @@
         <v>724</v>
       </c>
       <c r="G102" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -9929,7 +9989,7 @@
         <v>727</v>
       </c>
       <c r="G103" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -9949,7 +10009,7 @@
         <v>727</v>
       </c>
       <c r="G104" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -9969,7 +10029,7 @@
         <v>724</v>
       </c>
       <c r="G105" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -9989,7 +10049,7 @@
         <v>727</v>
       </c>
       <c r="G106" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -10009,7 +10069,7 @@
         <v>727</v>
       </c>
       <c r="G107" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10029,7 +10089,7 @@
         <v>724</v>
       </c>
       <c r="G108" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10049,7 +10109,7 @@
         <v>727</v>
       </c>
       <c r="G109" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -10069,7 +10129,7 @@
         <v>727</v>
       </c>
       <c r="G110" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10089,7 +10149,7 @@
         <v>724</v>
       </c>
       <c r="G111" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10109,7 +10169,7 @@
         <v>727</v>
       </c>
       <c r="G112" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -10129,7 +10189,7 @@
         <v>727</v>
       </c>
       <c r="G113" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10149,7 +10209,7 @@
         <v>724</v>
       </c>
       <c r="G114" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10169,7 +10229,7 @@
         <v>727</v>
       </c>
       <c r="G115" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -10189,7 +10249,7 @@
         <v>727</v>
       </c>
       <c r="G116" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10209,7 +10269,7 @@
         <v>724</v>
       </c>
       <c r="G117" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10229,7 +10289,7 @@
         <v>724</v>
       </c>
       <c r="G118" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -10249,7 +10309,7 @@
         <v>724</v>
       </c>
       <c r="G119" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10269,7 +10329,7 @@
         <v>724</v>
       </c>
       <c r="G120" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10289,7 +10349,7 @@
         <v>724</v>
       </c>
       <c r="G121" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10309,7 +10369,7 @@
         <v>724</v>
       </c>
       <c r="G122" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10329,7 +10389,7 @@
         <v>724</v>
       </c>
       <c r="G123" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10349,7 +10409,7 @@
         <v>724</v>
       </c>
       <c r="G124" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10369,7 +10429,7 @@
         <v>724</v>
       </c>
       <c r="G125" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10389,7 +10449,7 @@
         <v>724</v>
       </c>
       <c r="G126" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10409,7 +10469,7 @@
         <v>724</v>
       </c>
       <c r="G127" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10429,7 +10489,7 @@
         <v>724</v>
       </c>
       <c r="G128" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10449,7 +10509,7 @@
         <v>724</v>
       </c>
       <c r="G129" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10469,7 +10529,7 @@
         <v>724</v>
       </c>
       <c r="G130" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10489,7 +10549,7 @@
         <v>724</v>
       </c>
       <c r="G131" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
@@ -10509,7 +10569,7 @@
         <v>727</v>
       </c>
       <c r="G132" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
@@ -10529,7 +10589,7 @@
         <v>729</v>
       </c>
       <c r="G133" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -10549,7 +10609,7 @@
         <v>724</v>
       </c>
       <c r="G134" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -10569,7 +10629,7 @@
         <v>724</v>
       </c>
       <c r="G135" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10589,7 +10649,7 @@
         <v>724</v>
       </c>
       <c r="G136" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
@@ -10609,7 +10669,7 @@
         <v>727</v>
       </c>
       <c r="G137" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
@@ -10629,7 +10689,7 @@
         <v>729</v>
       </c>
       <c r="G138" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -10649,7 +10709,7 @@
         <v>724</v>
       </c>
       <c r="G139" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -10669,7 +10729,7 @@
         <v>724</v>
       </c>
       <c r="G140" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10689,7 +10749,7 @@
         <v>724</v>
       </c>
       <c r="G141" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
@@ -10709,7 +10769,7 @@
         <v>727</v>
       </c>
       <c r="G142" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
@@ -10729,7 +10789,7 @@
         <v>729</v>
       </c>
       <c r="G143" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -10749,7 +10809,7 @@
         <v>724</v>
       </c>
       <c r="G144" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -10769,7 +10829,7 @@
         <v>724</v>
       </c>
       <c r="G145" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10789,7 +10849,7 @@
         <v>724</v>
       </c>
       <c r="G146" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
@@ -10809,7 +10869,7 @@
         <v>724</v>
       </c>
       <c r="G147" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
@@ -10829,7 +10889,7 @@
         <v>724</v>
       </c>
       <c r="G148" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -10849,7 +10909,7 @@
         <v>724</v>
       </c>
       <c r="G149" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -10869,7 +10929,7 @@
         <v>724</v>
       </c>
       <c r="G150" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -10889,7 +10949,7 @@
         <v>724</v>
       </c>
       <c r="G151" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -10909,7 +10969,7 @@
         <v>724</v>
       </c>
       <c r="G152" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -10929,7 +10989,7 @@
         <v>724</v>
       </c>
       <c r="G153" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10949,7 +11009,7 @@
         <v>724</v>
       </c>
       <c r="G154" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10969,7 +11029,7 @@
         <v>724</v>
       </c>
       <c r="G155" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -10989,7 +11049,7 @@
         <v>724</v>
       </c>
       <c r="G156" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -11009,7 +11069,7 @@
         <v>724</v>
       </c>
       <c r="G157" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -11029,7 +11089,7 @@
         <v>724</v>
       </c>
       <c r="G158" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -11049,7 +11109,7 @@
         <v>724</v>
       </c>
       <c r="G159" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -11069,7 +11129,7 @@
         <v>724</v>
       </c>
       <c r="G160" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -11089,7 +11149,7 @@
         <v>724</v>
       </c>
       <c r="G161" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -11109,7 +11169,7 @@
         <v>724</v>
       </c>
       <c r="G162" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -11129,7 +11189,7 @@
         <v>724</v>
       </c>
       <c r="G163" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -11149,7 +11209,7 @@
         <v>724</v>
       </c>
       <c r="G164" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -11169,7 +11229,7 @@
         <v>724</v>
       </c>
       <c r="G165" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -11189,7 +11249,7 @@
         <v>724</v>
       </c>
       <c r="G166" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -11209,7 +11269,7 @@
         <v>724</v>
       </c>
       <c r="G167" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -11229,7 +11289,7 @@
         <v>724</v>
       </c>
       <c r="G168" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -11249,7 +11309,7 @@
         <v>724</v>
       </c>
       <c r="G169" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -11269,7 +11329,7 @@
         <v>724</v>
       </c>
       <c r="G170" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -11289,7 +11349,7 @@
         <v>724</v>
       </c>
       <c r="G171" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -11309,7 +11369,7 @@
         <v>724</v>
       </c>
       <c r="G172" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -11329,7 +11389,7 @@
         <v>724</v>
       </c>
       <c r="G173" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -11349,7 +11409,7 @@
         <v>724</v>
       </c>
       <c r="G174" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -11369,7 +11429,7 @@
         <v>724</v>
       </c>
       <c r="G175" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -11389,7 +11449,7 @@
         <v>724</v>
       </c>
       <c r="G176" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -11409,7 +11469,7 @@
         <v>727</v>
       </c>
       <c r="G177" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -11429,7 +11489,7 @@
         <v>724</v>
       </c>
       <c r="G178" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -11449,7 +11509,7 @@
         <v>727</v>
       </c>
       <c r="G179" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -11469,7 +11529,7 @@
         <v>724</v>
       </c>
       <c r="G180" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -11489,7 +11549,7 @@
         <v>724</v>
       </c>
       <c r="G181" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -11509,7 +11569,7 @@
         <v>724</v>
       </c>
       <c r="G182" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -11529,7 +11589,7 @@
         <v>724</v>
       </c>
       <c r="G183" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -11549,7 +11609,7 @@
         <v>724</v>
       </c>
       <c r="G184" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -11569,7 +11629,7 @@
         <v>724</v>
       </c>
       <c r="G185" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -11589,7 +11649,7 @@
         <v>724</v>
       </c>
       <c r="G186" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -11609,7 +11669,7 @@
         <v>724</v>
       </c>
       <c r="G187" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -11629,7 +11689,7 @@
         <v>724</v>
       </c>
       <c r="G188" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -11649,7 +11709,7 @@
         <v>724</v>
       </c>
       <c r="G189" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -11669,7 +11729,7 @@
         <v>724</v>
       </c>
       <c r="G190" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -11689,7 +11749,7 @@
         <v>724</v>
       </c>
       <c r="G191" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -11709,7 +11769,7 @@
         <v>724</v>
       </c>
       <c r="G192" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -11729,7 +11789,7 @@
         <v>724</v>
       </c>
       <c r="G193" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -11749,7 +11809,7 @@
         <v>724</v>
       </c>
       <c r="G194" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -11769,7 +11829,7 @@
         <v>724</v>
       </c>
       <c r="G195" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -11789,7 +11849,7 @@
         <v>724</v>
       </c>
       <c r="G196" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -11809,7 +11869,7 @@
         <v>724</v>
       </c>
       <c r="G197" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -11829,7 +11889,7 @@
         <v>724</v>
       </c>
       <c r="G198" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -11849,7 +11909,7 @@
         <v>724</v>
       </c>
       <c r="G199" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -11869,7 +11929,7 @@
         <v>724</v>
       </c>
       <c r="G200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -11889,7 +11949,7 @@
         <v>724</v>
       </c>
       <c r="G201" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -11909,7 +11969,7 @@
         <v>724</v>
       </c>
       <c r="G202" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -11929,7 +11989,7 @@
         <v>724</v>
       </c>
       <c r="G203" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -11949,7 +12009,7 @@
         <v>724</v>
       </c>
       <c r="G204" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -11969,7 +12029,7 @@
         <v>724</v>
       </c>
       <c r="G205" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -11989,7 +12049,7 @@
         <v>724</v>
       </c>
       <c r="G206" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -12009,7 +12069,7 @@
         <v>724</v>
       </c>
       <c r="G207" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -12029,7 +12089,7 @@
         <v>724</v>
       </c>
       <c r="G208" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -12049,7 +12109,7 @@
         <v>724</v>
       </c>
       <c r="G209" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -12069,7 +12129,7 @@
         <v>724</v>
       </c>
       <c r="G210" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -12089,7 +12149,7 @@
         <v>724</v>
       </c>
       <c r="G211" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -12109,7 +12169,7 @@
         <v>724</v>
       </c>
       <c r="G212" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -12129,7 +12189,7 @@
         <v>724</v>
       </c>
       <c r="G213" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -12149,7 +12209,7 @@
         <v>724</v>
       </c>
       <c r="G214" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -12169,7 +12229,7 @@
         <v>724</v>
       </c>
       <c r="G215" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -12189,7 +12249,7 @@
         <v>724</v>
       </c>
       <c r="G216" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -12209,7 +12269,7 @@
         <v>724</v>
       </c>
       <c r="G217" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -12229,7 +12289,7 @@
         <v>724</v>
       </c>
       <c r="G218" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -12249,7 +12309,7 @@
         <v>724</v>
       </c>
       <c r="G219" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -12269,7 +12329,7 @@
         <v>724</v>
       </c>
       <c r="G220" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -12289,7 +12349,7 @@
         <v>724</v>
       </c>
       <c r="G221" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -12309,7 +12369,7 @@
         <v>724</v>
       </c>
       <c r="G222" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -12329,7 +12389,7 @@
         <v>724</v>
       </c>
       <c r="G223" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -12349,7 +12409,7 @@
         <v>724</v>
       </c>
       <c r="G224" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -12366,7 +12426,7 @@
         <v>724</v>
       </c>
       <c r="G225" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -12383,7 +12443,7 @@
         <v>724</v>
       </c>
       <c r="G226" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -12400,7 +12460,7 @@
         <v>724</v>
       </c>
       <c r="G227" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -12417,7 +12477,7 @@
         <v>724</v>
       </c>
       <c r="G228" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -12434,7 +12494,7 @@
         <v>724</v>
       </c>
       <c r="G229" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -12451,7 +12511,7 @@
         <v>724</v>
       </c>
       <c r="G230" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -12468,7 +12528,7 @@
         <v>724</v>
       </c>
       <c r="G231" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -12485,7 +12545,7 @@
         <v>724</v>
       </c>
       <c r="G232" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -12502,7 +12562,7 @@
         <v>724</v>
       </c>
       <c r="G233" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -12519,7 +12579,7 @@
         <v>724</v>
       </c>
       <c r="G234" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -12536,7 +12596,7 @@
         <v>724</v>
       </c>
       <c r="G235" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -12553,7 +12613,7 @@
         <v>724</v>
       </c>
       <c r="G236" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -12570,7 +12630,7 @@
         <v>724</v>
       </c>
       <c r="G237" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -12587,7 +12647,7 @@
         <v>724</v>
       </c>
       <c r="G238" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -12604,7 +12664,7 @@
         <v>724</v>
       </c>
       <c r="G239" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -12621,7 +12681,7 @@
         <v>724</v>
       </c>
       <c r="G240" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -12638,7 +12698,7 @@
         <v>724</v>
       </c>
       <c r="G241" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -12655,7 +12715,7 @@
         <v>724</v>
       </c>
       <c r="G242" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -12672,7 +12732,7 @@
         <v>724</v>
       </c>
       <c r="G243" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -12689,7 +12749,7 @@
         <v>724</v>
       </c>
       <c r="G244" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -12706,7 +12766,7 @@
         <v>724</v>
       </c>
       <c r="G245" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -12723,7 +12783,7 @@
         <v>724</v>
       </c>
       <c r="G246" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -12740,7 +12800,7 @@
         <v>724</v>
       </c>
       <c r="G247" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -12757,7 +12817,7 @@
         <v>724</v>
       </c>
       <c r="G248" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -12774,7 +12834,7 @@
         <v>724</v>
       </c>
       <c r="G249" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -12791,7 +12851,7 @@
         <v>724</v>
       </c>
       <c r="G250" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -12808,7 +12868,7 @@
         <v>724</v>
       </c>
       <c r="G251" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -12825,7 +12885,7 @@
         <v>724</v>
       </c>
       <c r="G252" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -12842,7 +12902,7 @@
         <v>724</v>
       </c>
       <c r="G253" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -12859,7 +12919,7 @@
         <v>724</v>
       </c>
       <c r="G254" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -12876,7 +12936,7 @@
         <v>724</v>
       </c>
       <c r="G255" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -12896,7 +12956,7 @@
         <v>727</v>
       </c>
       <c r="G256" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -12916,7 +12976,7 @@
         <v>727</v>
       </c>
       <c r="G257" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -12936,7 +12996,7 @@
         <v>727</v>
       </c>
       <c r="G258" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -12956,7 +13016,7 @@
         <v>727</v>
       </c>
       <c r="G259" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -12976,7 +13036,7 @@
         <v>724</v>
       </c>
       <c r="G260" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -12996,7 +13056,7 @@
         <v>724</v>
       </c>
       <c r="G261" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -13016,7 +13076,7 @@
         <v>724</v>
       </c>
       <c r="G262" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -13036,7 +13096,7 @@
         <v>724</v>
       </c>
       <c r="G263" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13056,7 +13116,7 @@
         <v>724</v>
       </c>
       <c r="G264" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -13076,7 +13136,7 @@
         <v>724</v>
       </c>
       <c r="G265" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -13096,7 +13156,7 @@
         <v>724</v>
       </c>
       <c r="G266" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -13116,7 +13176,7 @@
         <v>724</v>
       </c>
       <c r="G267" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -13136,7 +13196,7 @@
         <v>724</v>
       </c>
       <c r="G268" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -13156,7 +13216,7 @@
         <v>724</v>
       </c>
       <c r="G269" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -13176,7 +13236,7 @@
         <v>724</v>
       </c>
       <c r="G270" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -13196,7 +13256,7 @@
         <v>724</v>
       </c>
       <c r="G271" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -13216,7 +13276,7 @@
         <v>724</v>
       </c>
       <c r="G272" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -13236,7 +13296,7 @@
         <v>724</v>
       </c>
       <c r="G273" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -13256,7 +13316,7 @@
         <v>724</v>
       </c>
       <c r="G274" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -13276,7 +13336,7 @@
         <v>724</v>
       </c>
       <c r="G275" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13296,7 +13356,7 @@
         <v>724</v>
       </c>
       <c r="G276" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13316,7 +13376,7 @@
         <v>724</v>
       </c>
       <c r="G277" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -13336,7 +13396,7 @@
         <v>724</v>
       </c>
       <c r="G278" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13356,7 +13416,7 @@
         <v>724</v>
       </c>
       <c r="G279" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -13376,7 +13436,7 @@
         <v>724</v>
       </c>
       <c r="G280" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -13396,7 +13456,7 @@
         <v>724</v>
       </c>
       <c r="G281" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13416,7 +13476,7 @@
         <v>724</v>
       </c>
       <c r="G282" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13436,7 +13496,7 @@
         <v>724</v>
       </c>
       <c r="G283" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13456,7 +13516,7 @@
         <v>724</v>
       </c>
       <c r="G284" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13476,7 +13536,7 @@
         <v>724</v>
       </c>
       <c r="G285" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -13496,7 +13556,7 @@
         <v>728</v>
       </c>
       <c r="G286" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -13516,7 +13576,7 @@
         <v>728</v>
       </c>
       <c r="G287" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -13536,7 +13596,7 @@
         <v>728</v>
       </c>
       <c r="G288" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -13556,7 +13616,7 @@
         <v>728</v>
       </c>
       <c r="G289" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -13576,7 +13636,7 @@
         <v>728</v>
       </c>
       <c r="G290" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -13596,7 +13656,7 @@
         <v>728</v>
       </c>
       <c r="G291" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -13616,7 +13676,7 @@
         <v>728</v>
       </c>
       <c r="G292" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -13636,7 +13696,7 @@
         <v>728</v>
       </c>
       <c r="G293" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13656,7 +13716,7 @@
         <v>724</v>
       </c>
       <c r="G294" t="s">
-        <v>734</v>
+        <v>827</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -13676,7 +13736,7 @@
         <v>724</v>
       </c>
       <c r="G295" t="s">
-        <v>734</v>
+        <v>827</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -13696,7 +13756,7 @@
         <v>724</v>
       </c>
       <c r="G296" t="s">
-        <v>734</v>
+        <v>827</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -13716,11 +13776,12 @@
         <v>724</v>
       </c>
       <c r="G297" t="s">
-        <v>734</v>
+        <v>827</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:G3" xr:uid="{7D85B173-4606-43CD-8DE5-2BDAFAD80035}"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13788,7 +13849,7 @@
         <v>724</v>
       </c>
       <c r="G4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13808,7 +13869,7 @@
         <v>726</v>
       </c>
       <c r="G5" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13828,7 +13889,7 @@
         <v>726</v>
       </c>
       <c r="G6" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13848,7 +13909,7 @@
         <v>731</v>
       </c>
       <c r="G7" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13868,7 +13929,7 @@
         <v>726</v>
       </c>
       <c r="G8" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13888,7 +13949,7 @@
         <v>724</v>
       </c>
       <c r="G9" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -13908,7 +13969,7 @@
         <v>731</v>
       </c>
       <c r="G10" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -13928,7 +13989,7 @@
         <v>726</v>
       </c>
       <c r="G11" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13948,7 +14009,7 @@
         <v>724</v>
       </c>
       <c r="G12" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13968,7 +14029,7 @@
         <v>724</v>
       </c>
       <c r="G13" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -13988,7 +14049,7 @@
         <v>726</v>
       </c>
       <c r="G14" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -14008,7 +14069,7 @@
         <v>724</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -14028,7 +14089,7 @@
         <v>724</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -14048,7 +14109,7 @@
         <v>724</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -14068,7 +14129,7 @@
         <v>724</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14088,7 +14149,7 @@
         <v>727</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -14108,7 +14169,7 @@
         <v>727</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14128,7 +14189,7 @@
         <v>727</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -14148,7 +14209,7 @@
         <v>727</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14168,7 +14229,7 @@
         <v>727</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -14188,7 +14249,7 @@
         <v>727</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14208,7 +14269,7 @@
         <v>727</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -14228,7 +14289,7 @@
         <v>727</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14248,7 +14309,7 @@
         <v>727</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -14268,7 +14329,7 @@
         <v>727</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14288,7 +14349,7 @@
         <v>727</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -14308,7 +14369,7 @@
         <v>727</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14328,7 +14389,7 @@
         <v>724</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14348,7 +14409,7 @@
         <v>724</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14368,7 +14429,7 @@
         <v>724</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14388,7 +14449,7 @@
         <v>724</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14408,7 +14469,7 @@
         <v>724</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14428,7 +14489,7 @@
         <v>724</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14448,7 +14509,7 @@
         <v>724</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14468,7 +14529,7 @@
         <v>724</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14488,7 +14549,7 @@
         <v>724</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
@@ -14508,7 +14569,7 @@
         <v>727</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
@@ -14528,7 +14589,7 @@
         <v>724</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -14548,7 +14609,7 @@
         <v>724</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -14568,7 +14629,7 @@
         <v>724</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14588,7 +14649,7 @@
         <v>724</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
@@ -14608,7 +14669,7 @@
         <v>727</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
@@ -14628,7 +14689,7 @@
         <v>724</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -14648,7 +14709,7 @@
         <v>724</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -14668,7 +14729,7 @@
         <v>724</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14688,7 +14749,7 @@
         <v>724</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
@@ -14708,7 +14769,7 @@
         <v>727</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
@@ -14728,7 +14789,7 @@
         <v>724</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -14748,7 +14809,7 @@
         <v>724</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -14768,7 +14829,7 @@
         <v>724</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -14788,7 +14849,7 @@
         <v>724</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -14808,7 +14869,7 @@
         <v>724</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -14828,7 +14889,7 @@
         <v>732</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14848,7 +14909,7 @@
         <v>724</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14868,7 +14929,7 @@
         <v>724</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14888,7 +14949,7 @@
         <v>724</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14908,7 +14969,7 @@
         <v>724</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14928,7 +14989,7 @@
         <v>724</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -14948,7 +15009,7 @@
         <v>724</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -14968,7 +15029,7 @@
         <v>724</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -14988,7 +15049,7 @@
         <v>724</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -15008,7 +15069,7 @@
         <v>732</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -15028,7 +15089,7 @@
         <v>724</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -15048,7 +15109,7 @@
         <v>724</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -15068,7 +15129,7 @@
         <v>724</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -15088,7 +15149,7 @@
         <v>724</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -15108,7 +15169,7 @@
         <v>724</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -15128,7 +15189,7 @@
         <v>724</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -15148,7 +15209,7 @@
         <v>724</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -15168,7 +15229,7 @@
         <v>724</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -15188,7 +15249,7 @@
         <v>732</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -15208,7 +15269,7 @@
         <v>724</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -15228,7 +15289,7 @@
         <v>732</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -15248,7 +15309,7 @@
         <v>724</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -15268,7 +15329,7 @@
         <v>724</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -15288,7 +15349,7 @@
         <v>724</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -15308,7 +15369,7 @@
         <v>727</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -15328,7 +15389,7 @@
         <v>724</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -15348,7 +15409,7 @@
         <v>727</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -15368,7 +15429,7 @@
         <v>724</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -15388,7 +15449,7 @@
         <v>724</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -15408,7 +15469,7 @@
         <v>724</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -15428,7 +15489,7 @@
         <v>724</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -15448,7 +15509,7 @@
         <v>724</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -15468,7 +15529,7 @@
         <v>724</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -15488,7 +15549,7 @@
         <v>724</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -15508,7 +15569,7 @@
         <v>724</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -15528,7 +15589,7 @@
         <v>724</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -15548,7 +15609,7 @@
         <v>724</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -15568,7 +15629,7 @@
         <v>724</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -15588,7 +15649,7 @@
         <v>724</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -15608,7 +15669,7 @@
         <v>724</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -15628,7 +15689,7 @@
         <v>724</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -15648,7 +15709,7 @@
         <v>724</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -15668,7 +15729,7 @@
         <v>724</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -15688,7 +15749,7 @@
         <v>724</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -15708,7 +15769,7 @@
         <v>724</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -15728,7 +15789,7 @@
         <v>724</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -15748,7 +15809,7 @@
         <v>724</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -15768,7 +15829,7 @@
         <v>724</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -15788,7 +15849,7 @@
         <v>724</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -15808,7 +15869,7 @@
         <v>724</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -15828,7 +15889,7 @@
         <v>724</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -15848,7 +15909,7 @@
         <v>724</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -15868,7 +15929,7 @@
         <v>724</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -15888,7 +15949,7 @@
         <v>724</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -15908,7 +15969,7 @@
         <v>724</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -15928,7 +15989,7 @@
         <v>724</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -15948,7 +16009,7 @@
         <v>724</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -15968,7 +16029,7 @@
         <v>724</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -15988,7 +16049,7 @@
         <v>724</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -16008,7 +16069,7 @@
         <v>724</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -16028,7 +16089,7 @@
         <v>724</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -16048,7 +16109,7 @@
         <v>724</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -16068,7 +16129,7 @@
         <v>724</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -16088,7 +16149,7 @@
         <v>724</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -16108,7 +16169,7 @@
         <v>724</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -16128,7 +16189,7 @@
         <v>724</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -16148,7 +16209,7 @@
         <v>724</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -16168,7 +16229,7 @@
         <v>724</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -16188,7 +16249,7 @@
         <v>724</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -16205,7 +16266,7 @@
         <v>724</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -16222,7 +16283,7 @@
         <v>724</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -16239,7 +16300,7 @@
         <v>724</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -16256,7 +16317,7 @@
         <v>724</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -16273,7 +16334,7 @@
         <v>724</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -16293,7 +16354,7 @@
         <v>727</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -16313,7 +16374,7 @@
         <v>727</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -16333,7 +16394,7 @@
         <v>727</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -16353,7 +16414,7 @@
         <v>727</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -16373,7 +16434,7 @@
         <v>724</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -16393,7 +16454,7 @@
         <v>724</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -16413,7 +16474,7 @@
         <v>724</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -16433,7 +16494,7 @@
         <v>724</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -16453,7 +16514,7 @@
         <v>724</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -16473,7 +16534,7 @@
         <v>724</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -16493,7 +16554,7 @@
         <v>724</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -16513,7 +16574,7 @@
         <v>724</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -16526,238 +16587,309 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C5BFE-6C5D-49EF-B6DC-8FDF9610AF86}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B4" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="B4" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="9" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B6" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B10" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B11" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B12" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B13" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B14" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B15" s="11">
+        <v>40695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B16" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B17" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B18" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B19" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B20" s="10">
+        <v>45245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B21" s="10">
+        <v>45250</v>
+      </c>
+      <c r="C21" t="s">
+        <v>740</v>
+      </c>
+      <c r="D21" t="s">
         <v>749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="B10" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="B11" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="B12" s="10">
-        <v>45245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="B13" s="10">
-        <v>45250</v>
-      </c>
-      <c r="C13" t="s">
-        <v>743</v>
-      </c>
-      <c r="D13" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="10">
-        <v>45261</v>
-      </c>
-      <c r="C14" t="s">
-        <v>743</v>
-      </c>
-      <c r="D14" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="10">
-        <v>45268</v>
-      </c>
-      <c r="C15" t="s">
-        <v>743</v>
-      </c>
-      <c r="D15" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="10">
-        <v>45405</v>
-      </c>
-      <c r="C16" t="s">
-        <v>749</v>
-      </c>
-      <c r="D16" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="10">
-        <v>45420</v>
-      </c>
-      <c r="C17" t="s">
-        <v>743</v>
-      </c>
-      <c r="D17" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="10">
-        <v>45425</v>
-      </c>
-      <c r="C18" t="s">
-        <v>743</v>
-      </c>
-      <c r="D18" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="10">
-        <v>45565</v>
-      </c>
-      <c r="C19" t="s">
-        <v>743</v>
-      </c>
-      <c r="D19" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="10">
-        <v>45638</v>
-      </c>
-      <c r="C20" t="s">
-        <v>743</v>
-      </c>
-      <c r="D20" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="10">
-        <v>45714</v>
-      </c>
-      <c r="C21" t="s">
-        <v>743</v>
-      </c>
-      <c r="D21" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
+      <c r="B22" s="10">
+        <v>45261</v>
+      </c>
+      <c r="C22" t="s">
+        <v>740</v>
+      </c>
+      <c r="D22" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
+      <c r="B23" s="10">
+        <v>45268</v>
+      </c>
+      <c r="C23" t="s">
+        <v>740</v>
+      </c>
+      <c r="D23" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
+      <c r="B24" s="10">
+        <v>45405</v>
+      </c>
+      <c r="C24" t="s">
+        <v>746</v>
+      </c>
+      <c r="D24" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
+      <c r="B25" s="10">
+        <v>45420</v>
+      </c>
+      <c r="C25" t="s">
+        <v>740</v>
+      </c>
+      <c r="D25" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
+      <c r="B26" s="10">
+        <v>45425</v>
+      </c>
+      <c r="C26" t="s">
+        <v>740</v>
+      </c>
+      <c r="D26" t="s">
+        <v>758</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
+      <c r="B27" s="10">
+        <v>45565</v>
+      </c>
+      <c r="C27" t="s">
+        <v>740</v>
+      </c>
+      <c r="D27" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
+      <c r="B28" s="10">
+        <v>45638</v>
+      </c>
+      <c r="C28" t="s">
+        <v>740</v>
+      </c>
+      <c r="D28" t="s">
+        <v>780</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
+      <c r="B29" s="10">
+        <v>45714</v>
+      </c>
+      <c r="C29" t="s">
+        <v>740</v>
+      </c>
+      <c r="D29" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
+      <c r="B30" s="10">
+        <v>45717</v>
+      </c>
+      <c r="C30" t="s">
+        <v>740</v>
+      </c>
+      <c r="D30" t="s">
+        <v>825</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
+      <c r="B31" s="10">
+        <v>45722</v>
+      </c>
+      <c r="C31" t="s">
+        <v>740</v>
+      </c>
+      <c r="D31" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
+      <c r="B32" s="10">
+        <v>45726</v>
+      </c>
+      <c r="C32" t="s">
+        <v>740</v>
+      </c>
+      <c r="D32" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/InstrumentList_v1.1.xlsx
+++ b/InstrumentList_v1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\MAQ-Observations.nl\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B858E42-D3B2-4471-AC90-318EAF24F6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F654C498-51EA-480F-9291-D5F25FF45CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Veenkampen" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3949" uniqueCount="847">
   <si>
     <t>Stream name</t>
   </si>
@@ -3220,6 +3220,60 @@
   </si>
   <si>
     <t>Corrected measurement interval for many variables across Veenkampen, Loobos and Amsterdam</t>
+  </si>
+  <si>
+    <t>DN_TA_1_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_1_1_1</t>
+  </si>
+  <si>
+    <t>DN_TA_2_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_2_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_2_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_2_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_2_1_1</t>
+  </si>
+  <si>
+    <t>~ 20 minutes</t>
+  </si>
+  <si>
+    <t>Air temperature; Nieuwe Uilenburgerstraat (52.3710,4.9062)</t>
+  </si>
+  <si>
+    <t>Relative Humidity; Nieuwe Uilenburgerstraat (52.3710,4.9062)</t>
+  </si>
+  <si>
+    <t>Relative Humidity; Gustav Mahlerplein (52.3363,4.8733)</t>
+  </si>
+  <si>
+    <t>Air temperature; Gustav Mahlerplein (52.3363,4.8733)</t>
+  </si>
+  <si>
+    <t>Wind speed; Nieuwe Uilenburgerstraat (52.3710,4.9062)</t>
+  </si>
+  <si>
+    <t>Wind direction; Nieuwe Uilenburgerstraat (52.3710,4.9062)</t>
+  </si>
+  <si>
+    <t>Max wind gust; Nieuwe Uilenburgerstraat (52.3710,4.9062)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First inclusion of AAMS Distributed Network (DN) data through IOT. Distributed Network data are indicated by variable names starting with DN. Each station will have his own unique </t>
+  </si>
+  <si>
+    <t>Sensirion SHT-31</t>
+  </si>
+  <si>
+    <t>Decagon DS-2 / Metergroup ATMOS22</t>
   </si>
 </sst>
 </file>
@@ -4064,8 +4118,8 @@
       <c r="D21" t="s">
         <v>513</v>
       </c>
-      <c r="F21" t="s">
-        <v>724</v>
+      <c r="F21" s="4" t="s">
+        <v>731</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>734</v>
@@ -4768,7 +4822,7 @@
         <v>549</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>734</v>
@@ -13789,7 +13843,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7E4492-1BC3-4E2C-8D1C-C01BC6221F92}">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16575,6 +16629,146 @@
       </c>
       <c r="G141" s="4" t="s">
         <v>735</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>829</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="D142" t="s">
+        <v>840</v>
+      </c>
+      <c r="F142" t="s">
+        <v>724</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>830</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="D143" t="s">
+        <v>839</v>
+      </c>
+      <c r="F143" t="s">
+        <v>724</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>831</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="D144" t="s">
+        <v>837</v>
+      </c>
+      <c r="F144" t="s">
+        <v>724</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>832</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="D145" t="s">
+        <v>838</v>
+      </c>
+      <c r="F145" t="s">
+        <v>724</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>833</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="D146" t="s">
+        <v>841</v>
+      </c>
+      <c r="F146" t="s">
+        <v>724</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>834</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="D147" t="s">
+        <v>842</v>
+      </c>
+      <c r="F147" t="s">
+        <v>724</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>835</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="D148" t="s">
+        <v>843</v>
+      </c>
+      <c r="F148" t="s">
+        <v>724</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -16882,13 +17076,22 @@
         <v>828</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="10">
+        <v>45777</v>
+      </c>
+      <c r="C33" t="s">
+        <v>740</v>
+      </c>
+      <c r="D33" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
   </sheetData>

--- a/InstrumentList_v1.1.xlsx
+++ b/InstrumentList_v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\MAQ-Observations.nl\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F654C498-51EA-480F-9291-D5F25FF45CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04AE040-2B78-40DA-907A-D6D29C2897A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3949" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3975" uniqueCount="859">
   <si>
     <t>Stream name</t>
   </si>
@@ -3274,6 +3274,42 @@
   </si>
   <si>
     <t>Decagon DS-2 / Metergroup ATMOS22</t>
+  </si>
+  <si>
+    <t>LW_BAT_1_1_1</t>
+  </si>
+  <si>
+    <t>LW_TSENS_1_1_1</t>
+  </si>
+  <si>
+    <t>LW_LWS_1_1_1</t>
+  </si>
+  <si>
+    <t>LW_TLEAF_1_1_1</t>
+  </si>
+  <si>
+    <t>Dragino LLMS01</t>
+  </si>
+  <si>
+    <t>Leaf area wetness percentage</t>
+  </si>
+  <si>
+    <t>Temperature sensor</t>
+  </si>
+  <si>
+    <t>Battery voltage</t>
+  </si>
+  <si>
+    <t>Leaf temperature</t>
+  </si>
+  <si>
+    <t>accuracy +/-3% (0-50%); +/-6% (&gt;50%)</t>
+  </si>
+  <si>
+    <t>accuracy +/- 0.5°C</t>
+  </si>
+  <si>
+    <t>~20 minutes</t>
   </si>
 </sst>
 </file>
@@ -3722,7 +3758,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603FFA7C-CA32-46E1-B5C1-AB3A403C245A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8003,6 +8039,92 @@
       </c>
       <c r="G212" t="s">
         <v>782</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>847</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="F213" t="s">
+        <v>724</v>
+      </c>
+      <c r="G213" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>848</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="F214" t="s">
+        <v>724</v>
+      </c>
+      <c r="G214" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>849</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="E215" t="s">
+        <v>856</v>
+      </c>
+      <c r="F215" t="s">
+        <v>724</v>
+      </c>
+      <c r="G215" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>850</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="E216" t="s">
+        <v>857</v>
+      </c>
+      <c r="F216" t="s">
+        <v>724</v>
+      </c>
+      <c r="G216" t="s">
+        <v>858</v>
       </c>
     </row>
   </sheetData>

--- a/InstrumentList_v1.1.xlsx
+++ b/InstrumentList_v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\MAQ-Observations.nl\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04AE040-2B78-40DA-907A-D6D29C2897A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C0C51B-DDC3-430B-B552-4830E75361D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3975" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3977" uniqueCount="860">
   <si>
     <t>Stream name</t>
   </si>
@@ -3310,6 +3310,9 @@
   </si>
   <si>
     <t>~20 minutes</t>
+  </si>
+  <si>
+    <t>Updated Veenkampen with Leaf Wetness Sensor from IoT</t>
   </si>
 </sst>
 </file>
@@ -17212,6 +17215,15 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
+      <c r="B34" s="10">
+        <v>45785</v>
+      </c>
+      <c r="C34" t="s">
+        <v>740</v>
+      </c>
+      <c r="D34" t="s">
+        <v>859</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>

--- a/InstrumentList_v1.1.xlsx
+++ b/InstrumentList_v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\MAQ-Observations.nl\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C0C51B-DDC3-430B-B552-4830E75361D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D9745D-3E0E-44B8-BCC8-E5268A43488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3977" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="856">
   <si>
     <t>Stream name</t>
   </si>
@@ -3276,12 +3276,6 @@
     <t>Decagon DS-2 / Metergroup ATMOS22</t>
   </si>
   <si>
-    <t>LW_BAT_1_1_1</t>
-  </si>
-  <si>
-    <t>LW_TSENS_1_1_1</t>
-  </si>
-  <si>
     <t>LW_LWS_1_1_1</t>
   </si>
   <si>
@@ -3292,12 +3286,6 @@
   </si>
   <si>
     <t>Leaf area wetness percentage</t>
-  </si>
-  <si>
-    <t>Temperature sensor</t>
-  </si>
-  <si>
-    <t>Battery voltage</t>
   </si>
   <si>
     <t>Leaf temperature</t>
@@ -3761,7 +3749,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603FFA7C-CA32-46E1-B5C1-AB3A403C245A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G216"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8049,19 +8037,22 @@
         <v>847</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D213" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="E213" t="s">
+        <v>852</v>
+      </c>
+      <c r="F213" t="s">
+        <v>724</v>
+      </c>
+      <c r="G213" t="s">
         <v>854</v>
-      </c>
-      <c r="F213" t="s">
-        <v>724</v>
-      </c>
-      <c r="G213" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -8072,62 +8063,19 @@
         <v>347</v>
       </c>
       <c r="C214" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="D214" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="D214" s="4" t="s">
+      <c r="E214" t="s">
         <v>853</v>
       </c>
       <c r="F214" t="s">
         <v>724</v>
       </c>
       <c r="G214" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>849</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="E215" t="s">
-        <v>856</v>
-      </c>
-      <c r="F215" t="s">
-        <v>724</v>
-      </c>
-      <c r="G215" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>850</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="E216" t="s">
-        <v>857</v>
-      </c>
-      <c r="F216" t="s">
-        <v>724</v>
-      </c>
-      <c r="G216" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -13970,7 +13918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7E4492-1BC3-4E2C-8D1C-C01BC6221F92}">
   <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17222,7 +17172,7 @@
         <v>740</v>
       </c>
       <c r="D34" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">

--- a/InstrumentList_v1.1.xlsx
+++ b/InstrumentList_v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\MAQ-Observations.nl\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D9745D-3E0E-44B8-BCC8-E5268A43488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5D51C0-CC5B-4E10-BB71-86E5A5673C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="857">
   <si>
     <t>Stream name</t>
   </si>
@@ -3301,6 +3301,9 @@
   </si>
   <si>
     <t>Updated Veenkampen with Leaf Wetness Sensor from IoT</t>
+  </si>
+  <si>
+    <t>2011-06-01 (Veenkampen); 2022-01-21 (Loobos); 2018-05-01 (Amsterdam)</t>
   </si>
 </sst>
 </file>
@@ -16961,8 +16964,8 @@
       <c r="A15" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="B15" s="11">
-        <v>40695</v>
+      <c r="B15" s="11" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">

--- a/InstrumentList_v1.1.xlsx
+++ b/InstrumentList_v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\MAQ-Observations.nl\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5D51C0-CC5B-4E10-BB71-86E5A5673C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67A9910-FD5D-45F3-A0F3-389083F832CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3968" uniqueCount="859">
   <si>
     <t>Stream name</t>
   </si>
@@ -3201,9 +3201,6 @@
     <t>Update frequency:</t>
   </si>
   <si>
-    <t>Continual, 10 minutes</t>
-  </si>
-  <si>
     <t>Missing data identifier:</t>
   </si>
   <si>
@@ -3304,6 +3301,15 @@
   </si>
   <si>
     <t>2011-06-01 (Veenkampen); 2022-01-21 (Loobos); 2018-05-01 (Amsterdam)</t>
+  </si>
+  <si>
+    <t>Continuous, 10 minutes</t>
+  </si>
+  <si>
+    <t>Datset temporal resolution:</t>
+  </si>
+  <si>
+    <t>20 seconds up to 1 hour</t>
   </si>
 </sst>
 </file>
@@ -7200,7 +7206,7 @@
         <v>729</v>
       </c>
       <c r="G174" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -7220,7 +7226,7 @@
         <v>724</v>
       </c>
       <c r="G175" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -7240,7 +7246,7 @@
         <v>724</v>
       </c>
       <c r="G176" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -7260,7 +7266,7 @@
         <v>724</v>
       </c>
       <c r="G177" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -7280,7 +7286,7 @@
         <v>724</v>
       </c>
       <c r="G178" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -7300,7 +7306,7 @@
         <v>724</v>
       </c>
       <c r="G179" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -7320,7 +7326,7 @@
         <v>724</v>
       </c>
       <c r="G180" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -7340,7 +7346,7 @@
         <v>724</v>
       </c>
       <c r="G181" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -7360,7 +7366,7 @@
         <v>724</v>
       </c>
       <c r="G182" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -7380,7 +7386,7 @@
         <v>724</v>
       </c>
       <c r="G183" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -7400,7 +7406,7 @@
         <v>724</v>
       </c>
       <c r="G184" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -7420,7 +7426,7 @@
         <v>724</v>
       </c>
       <c r="G185" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -7440,7 +7446,7 @@
         <v>724</v>
       </c>
       <c r="G186" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -7460,7 +7466,7 @@
         <v>724</v>
       </c>
       <c r="G187" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -7480,7 +7486,7 @@
         <v>724</v>
       </c>
       <c r="G188" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -7503,7 +7509,7 @@
         <v>729</v>
       </c>
       <c r="G189" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -7526,7 +7532,7 @@
         <v>729</v>
       </c>
       <c r="G190" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -8037,48 +8043,48 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C213" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="D213" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="D213" s="4" t="s">
-        <v>850</v>
-      </c>
       <c r="E213" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F213" t="s">
         <v>724</v>
       </c>
       <c r="G213" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E214" t="s">
+        <v>852</v>
+      </c>
+      <c r="F214" t="s">
+        <v>724</v>
+      </c>
+      <c r="G214" t="s">
         <v>853</v>
-      </c>
-      <c r="F214" t="s">
-        <v>724</v>
-      </c>
-      <c r="G214" t="s">
-        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -8151,7 +8157,7 @@
         <v>731</v>
       </c>
       <c r="G4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8171,7 +8177,7 @@
         <v>726</v>
       </c>
       <c r="G5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8191,7 +8197,7 @@
         <v>726</v>
       </c>
       <c r="G6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8211,7 +8217,7 @@
         <v>726</v>
       </c>
       <c r="G7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8231,7 +8237,7 @@
         <v>724</v>
       </c>
       <c r="G8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8251,7 +8257,7 @@
         <v>724</v>
       </c>
       <c r="G9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8271,7 +8277,7 @@
         <v>724</v>
       </c>
       <c r="G10" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -8291,7 +8297,7 @@
         <v>731</v>
       </c>
       <c r="G11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -8311,7 +8317,7 @@
         <v>731</v>
       </c>
       <c r="G12" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -8331,7 +8337,7 @@
         <v>724</v>
       </c>
       <c r="G13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -8351,7 +8357,7 @@
         <v>724</v>
       </c>
       <c r="G14" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -8371,7 +8377,7 @@
         <v>724</v>
       </c>
       <c r="G15" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -8391,7 +8397,7 @@
         <v>724</v>
       </c>
       <c r="G16" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -8411,7 +8417,7 @@
         <v>724</v>
       </c>
       <c r="G17" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -8431,7 +8437,7 @@
         <v>732</v>
       </c>
       <c r="G18" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -8451,7 +8457,7 @@
         <v>731</v>
       </c>
       <c r="G19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8471,7 +8477,7 @@
         <v>731</v>
       </c>
       <c r="G20" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8491,7 +8497,7 @@
         <v>724</v>
       </c>
       <c r="G21" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8511,7 +8517,7 @@
         <v>724</v>
       </c>
       <c r="G22" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8531,7 +8537,7 @@
         <v>724</v>
       </c>
       <c r="G23" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8551,7 +8557,7 @@
         <v>724</v>
       </c>
       <c r="G24" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -8571,7 +8577,7 @@
         <v>731</v>
       </c>
       <c r="G25" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -8591,7 +8597,7 @@
         <v>724</v>
       </c>
       <c r="G26" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -8611,7 +8617,7 @@
         <v>724</v>
       </c>
       <c r="G27" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -8631,7 +8637,7 @@
         <v>724</v>
       </c>
       <c r="G28" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -8651,7 +8657,7 @@
         <v>724</v>
       </c>
       <c r="G29" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -13846,7 +13852,7 @@
         <v>724</v>
       </c>
       <c r="G294" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -13866,7 +13872,7 @@
         <v>724</v>
       </c>
       <c r="G295" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -13886,7 +13892,7 @@
         <v>724</v>
       </c>
       <c r="G296" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -13906,7 +13912,7 @@
         <v>724</v>
       </c>
       <c r="G297" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -16711,142 +16717,142 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D142" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F142" t="s">
         <v>724</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D143" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F143" t="s">
         <v>724</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D144" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F144" t="s">
         <v>724</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D145" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F145" t="s">
         <v>724</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D146" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F146" t="s">
         <v>724</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D147" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F147" t="s">
         <v>724</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D148" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F148" t="s">
         <v>724</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>
@@ -16859,13 +16865,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C5BFE-6C5D-49EF-B6DC-8FDF9610AF86}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -16965,7 +16971,7 @@
         <v>817</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -16978,208 +16984,216 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>821</v>
+        <v>857</v>
       </c>
       <c r="B17" t="s">
-        <v>822</v>
+        <v>858</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B18" t="s">
-        <v>824</v>
+        <v>856</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B19" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="B20" s="10">
-        <v>45245</v>
+        <v>820</v>
+      </c>
+      <c r="B20" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B21" s="10">
+        <v>45245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B22" s="10">
         <v>45250</v>
-      </c>
-      <c r="C21" t="s">
-        <v>740</v>
-      </c>
-      <c r="D21" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="10">
-        <v>45261</v>
       </c>
       <c r="C22" t="s">
         <v>740</v>
       </c>
       <c r="D22" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="10">
-        <v>45268</v>
+        <v>45261</v>
       </c>
       <c r="C23" t="s">
         <v>740</v>
       </c>
       <c r="D23" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="10">
-        <v>45405</v>
+        <v>45268</v>
       </c>
       <c r="C24" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="D24" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="10">
-        <v>45420</v>
+        <v>45405</v>
       </c>
       <c r="C25" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="D25" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="10">
-        <v>45425</v>
+        <v>45420</v>
       </c>
       <c r="C26" t="s">
         <v>740</v>
       </c>
       <c r="D26" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="10">
-        <v>45565</v>
+        <v>45425</v>
       </c>
       <c r="C27" t="s">
         <v>740</v>
       </c>
       <c r="D27" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="10">
-        <v>45638</v>
+        <v>45565</v>
       </c>
       <c r="C28" t="s">
         <v>740</v>
       </c>
       <c r="D28" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="10">
-        <v>45714</v>
+        <v>45638</v>
       </c>
       <c r="C29" t="s">
         <v>740</v>
       </c>
       <c r="D29" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="10">
-        <v>45717</v>
+        <v>45714</v>
       </c>
       <c r="C30" t="s">
         <v>740</v>
       </c>
       <c r="D30" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="10">
-        <v>45722</v>
+        <v>45717</v>
       </c>
       <c r="C31" t="s">
         <v>740</v>
       </c>
       <c r="D31" t="s">
-        <v>809</v>
+        <v>824</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="10">
-        <v>45726</v>
+        <v>45722</v>
       </c>
       <c r="C32" t="s">
         <v>740</v>
       </c>
       <c r="D32" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="10">
-        <v>45777</v>
+        <v>45726</v>
       </c>
       <c r="C33" t="s">
         <v>740</v>
       </c>
       <c r="D33" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="10">
-        <v>45785</v>
+        <v>45777</v>
       </c>
       <c r="C34" t="s">
         <v>740</v>
       </c>
       <c r="D34" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
+      <c r="B35" s="10">
+        <v>45785</v>
+      </c>
+      <c r="C35" t="s">
+        <v>740</v>
+      </c>
+      <c r="D35" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/InstrumentList_v1.1.xlsx
+++ b/InstrumentList_v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\MAQ-Observations.nl\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67A9910-FD5D-45F3-A0F3-389083F832CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60FF33D-D97A-4086-96A7-E7E2AEEE4665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3968" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4007" uniqueCount="874">
   <si>
     <t>Stream name</t>
   </si>
@@ -3310,6 +3310,51 @@
   </si>
   <si>
     <t>20 seconds up to 1 hour</t>
+  </si>
+  <si>
+    <t>DN_TA_3_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_3_1_1</t>
+  </si>
+  <si>
+    <t>DN_TG_3_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_3_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_3_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_3_1_1</t>
+  </si>
+  <si>
+    <t>Analog Devices DS18B20</t>
+  </si>
+  <si>
+    <t>Accuracy +/- 0.5 °C</t>
+  </si>
+  <si>
+    <t>Included station Ijburglaan in Amsterdam network</t>
+  </si>
+  <si>
+    <t>Air temperature; Ijburglaan (52.3558,4.9962)</t>
+  </si>
+  <si>
+    <t>Relative Humidity; Ijburglaan (52.3558,4.9962)</t>
+  </si>
+  <si>
+    <t>Black Globe Temperature; Ijburglaan (52.3558,4.9962)</t>
+  </si>
+  <si>
+    <t>Wind speed; Ijburglaan (52.3558,4.9962)</t>
+  </si>
+  <si>
+    <t>Wind direction; Ijburglaan (52.3558,4.9962)</t>
+  </si>
+  <si>
+    <t>Max wind gust; Ijburglaan (52.3558,4.9962)</t>
   </si>
 </sst>
 </file>
@@ -13925,11 +13970,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7E4492-1BC3-4E2C-8D1C-C01BC6221F92}">
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16852,6 +16895,129 @@
         <v>724</v>
       </c>
       <c r="G148" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>859</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="D149" t="s">
+        <v>868</v>
+      </c>
+      <c r="F149" t="s">
+        <v>724</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>860</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="D150" t="s">
+        <v>869</v>
+      </c>
+      <c r="F150" t="s">
+        <v>724</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>861</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="D151" t="s">
+        <v>870</v>
+      </c>
+      <c r="E151" t="s">
+        <v>866</v>
+      </c>
+      <c r="F151" t="s">
+        <v>724</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>862</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="D152" t="s">
+        <v>871</v>
+      </c>
+      <c r="F152" t="s">
+        <v>724</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>863</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="D153" t="s">
+        <v>872</v>
+      </c>
+      <c r="F153" t="s">
+        <v>724</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>864</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="D154" t="s">
+        <v>873</v>
+      </c>
+      <c r="F154" t="s">
+        <v>724</v>
+      </c>
+      <c r="G154" s="4" t="s">
         <v>835</v>
       </c>
     </row>
@@ -17194,6 +17360,15 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
+      <c r="B36" s="10">
+        <v>45796</v>
+      </c>
+      <c r="C36" t="s">
+        <v>740</v>
+      </c>
+      <c r="D36" t="s">
+        <v>867</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/InstrumentList_v1.1.xlsx
+++ b/InstrumentList_v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\MAQ-Observations.nl\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60FF33D-D97A-4086-96A7-E7E2AEEE4665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70689307-9313-4323-BAAD-A7C96EFDB714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4007" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4075" uniqueCount="897">
   <si>
     <t>Stream name</t>
   </si>
@@ -3355,6 +3355,75 @@
   </si>
   <si>
     <t>Max wind gust; Ijburglaan (52.3558,4.9962)</t>
+  </si>
+  <si>
+    <t>DN_TG_4_1_1</t>
+  </si>
+  <si>
+    <t>DN_TA_4_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_4_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_4_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_4_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_4_1_1</t>
+  </si>
+  <si>
+    <t>DN_TA_5_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_5_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_5_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_5_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_5_1_1</t>
+  </si>
+  <si>
+    <t>Wind speed; Lutmastraat (52.35050,4.89411)</t>
+  </si>
+  <si>
+    <t>Max wind gust; Lutmastraat (52.35050,4.89411)</t>
+  </si>
+  <si>
+    <t>Wind direction; Lutmastraat (52.35050,4.89411)</t>
+  </si>
+  <si>
+    <t>Wind speed; Benkoelenstraat (52.36322,4.93824)</t>
+  </si>
+  <si>
+    <t>Wind direction; Benkoelenstraat (52.36322,4.93824)</t>
+  </si>
+  <si>
+    <t>Max wind gust; Benkoelenstraat (52.36322,4.93824)</t>
+  </si>
+  <si>
+    <t>Air temperature; Benkoelenstraat (52.36322,4.93824)</t>
+  </si>
+  <si>
+    <t>Relative Humidity; Benkoelenstraat (52.36322,4.93824)</t>
+  </si>
+  <si>
+    <t>Relative Humidity; Lutmastraat (52.35050,4.89411)</t>
+  </si>
+  <si>
+    <t>Air temperature; Lutmastraat (52.35050,4.89411)</t>
+  </si>
+  <si>
+    <t>Black Globe Temperature; Lutmastraat (52.35050,4.89411)</t>
+  </si>
+  <si>
+    <t>Amsterdam: Added first 2 stations using IoT over the KPN network (Lutmastraat and Benkoelenstraat)</t>
   </si>
 </sst>
 </file>
@@ -13970,7 +14039,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7E4492-1BC3-4E2C-8D1C-C01BC6221F92}">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17021,6 +17090,232 @@
         <v>835</v>
       </c>
     </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>874</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="D155" t="s">
+        <v>895</v>
+      </c>
+      <c r="F155" t="s">
+        <v>724</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>875</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="D156" t="s">
+        <v>894</v>
+      </c>
+      <c r="F156" t="s">
+        <v>724</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>876</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="D157" t="s">
+        <v>893</v>
+      </c>
+      <c r="F157" t="s">
+        <v>724</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>877</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="D158" t="s">
+        <v>885</v>
+      </c>
+      <c r="F158" t="s">
+        <v>724</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>878</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="D159" t="s">
+        <v>887</v>
+      </c>
+      <c r="F159" t="s">
+        <v>724</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>879</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="D160" t="s">
+        <v>886</v>
+      </c>
+      <c r="F160" t="s">
+        <v>724</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>880</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="D161" t="s">
+        <v>891</v>
+      </c>
+      <c r="F161" t="s">
+        <v>724</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>881</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="D162" t="s">
+        <v>892</v>
+      </c>
+      <c r="F162" t="s">
+        <v>724</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>882</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="D163" t="s">
+        <v>888</v>
+      </c>
+      <c r="F163" t="s">
+        <v>724</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>883</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="D164" t="s">
+        <v>889</v>
+      </c>
+      <c r="F164" t="s">
+        <v>724</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>884</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="D165" t="s">
+        <v>890</v>
+      </c>
+      <c r="F165" t="s">
+        <v>724</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G166" s="4"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G167" s="4"/>
+    </row>
   </sheetData>
   <autoFilter ref="A3:G141" xr:uid="{4B7E4492-1BC3-4E2C-8D1C-C01BC6221F92}"/>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -17031,7 +17326,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C5BFE-6C5D-49EF-B6DC-8FDF9610AF86}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17370,6 +17665,17 @@
         <v>867</v>
       </c>
     </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="10">
+        <v>45811</v>
+      </c>
+      <c r="C37" t="s">
+        <v>740</v>
+      </c>
+      <c r="D37" t="s">
+        <v>896</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{4C6C8172-E3B1-4460-AE30-8C1A4FB4F619}"/>

--- a/InstrumentList_v1.1.xlsx
+++ b/InstrumentList_v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\MAQ-Observations.nl\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70689307-9313-4323-BAAD-A7C96EFDB714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70799C99-792A-466D-9187-2E3BF2C73BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4075" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4261" uniqueCount="913">
   <si>
     <t>Stream name</t>
   </si>
@@ -3243,27 +3243,6 @@
     <t>~ 20 minutes</t>
   </si>
   <si>
-    <t>Air temperature; Nieuwe Uilenburgerstraat (52.3710,4.9062)</t>
-  </si>
-  <si>
-    <t>Relative Humidity; Nieuwe Uilenburgerstraat (52.3710,4.9062)</t>
-  </si>
-  <si>
-    <t>Relative Humidity; Gustav Mahlerplein (52.3363,4.8733)</t>
-  </si>
-  <si>
-    <t>Air temperature; Gustav Mahlerplein (52.3363,4.8733)</t>
-  </si>
-  <si>
-    <t>Wind speed; Nieuwe Uilenburgerstraat (52.3710,4.9062)</t>
-  </si>
-  <si>
-    <t>Wind direction; Nieuwe Uilenburgerstraat (52.3710,4.9062)</t>
-  </si>
-  <si>
-    <t>Max wind gust; Nieuwe Uilenburgerstraat (52.3710,4.9062)</t>
-  </si>
-  <si>
     <t xml:space="preserve">First inclusion of AAMS Distributed Network (DN) data through IOT. Distributed Network data are indicated by variable names starting with DN. Each station will have his own unique </t>
   </si>
   <si>
@@ -3333,30 +3312,9 @@
     <t>Analog Devices DS18B20</t>
   </si>
   <si>
-    <t>Accuracy +/- 0.5 °C</t>
-  </si>
-  <si>
     <t>Included station Ijburglaan in Amsterdam network</t>
   </si>
   <si>
-    <t>Air temperature; Ijburglaan (52.3558,4.9962)</t>
-  </si>
-  <si>
-    <t>Relative Humidity; Ijburglaan (52.3558,4.9962)</t>
-  </si>
-  <si>
-    <t>Black Globe Temperature; Ijburglaan (52.3558,4.9962)</t>
-  </si>
-  <si>
-    <t>Wind speed; Ijburglaan (52.3558,4.9962)</t>
-  </si>
-  <si>
-    <t>Wind direction; Ijburglaan (52.3558,4.9962)</t>
-  </si>
-  <si>
-    <t>Max wind gust; Ijburglaan (52.3558,4.9962)</t>
-  </si>
-  <si>
     <t>DN_TG_4_1_1</t>
   </si>
   <si>
@@ -3390,40 +3348,130 @@
     <t>DN_WX_5_1_1</t>
   </si>
   <si>
-    <t>Wind speed; Lutmastraat (52.35050,4.89411)</t>
-  </si>
-  <si>
-    <t>Max wind gust; Lutmastraat (52.35050,4.89411)</t>
-  </si>
-  <si>
-    <t>Wind direction; Lutmastraat (52.35050,4.89411)</t>
-  </si>
-  <si>
-    <t>Wind speed; Benkoelenstraat (52.36322,4.93824)</t>
-  </si>
-  <si>
-    <t>Wind direction; Benkoelenstraat (52.36322,4.93824)</t>
-  </si>
-  <si>
-    <t>Max wind gust; Benkoelenstraat (52.36322,4.93824)</t>
-  </si>
-  <si>
-    <t>Air temperature; Benkoelenstraat (52.36322,4.93824)</t>
-  </si>
-  <si>
-    <t>Relative Humidity; Benkoelenstraat (52.36322,4.93824)</t>
-  </si>
-  <si>
-    <t>Relative Humidity; Lutmastraat (52.35050,4.89411)</t>
-  </si>
-  <si>
-    <t>Air temperature; Lutmastraat (52.35050,4.89411)</t>
-  </si>
-  <si>
-    <t>Black Globe Temperature; Lutmastraat (52.35050,4.89411)</t>
-  </si>
-  <si>
     <t>Amsterdam: Added first 2 stations using IoT over the KPN network (Lutmastraat and Benkoelenstraat)</t>
+  </si>
+  <si>
+    <t>Amsterdam: Added 4 stations (Javakade, Oudezijdsvoorburgwal_N, Oudezijdsvoorburgwal_Z, Saskia van Uylenburgweg)</t>
+  </si>
+  <si>
+    <t>DN_TG_6_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_6_1_1</t>
+  </si>
+  <si>
+    <t>DN_TA_6_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_6_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_6_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_6_1_1</t>
+  </si>
+  <si>
+    <t>Javakade (52.37790,4.92936)</t>
+  </si>
+  <si>
+    <t>Benkoelenstraat (52.36322,4.93824)</t>
+  </si>
+  <si>
+    <t>Lutmastraat (52.35050,4.89411)</t>
+  </si>
+  <si>
+    <t>Ijburglaan (52.3558,4.9962)</t>
+  </si>
+  <si>
+    <t>Nieuwe Uilenburgerstraat (52.3710,4.9062)</t>
+  </si>
+  <si>
+    <t>Gustav Mahlerplein (52.3363,4.8733)</t>
+  </si>
+  <si>
+    <t>Air temperature</t>
+  </si>
+  <si>
+    <t>Relative Humidity</t>
+  </si>
+  <si>
+    <t>Wind speed</t>
+  </si>
+  <si>
+    <t>Wind direction</t>
+  </si>
+  <si>
+    <t>Max wind gust</t>
+  </si>
+  <si>
+    <t>Black Globe Temperature</t>
+  </si>
+  <si>
+    <t>Oudezijdsvoorburgwal_N (52.37446,4.89886)</t>
+  </si>
+  <si>
+    <t>DN_TA_7_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_7_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_7_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_7_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_7_1_1</t>
+  </si>
+  <si>
+    <t>DN_TA_8_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_8_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_8_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_8_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_8_1_1</t>
+  </si>
+  <si>
+    <t>DN_LW_LWS_8_1_1</t>
+  </si>
+  <si>
+    <t>DN_LW_TLEAF_8_1_1</t>
+  </si>
+  <si>
+    <t>Oudezijdsvoorburgwal_Z (52.35382,4.94016)</t>
+  </si>
+  <si>
+    <t>accuracy +/-3% (0-50%); +/-6% (&gt;50%); Oudezijdsvoorburgwal_Z (52.35382,4.94016)</t>
+  </si>
+  <si>
+    <t>accuracy +/- 0.5°C; Oudezijdsvoorburgwal_Z (52.35382,4.94016)</t>
+  </si>
+  <si>
+    <t>DN_TA_9_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_9_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_9_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_9_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_9_1_1</t>
+  </si>
+  <si>
+    <t>Saskia van Uylenburgweg (52.31726,4.87797)</t>
   </si>
 </sst>
 </file>
@@ -8157,48 +8205,48 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="E213" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="F213" t="s">
         <v>724</v>
       </c>
       <c r="G213" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="E214" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="F214" t="s">
         <v>724</v>
       </c>
       <c r="G214" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
     </row>
   </sheetData>
@@ -14039,7 +14087,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7E4492-1BC3-4E2C-8D1C-C01BC6221F92}">
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14049,7 +14097,7 @@
     <col min="2" max="2" width="12.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" customWidth="1"/>
     <col min="6" max="6" width="33.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
@@ -16835,10 +16883,13 @@
         <v>347</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="D142" t="s">
-        <v>839</v>
+        <v>885</v>
+      </c>
+      <c r="E142" t="s">
+        <v>884</v>
       </c>
       <c r="F142" t="s">
         <v>724</v>
@@ -16855,10 +16906,13 @@
         <v>347</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="D143" t="s">
-        <v>838</v>
+        <v>886</v>
+      </c>
+      <c r="E143" t="s">
+        <v>884</v>
       </c>
       <c r="F143" t="s">
         <v>724</v>
@@ -16875,10 +16929,13 @@
         <v>347</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="D144" t="s">
-        <v>836</v>
+        <v>885</v>
+      </c>
+      <c r="E144" t="s">
+        <v>883</v>
       </c>
       <c r="F144" t="s">
         <v>724</v>
@@ -16895,10 +16952,13 @@
         <v>347</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="D145" t="s">
-        <v>837</v>
+        <v>886</v>
+      </c>
+      <c r="E145" t="s">
+        <v>883</v>
       </c>
       <c r="F145" t="s">
         <v>724</v>
@@ -16915,10 +16975,13 @@
         <v>361</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="D146" t="s">
-        <v>840</v>
+        <v>887</v>
+      </c>
+      <c r="E146" t="s">
+        <v>883</v>
       </c>
       <c r="F146" t="s">
         <v>724</v>
@@ -16935,10 +16998,13 @@
         <v>354</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="D147" t="s">
-        <v>841</v>
+        <v>888</v>
+      </c>
+      <c r="E147" t="s">
+        <v>883</v>
       </c>
       <c r="F147" t="s">
         <v>724</v>
@@ -16955,10 +17021,13 @@
         <v>361</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="D148" t="s">
-        <v>842</v>
+        <v>889</v>
+      </c>
+      <c r="E148" t="s">
+        <v>883</v>
       </c>
       <c r="F148" t="s">
         <v>724</v>
@@ -16969,16 +17038,19 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="D149" t="s">
-        <v>868</v>
+        <v>885</v>
+      </c>
+      <c r="E149" t="s">
+        <v>882</v>
       </c>
       <c r="F149" t="s">
         <v>724</v>
@@ -16989,16 +17061,19 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="D150" t="s">
-        <v>869</v>
+        <v>886</v>
+      </c>
+      <c r="E150" t="s">
+        <v>882</v>
       </c>
       <c r="F150" t="s">
         <v>724</v>
@@ -17009,19 +17084,19 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="D151" t="s">
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="E151" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="F151" t="s">
         <v>724</v>
@@ -17032,16 +17107,19 @@
     </row>
     <row r="152" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="D152" t="s">
-        <v>871</v>
+        <v>887</v>
+      </c>
+      <c r="E152" t="s">
+        <v>882</v>
       </c>
       <c r="F152" t="s">
         <v>724</v>
@@ -17052,16 +17130,19 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="D153" t="s">
-        <v>872</v>
+        <v>888</v>
+      </c>
+      <c r="E153" t="s">
+        <v>882</v>
       </c>
       <c r="F153" t="s">
         <v>724</v>
@@ -17072,16 +17153,19 @@
     </row>
     <row r="154" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="D154" t="s">
-        <v>873</v>
+        <v>889</v>
+      </c>
+      <c r="E154" t="s">
+        <v>882</v>
       </c>
       <c r="F154" t="s">
         <v>724</v>
@@ -17092,16 +17176,19 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="D155" t="s">
-        <v>895</v>
+        <v>890</v>
+      </c>
+      <c r="E155" t="s">
+        <v>881</v>
       </c>
       <c r="F155" t="s">
         <v>724</v>
@@ -17112,16 +17199,19 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="D156" t="s">
-        <v>894</v>
+        <v>885</v>
+      </c>
+      <c r="E156" t="s">
+        <v>881</v>
       </c>
       <c r="F156" t="s">
         <v>724</v>
@@ -17132,16 +17222,19 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="D157" t="s">
-        <v>893</v>
+        <v>886</v>
+      </c>
+      <c r="E157" t="s">
+        <v>881</v>
       </c>
       <c r="F157" t="s">
         <v>724</v>
@@ -17152,16 +17245,19 @@
     </row>
     <row r="158" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="D158" t="s">
-        <v>885</v>
+        <v>887</v>
+      </c>
+      <c r="E158" t="s">
+        <v>881</v>
       </c>
       <c r="F158" t="s">
         <v>724</v>
@@ -17172,16 +17268,19 @@
     </row>
     <row r="159" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="D159" t="s">
-        <v>887</v>
+        <v>888</v>
+      </c>
+      <c r="E159" t="s">
+        <v>881</v>
       </c>
       <c r="F159" t="s">
         <v>724</v>
@@ -17192,16 +17291,19 @@
     </row>
     <row r="160" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="D160" t="s">
-        <v>886</v>
+        <v>889</v>
+      </c>
+      <c r="E160" t="s">
+        <v>881</v>
       </c>
       <c r="F160" t="s">
         <v>724</v>
@@ -17212,16 +17314,19 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="D161" t="s">
-        <v>891</v>
+        <v>885</v>
+      </c>
+      <c r="E161" t="s">
+        <v>880</v>
       </c>
       <c r="F161" t="s">
         <v>724</v>
@@ -17232,16 +17337,19 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="D162" t="s">
-        <v>892</v>
+        <v>886</v>
+      </c>
+      <c r="E162" t="s">
+        <v>880</v>
       </c>
       <c r="F162" t="s">
         <v>724</v>
@@ -17252,16 +17360,19 @@
     </row>
     <row r="163" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="D163" t="s">
-        <v>888</v>
+        <v>887</v>
+      </c>
+      <c r="E163" t="s">
+        <v>880</v>
       </c>
       <c r="F163" t="s">
         <v>724</v>
@@ -17272,16 +17383,19 @@
     </row>
     <row r="164" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="D164" t="s">
-        <v>889</v>
+        <v>888</v>
+      </c>
+      <c r="E164" t="s">
+        <v>880</v>
       </c>
       <c r="F164" t="s">
         <v>724</v>
@@ -17292,16 +17406,19 @@
     </row>
     <row r="165" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="D165" t="s">
-        <v>890</v>
+        <v>889</v>
+      </c>
+      <c r="E165" t="s">
+        <v>880</v>
       </c>
       <c r="F165" t="s">
         <v>724</v>
@@ -17311,10 +17428,533 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G166" s="4"/>
+      <c r="A166" t="s">
+        <v>875</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D166" t="s">
+        <v>885</v>
+      </c>
+      <c r="E166" t="s">
+        <v>879</v>
+      </c>
+      <c r="F166" t="s">
+        <v>724</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G167" s="4"/>
+      <c r="A167" t="s">
+        <v>874</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D167" t="s">
+        <v>886</v>
+      </c>
+      <c r="E167" t="s">
+        <v>879</v>
+      </c>
+      <c r="F167" t="s">
+        <v>724</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>873</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="D168" t="s">
+        <v>890</v>
+      </c>
+      <c r="E168" t="s">
+        <v>879</v>
+      </c>
+      <c r="F168" t="s">
+        <v>724</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>876</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D169" t="s">
+        <v>887</v>
+      </c>
+      <c r="E169" t="s">
+        <v>879</v>
+      </c>
+      <c r="F169" t="s">
+        <v>724</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>877</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D170" t="s">
+        <v>888</v>
+      </c>
+      <c r="E170" t="s">
+        <v>879</v>
+      </c>
+      <c r="F170" t="s">
+        <v>724</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>878</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D171" t="s">
+        <v>889</v>
+      </c>
+      <c r="E171" t="s">
+        <v>879</v>
+      </c>
+      <c r="F171" t="s">
+        <v>724</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>892</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D172" t="s">
+        <v>885</v>
+      </c>
+      <c r="E172" t="s">
+        <v>891</v>
+      </c>
+      <c r="F172" t="s">
+        <v>724</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>893</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D173" t="s">
+        <v>886</v>
+      </c>
+      <c r="E173" t="s">
+        <v>891</v>
+      </c>
+      <c r="F173" t="s">
+        <v>724</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>894</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D174" t="s">
+        <v>887</v>
+      </c>
+      <c r="E174" t="s">
+        <v>891</v>
+      </c>
+      <c r="F174" t="s">
+        <v>724</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>895</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D175" t="s">
+        <v>888</v>
+      </c>
+      <c r="E175" t="s">
+        <v>891</v>
+      </c>
+      <c r="F175" t="s">
+        <v>724</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>896</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D176" t="s">
+        <v>889</v>
+      </c>
+      <c r="E176" t="s">
+        <v>891</v>
+      </c>
+      <c r="F176" t="s">
+        <v>724</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>897</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D177" t="s">
+        <v>885</v>
+      </c>
+      <c r="E177" t="s">
+        <v>904</v>
+      </c>
+      <c r="F177" t="s">
+        <v>724</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>898</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D178" t="s">
+        <v>886</v>
+      </c>
+      <c r="E178" t="s">
+        <v>904</v>
+      </c>
+      <c r="F178" t="s">
+        <v>724</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>899</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D179" t="s">
+        <v>887</v>
+      </c>
+      <c r="E179" t="s">
+        <v>904</v>
+      </c>
+      <c r="F179" t="s">
+        <v>724</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>900</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D180" t="s">
+        <v>888</v>
+      </c>
+      <c r="E180" t="s">
+        <v>904</v>
+      </c>
+      <c r="F180" t="s">
+        <v>724</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>901</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D181" t="s">
+        <v>889</v>
+      </c>
+      <c r="E181" t="s">
+        <v>904</v>
+      </c>
+      <c r="F181" t="s">
+        <v>724</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>902</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="E182" t="s">
+        <v>905</v>
+      </c>
+      <c r="F182" t="s">
+        <v>724</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>903</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="E183" t="s">
+        <v>906</v>
+      </c>
+      <c r="F183" t="s">
+        <v>724</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>907</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D184" t="s">
+        <v>885</v>
+      </c>
+      <c r="E184" t="s">
+        <v>912</v>
+      </c>
+      <c r="F184" t="s">
+        <v>724</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>908</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D185" t="s">
+        <v>886</v>
+      </c>
+      <c r="E185" t="s">
+        <v>912</v>
+      </c>
+      <c r="F185" t="s">
+        <v>724</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>909</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D186" t="s">
+        <v>887</v>
+      </c>
+      <c r="E186" t="s">
+        <v>912</v>
+      </c>
+      <c r="F186" t="s">
+        <v>724</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>910</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D187" t="s">
+        <v>888</v>
+      </c>
+      <c r="E187" t="s">
+        <v>912</v>
+      </c>
+      <c r="F187" t="s">
+        <v>724</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>911</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D188" t="s">
+        <v>889</v>
+      </c>
+      <c r="E188" t="s">
+        <v>912</v>
+      </c>
+      <c r="F188" t="s">
+        <v>724</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>835</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:G141" xr:uid="{4B7E4492-1BC3-4E2C-8D1C-C01BC6221F92}"/>
@@ -17326,7 +17966,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C5BFE-6C5D-49EF-B6DC-8FDF9610AF86}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17432,7 +18072,7 @@
         <v>817</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -17445,10 +18085,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="B17" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -17456,7 +18096,7 @@
         <v>821</v>
       </c>
       <c r="B18" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -17638,7 +18278,7 @@
         <v>740</v>
       </c>
       <c r="D34" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -17650,7 +18290,7 @@
         <v>740</v>
       </c>
       <c r="D35" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -17662,7 +18302,7 @@
         <v>740</v>
       </c>
       <c r="D36" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -17673,7 +18313,18 @@
         <v>740</v>
       </c>
       <c r="D37" t="s">
-        <v>896</v>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="10">
+        <v>45813</v>
+      </c>
+      <c r="C38" t="s">
+        <v>740</v>
+      </c>
+      <c r="D38" t="s">
+        <v>872</v>
       </c>
     </row>
   </sheetData>

--- a/InstrumentList_v1.1.xlsx
+++ b/InstrumentList_v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\MAQ-Observations.nl\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70799C99-792A-466D-9187-2E3BF2C73BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C783145C-9922-41CB-AAAC-C87A460C4769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4261" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4264" uniqueCount="916">
   <si>
     <t>Stream name</t>
   </si>
@@ -3472,6 +3472,15 @@
   </si>
   <si>
     <t>Saskia van Uylenburgweg (52.31726,4.87797)</t>
+  </si>
+  <si>
+    <t>Loobos: Added Storage to advanced packages and updated LEVEL information</t>
+  </si>
+  <si>
+    <t>LEVEL = [1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11], HEIGHT =[38.2, 30, 22.1, 15.7, 11.2, 7.4, 4.5, 2.4, 1.5, 0.4, 0.1] m AGL</t>
+  </si>
+  <si>
+    <t>SINGLE/ADVANCED-CO2/H2O profile</t>
   </si>
 </sst>
 </file>
@@ -13651,7 +13660,7 @@
         <v>489</v>
       </c>
       <c r="F276" t="s">
-        <v>724</v>
+        <v>915</v>
       </c>
       <c r="G276" t="s">
         <v>736</v>
@@ -13671,7 +13680,7 @@
         <v>490</v>
       </c>
       <c r="F277" t="s">
-        <v>724</v>
+        <v>915</v>
       </c>
       <c r="G277" t="s">
         <v>736</v>
@@ -13690,8 +13699,11 @@
       <c r="D278" t="s">
         <v>488</v>
       </c>
+      <c r="E278" t="s">
+        <v>914</v>
+      </c>
       <c r="F278" t="s">
-        <v>724</v>
+        <v>915</v>
       </c>
       <c r="G278" t="s">
         <v>736</v>
@@ -13711,7 +13723,7 @@
         <v>493</v>
       </c>
       <c r="F279" t="s">
-        <v>724</v>
+        <v>915</v>
       </c>
       <c r="G279" t="s">
         <v>736</v>
@@ -13731,7 +13743,7 @@
         <v>492</v>
       </c>
       <c r="F280" t="s">
-        <v>724</v>
+        <v>915</v>
       </c>
       <c r="G280" t="s">
         <v>736</v>
@@ -13751,7 +13763,7 @@
         <v>491</v>
       </c>
       <c r="F281" t="s">
-        <v>724</v>
+        <v>915</v>
       </c>
       <c r="G281" t="s">
         <v>736</v>
@@ -13771,7 +13783,7 @@
         <v>484</v>
       </c>
       <c r="F282" t="s">
-        <v>724</v>
+        <v>915</v>
       </c>
       <c r="G282" t="s">
         <v>736</v>
@@ -13791,7 +13803,7 @@
         <v>485</v>
       </c>
       <c r="F283" t="s">
-        <v>724</v>
+        <v>915</v>
       </c>
       <c r="G283" t="s">
         <v>736</v>
@@ -13811,7 +13823,7 @@
         <v>486</v>
       </c>
       <c r="F284" t="s">
-        <v>724</v>
+        <v>915</v>
       </c>
       <c r="G284" t="s">
         <v>736</v>
@@ -13831,7 +13843,7 @@
         <v>487</v>
       </c>
       <c r="F285" t="s">
-        <v>724</v>
+        <v>915</v>
       </c>
       <c r="G285" t="s">
         <v>736</v>
@@ -17966,7 +17978,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C5BFE-6C5D-49EF-B6DC-8FDF9610AF86}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18327,6 +18339,17 @@
         <v>872</v>
       </c>
     </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="10">
+        <v>45841</v>
+      </c>
+      <c r="C39" t="s">
+        <v>740</v>
+      </c>
+      <c r="D39" t="s">
+        <v>913</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{4C6C8172-E3B1-4460-AE30-8C1A4FB4F619}"/>

--- a/InstrumentList_v1.1.xlsx
+++ b/InstrumentList_v1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\MAQ-Observations.nl\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C783145C-9922-41CB-AAAC-C87A460C4769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCAEB14-F99A-4DBD-B9FE-02508F759E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Veenkampen" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4264" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4777" uniqueCount="1011">
   <si>
     <t>Stream name</t>
   </si>
@@ -3372,18 +3372,12 @@
     <t>DN_WX_6_1_1</t>
   </si>
   <si>
-    <t>Javakade (52.37790,4.92936)</t>
-  </si>
-  <si>
     <t>Benkoelenstraat (52.36322,4.93824)</t>
   </si>
   <si>
     <t>Lutmastraat (52.35050,4.89411)</t>
   </si>
   <si>
-    <t>Ijburglaan (52.3558,4.9962)</t>
-  </si>
-  <si>
     <t>Nieuwe Uilenburgerstraat (52.3710,4.9062)</t>
   </si>
   <si>
@@ -3481,6 +3475,297 @@
   </si>
   <si>
     <t>SINGLE/ADVANCED-CO2/H2O profile</t>
+  </si>
+  <si>
+    <t>Diemerparklaan (52.3558,4.9962)</t>
+  </si>
+  <si>
+    <t>Majangracht (52.37790,4.92936)</t>
+  </si>
+  <si>
+    <t>Tweede Oosterparkstraat (52.35675,4.91571)</t>
+  </si>
+  <si>
+    <t>Galileiplantsoen (52.31726,4.94016)</t>
+  </si>
+  <si>
+    <t>DN_TA_10_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_10_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_10_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_10_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_10_1_1</t>
+  </si>
+  <si>
+    <t>DN_TA_11_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_11_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_11_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_11_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_11_1_1</t>
+  </si>
+  <si>
+    <t>Saxenburgerdwarsstraat (52.35850,4.86209)</t>
+  </si>
+  <si>
+    <t>DN_TA_12_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_12_1_1</t>
+  </si>
+  <si>
+    <t>DN_TG_12_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_12_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_12_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_12_1_1</t>
+  </si>
+  <si>
+    <t>Raephaelstraat (52.34931,4.86986)</t>
+  </si>
+  <si>
+    <t>Kinkerstraat (52.36666,4.87054)</t>
+  </si>
+  <si>
+    <t>Anjeliersstraat (52.37767,4.88319)</t>
+  </si>
+  <si>
+    <t>Kattengat (52.37799,4.89422)</t>
+  </si>
+  <si>
+    <t>Markengauw (52.39649,4.95789)</t>
+  </si>
+  <si>
+    <t>Purmerweg (52.39220,4.94083)</t>
+  </si>
+  <si>
+    <t>Zamenhofstraat (52.38834,4.92737)</t>
+  </si>
+  <si>
+    <t>Scherpenzeelstraat (52.29424,4.97872)</t>
+  </si>
+  <si>
+    <t>Comeniusstraat (52.35906,E4.82495)</t>
+  </si>
+  <si>
+    <t>Kwelderweg (52.35544,4.78376)</t>
+  </si>
+  <si>
+    <t>Natuur eiland IJburg (52.36790,5.01440)</t>
+  </si>
+  <si>
+    <t>Anemometer N: 270°; Kinkerstraat (52.36666,4.87054)</t>
+  </si>
+  <si>
+    <t>Anemometer N: 105°; Anjeliersstraat (52.37767,4.88319)</t>
+  </si>
+  <si>
+    <t>Anemometer N: 165°; Kattengat (52.37799,4.89422)</t>
+  </si>
+  <si>
+    <t>Anemometer N: 15°; Scherpenzeelstraat (52.29424,4.97872)</t>
+  </si>
+  <si>
+    <t>Anemometer N: 165°; Comeniusstraat (52.35906,E4.82495)</t>
+  </si>
+  <si>
+    <t>Anemometer N: 225°; Kwelderweg (52.35544,4.78376)</t>
+  </si>
+  <si>
+    <t>SINGLE/ADVANCED-Distributed Network</t>
+  </si>
+  <si>
+    <t>DN_TA_13_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_13_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_13_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_13_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_13_1_1</t>
+  </si>
+  <si>
+    <t>DN_TA_14_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_14_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_14_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_14_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_14_1_1</t>
+  </si>
+  <si>
+    <t>DN_TA_15_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_15_1_1</t>
+  </si>
+  <si>
+    <t>DN_TG_15_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_15_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_15_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_15_1_1</t>
+  </si>
+  <si>
+    <t>DN_TA_16_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_16_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_16_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_16_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_16_1_1</t>
+  </si>
+  <si>
+    <t>DN_TA_17_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_17_1_1</t>
+  </si>
+  <si>
+    <t>DN_TG_17_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_17_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_17_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_17_1_1</t>
+  </si>
+  <si>
+    <t>DN_TA_18_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_18_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_18_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_18_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_18_1_1</t>
+  </si>
+  <si>
+    <t>DN_TA_19_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_19_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_19_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_19_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_19_1_1</t>
+  </si>
+  <si>
+    <t>DN_TA_20_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_20_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_20_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_20_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_20_1_1</t>
+  </si>
+  <si>
+    <t>DN_TA_21_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_21_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_21_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_21_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_21_1_1</t>
+  </si>
+  <si>
+    <t>DN_TA_22_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_22_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_22_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_22_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_22_1_1</t>
+  </si>
+  <si>
+    <t>DN_TA_23_1_1</t>
+  </si>
+  <si>
+    <t>DN_RH_23_1_1</t>
+  </si>
+  <si>
+    <t>DN_WS_23_1_1</t>
+  </si>
+  <si>
+    <t>DN_WD_23_1_1</t>
+  </si>
+  <si>
+    <t>DN_WX_23_1_1</t>
+  </si>
+  <si>
+    <t>Amsterdam: Included all 23 stations of Distributed Network. Added Distributed Network as ADVANCED download package. Added Veenkampen and Amsterdam to ADVANCED Leaf Wetness package</t>
   </si>
 </sst>
 </file>
@@ -8229,7 +8514,7 @@
         <v>844</v>
       </c>
       <c r="F213" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="G213" t="s">
         <v>846</v>
@@ -8252,7 +8537,7 @@
         <v>845</v>
       </c>
       <c r="F214" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="G214" t="s">
         <v>846</v>
@@ -13660,7 +13945,7 @@
         <v>489</v>
       </c>
       <c r="F276" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G276" t="s">
         <v>736</v>
@@ -13680,7 +13965,7 @@
         <v>490</v>
       </c>
       <c r="F277" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G277" t="s">
         <v>736</v>
@@ -13700,10 +13985,10 @@
         <v>488</v>
       </c>
       <c r="E278" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F278" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G278" t="s">
         <v>736</v>
@@ -13723,7 +14008,7 @@
         <v>493</v>
       </c>
       <c r="F279" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G279" t="s">
         <v>736</v>
@@ -13743,7 +14028,7 @@
         <v>492</v>
       </c>
       <c r="F280" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G280" t="s">
         <v>736</v>
@@ -13763,7 +14048,7 @@
         <v>491</v>
       </c>
       <c r="F281" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G281" t="s">
         <v>736</v>
@@ -13783,7 +14068,7 @@
         <v>484</v>
       </c>
       <c r="F282" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G282" t="s">
         <v>736</v>
@@ -13803,7 +14088,7 @@
         <v>485</v>
       </c>
       <c r="F283" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G283" t="s">
         <v>736</v>
@@ -13823,7 +14108,7 @@
         <v>486</v>
       </c>
       <c r="F284" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G284" t="s">
         <v>736</v>
@@ -13843,7 +14128,7 @@
         <v>487</v>
       </c>
       <c r="F285" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G285" t="s">
         <v>736</v>
@@ -14099,7 +14384,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7E4492-1BC3-4E2C-8D1C-C01BC6221F92}">
-  <dimension ref="A1:G188"/>
+  <dimension ref="A1:G261"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16898,13 +17183,13 @@
         <v>837</v>
       </c>
       <c r="D142" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E142" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F142" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>835</v>
@@ -16921,13 +17206,13 @@
         <v>837</v>
       </c>
       <c r="D143" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E143" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F143" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>835</v>
@@ -16944,13 +17229,13 @@
         <v>837</v>
       </c>
       <c r="D144" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E144" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F144" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>835</v>
@@ -16967,13 +17252,13 @@
         <v>837</v>
       </c>
       <c r="D145" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E145" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F145" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>835</v>
@@ -16990,13 +17275,13 @@
         <v>838</v>
       </c>
       <c r="D146" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E146" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F146" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>835</v>
@@ -17013,10 +17298,10 @@
         <v>838</v>
       </c>
       <c r="D147" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E147" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F147" t="s">
         <v>724</v>
@@ -17036,10 +17321,10 @@
         <v>838</v>
       </c>
       <c r="D148" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E148" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F148" t="s">
         <v>724</v>
@@ -17059,13 +17344,13 @@
         <v>837</v>
       </c>
       <c r="D149" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E149" t="s">
-        <v>882</v>
+        <v>914</v>
       </c>
       <c r="F149" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>835</v>
@@ -17082,13 +17367,13 @@
         <v>837</v>
       </c>
       <c r="D150" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E150" t="s">
-        <v>882</v>
+        <v>914</v>
       </c>
       <c r="F150" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>835</v>
@@ -17105,13 +17390,13 @@
         <v>858</v>
       </c>
       <c r="D151" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E151" t="s">
-        <v>882</v>
+        <v>914</v>
       </c>
       <c r="F151" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>835</v>
@@ -17128,13 +17413,13 @@
         <v>838</v>
       </c>
       <c r="D152" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E152" t="s">
-        <v>882</v>
+        <v>914</v>
       </c>
       <c r="F152" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>835</v>
@@ -17151,10 +17436,10 @@
         <v>838</v>
       </c>
       <c r="D153" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E153" t="s">
-        <v>882</v>
+        <v>914</v>
       </c>
       <c r="F153" t="s">
         <v>724</v>
@@ -17174,10 +17459,10 @@
         <v>838</v>
       </c>
       <c r="D154" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E154" t="s">
-        <v>882</v>
+        <v>914</v>
       </c>
       <c r="F154" t="s">
         <v>724</v>
@@ -17197,13 +17482,13 @@
         <v>858</v>
       </c>
       <c r="D155" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E155" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F155" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>835</v>
@@ -17220,13 +17505,13 @@
         <v>837</v>
       </c>
       <c r="D156" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E156" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F156" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>835</v>
@@ -17243,13 +17528,13 @@
         <v>837</v>
       </c>
       <c r="D157" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E157" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F157" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>835</v>
@@ -17266,13 +17551,13 @@
         <v>838</v>
       </c>
       <c r="D158" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E158" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F158" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>835</v>
@@ -17289,10 +17574,10 @@
         <v>838</v>
       </c>
       <c r="D159" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E159" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F159" t="s">
         <v>724</v>
@@ -17312,10 +17597,10 @@
         <v>838</v>
       </c>
       <c r="D160" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E160" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F160" t="s">
         <v>724</v>
@@ -17335,13 +17620,13 @@
         <v>837</v>
       </c>
       <c r="D161" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E161" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F161" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>835</v>
@@ -17358,13 +17643,13 @@
         <v>837</v>
       </c>
       <c r="D162" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E162" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F162" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>835</v>
@@ -17381,13 +17666,13 @@
         <v>838</v>
       </c>
       <c r="D163" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E163" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F163" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>835</v>
@@ -17404,10 +17689,10 @@
         <v>838</v>
       </c>
       <c r="D164" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E164" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F164" t="s">
         <v>724</v>
@@ -17427,10 +17712,10 @@
         <v>838</v>
       </c>
       <c r="D165" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E165" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F165" t="s">
         <v>724</v>
@@ -17450,13 +17735,13 @@
         <v>837</v>
       </c>
       <c r="D166" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E166" t="s">
-        <v>879</v>
+        <v>915</v>
       </c>
       <c r="F166" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>835</v>
@@ -17473,13 +17758,13 @@
         <v>837</v>
       </c>
       <c r="D167" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E167" t="s">
-        <v>879</v>
+        <v>915</v>
       </c>
       <c r="F167" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>835</v>
@@ -17496,13 +17781,13 @@
         <v>858</v>
       </c>
       <c r="D168" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E168" t="s">
-        <v>879</v>
+        <v>915</v>
       </c>
       <c r="F168" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>835</v>
@@ -17519,13 +17804,13 @@
         <v>838</v>
       </c>
       <c r="D169" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E169" t="s">
-        <v>879</v>
+        <v>915</v>
       </c>
       <c r="F169" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>835</v>
@@ -17542,10 +17827,10 @@
         <v>838</v>
       </c>
       <c r="D170" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E170" t="s">
-        <v>879</v>
+        <v>915</v>
       </c>
       <c r="F170" t="s">
         <v>724</v>
@@ -17565,10 +17850,10 @@
         <v>838</v>
       </c>
       <c r="D171" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E171" t="s">
-        <v>879</v>
+        <v>915</v>
       </c>
       <c r="F171" t="s">
         <v>724</v>
@@ -17579,7 +17864,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>347</v>
@@ -17588,13 +17873,13 @@
         <v>837</v>
       </c>
       <c r="D172" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E172" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F172" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>835</v>
@@ -17602,7 +17887,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>348</v>
@@ -17611,13 +17896,13 @@
         <v>837</v>
       </c>
       <c r="D173" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E173" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F173" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>835</v>
@@ -17625,7 +17910,7 @@
     </row>
     <row r="174" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>361</v>
@@ -17634,13 +17919,13 @@
         <v>838</v>
       </c>
       <c r="D174" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E174" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F174" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>835</v>
@@ -17648,7 +17933,7 @@
     </row>
     <row r="175" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>361</v>
@@ -17657,10 +17942,10 @@
         <v>838</v>
       </c>
       <c r="D175" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E175" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F175" t="s">
         <v>724</v>
@@ -17671,7 +17956,7 @@
     </row>
     <row r="176" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>361</v>
@@ -17680,10 +17965,10 @@
         <v>838</v>
       </c>
       <c r="D176" t="s">
+        <v>887</v>
+      </c>
+      <c r="E176" t="s">
         <v>889</v>
-      </c>
-      <c r="E176" t="s">
-        <v>891</v>
       </c>
       <c r="F176" t="s">
         <v>724</v>
@@ -17694,7 +17979,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>347</v>
@@ -17703,13 +17988,13 @@
         <v>837</v>
       </c>
       <c r="D177" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E177" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F177" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>835</v>
@@ -17717,7 +18002,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>348</v>
@@ -17726,13 +18011,13 @@
         <v>837</v>
       </c>
       <c r="D178" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E178" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F178" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>835</v>
@@ -17740,7 +18025,7 @@
     </row>
     <row r="179" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>361</v>
@@ -17749,13 +18034,13 @@
         <v>838</v>
       </c>
       <c r="D179" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E179" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F179" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>835</v>
@@ -17763,7 +18048,7 @@
     </row>
     <row r="180" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>361</v>
@@ -17772,10 +18057,10 @@
         <v>838</v>
       </c>
       <c r="D180" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E180" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F180" t="s">
         <v>724</v>
@@ -17786,7 +18071,7 @@
     </row>
     <row r="181" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>361</v>
@@ -17795,10 +18080,10 @@
         <v>838</v>
       </c>
       <c r="D181" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E181" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F181" t="s">
         <v>724</v>
@@ -17809,7 +18094,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>348</v>
@@ -17821,10 +18106,10 @@
         <v>842</v>
       </c>
       <c r="E182" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F182" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="G182" s="4" t="s">
         <v>835</v>
@@ -17832,7 +18117,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>347</v>
@@ -17844,10 +18129,10 @@
         <v>843</v>
       </c>
       <c r="E183" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F183" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>835</v>
@@ -17855,7 +18140,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>347</v>
@@ -17864,13 +18149,13 @@
         <v>837</v>
       </c>
       <c r="D184" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E184" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F184" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>835</v>
@@ -17878,7 +18163,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>348</v>
@@ -17887,13 +18172,13 @@
         <v>837</v>
       </c>
       <c r="D185" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E185" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F185" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>835</v>
@@ -17901,7 +18186,7 @@
     </row>
     <row r="186" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>361</v>
@@ -17910,13 +18195,13 @@
         <v>838</v>
       </c>
       <c r="D186" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E186" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F186" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>835</v>
@@ -17924,7 +18209,7 @@
     </row>
     <row r="187" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>361</v>
@@ -17933,10 +18218,10 @@
         <v>838</v>
       </c>
       <c r="D187" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E187" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F187" t="s">
         <v>724</v>
@@ -17947,7 +18232,7 @@
     </row>
     <row r="188" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>361</v>
@@ -17956,15 +18241,1694 @@
         <v>838</v>
       </c>
       <c r="D188" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E188" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F188" t="s">
         <v>724</v>
       </c>
       <c r="G188" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>918</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D189" t="s">
+        <v>883</v>
+      </c>
+      <c r="E189" t="s">
+        <v>916</v>
+      </c>
+      <c r="F189" t="s">
+        <v>952</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>919</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D190" t="s">
+        <v>884</v>
+      </c>
+      <c r="E190" t="s">
+        <v>916</v>
+      </c>
+      <c r="F190" t="s">
+        <v>952</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>920</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D191" t="s">
+        <v>885</v>
+      </c>
+      <c r="E191" t="s">
+        <v>916</v>
+      </c>
+      <c r="F191" t="s">
+        <v>952</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>921</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D192" t="s">
+        <v>886</v>
+      </c>
+      <c r="E192" t="s">
+        <v>916</v>
+      </c>
+      <c r="F192" t="s">
+        <v>724</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>922</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D193" t="s">
+        <v>887</v>
+      </c>
+      <c r="E193" t="s">
+        <v>916</v>
+      </c>
+      <c r="F193" t="s">
+        <v>724</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>923</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D194" t="s">
+        <v>883</v>
+      </c>
+      <c r="E194" t="s">
+        <v>917</v>
+      </c>
+      <c r="F194" t="s">
+        <v>952</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>924</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D195" t="s">
+        <v>884</v>
+      </c>
+      <c r="E195" t="s">
+        <v>917</v>
+      </c>
+      <c r="F195" t="s">
+        <v>952</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>925</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D196" t="s">
+        <v>885</v>
+      </c>
+      <c r="E196" t="s">
+        <v>917</v>
+      </c>
+      <c r="F196" t="s">
+        <v>952</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>926</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D197" t="s">
+        <v>886</v>
+      </c>
+      <c r="E197" t="s">
+        <v>917</v>
+      </c>
+      <c r="F197" t="s">
+        <v>724</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>927</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D198" t="s">
+        <v>887</v>
+      </c>
+      <c r="E198" t="s">
+        <v>917</v>
+      </c>
+      <c r="F198" t="s">
+        <v>724</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>929</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D199" t="s">
+        <v>883</v>
+      </c>
+      <c r="E199" t="s">
+        <v>928</v>
+      </c>
+      <c r="F199" t="s">
+        <v>952</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>930</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D200" t="s">
+        <v>884</v>
+      </c>
+      <c r="E200" t="s">
+        <v>928</v>
+      </c>
+      <c r="F200" t="s">
+        <v>952</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>931</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="D201" t="s">
+        <v>888</v>
+      </c>
+      <c r="E201" t="s">
+        <v>928</v>
+      </c>
+      <c r="F201" t="s">
+        <v>952</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>932</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D202" t="s">
+        <v>885</v>
+      </c>
+      <c r="E202" t="s">
+        <v>928</v>
+      </c>
+      <c r="F202" t="s">
+        <v>952</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>933</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D203" t="s">
+        <v>886</v>
+      </c>
+      <c r="E203" t="s">
+        <v>928</v>
+      </c>
+      <c r="F203" t="s">
+        <v>724</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>934</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D204" t="s">
+        <v>887</v>
+      </c>
+      <c r="E204" t="s">
+        <v>928</v>
+      </c>
+      <c r="F204" t="s">
+        <v>724</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>953</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D205" t="s">
+        <v>883</v>
+      </c>
+      <c r="E205" t="s">
+        <v>935</v>
+      </c>
+      <c r="F205" t="s">
+        <v>952</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>954</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D206" t="s">
+        <v>884</v>
+      </c>
+      <c r="E206" t="s">
+        <v>935</v>
+      </c>
+      <c r="F206" t="s">
+        <v>952</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>955</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D207" t="s">
+        <v>885</v>
+      </c>
+      <c r="E207" t="s">
+        <v>935</v>
+      </c>
+      <c r="F207" t="s">
+        <v>952</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>956</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D208" t="s">
+        <v>886</v>
+      </c>
+      <c r="E208" t="s">
+        <v>935</v>
+      </c>
+      <c r="F208" t="s">
+        <v>724</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>957</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D209" t="s">
+        <v>887</v>
+      </c>
+      <c r="E209" t="s">
+        <v>935</v>
+      </c>
+      <c r="F209" t="s">
+        <v>724</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>958</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D210" t="s">
+        <v>883</v>
+      </c>
+      <c r="E210" t="s">
+        <v>936</v>
+      </c>
+      <c r="F210" t="s">
+        <v>952</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>959</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D211" t="s">
+        <v>884</v>
+      </c>
+      <c r="E211" t="s">
+        <v>936</v>
+      </c>
+      <c r="F211" t="s">
+        <v>952</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>960</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D212" t="s">
+        <v>885</v>
+      </c>
+      <c r="E212" t="s">
+        <v>936</v>
+      </c>
+      <c r="F212" t="s">
+        <v>952</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>961</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D213" t="s">
+        <v>886</v>
+      </c>
+      <c r="E213" t="s">
+        <v>946</v>
+      </c>
+      <c r="F213" t="s">
+        <v>724</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>962</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D214" t="s">
+        <v>887</v>
+      </c>
+      <c r="E214" t="s">
+        <v>936</v>
+      </c>
+      <c r="F214" t="s">
+        <v>724</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>963</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D215" t="s">
+        <v>883</v>
+      </c>
+      <c r="E215" t="s">
+        <v>937</v>
+      </c>
+      <c r="F215" t="s">
+        <v>952</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>964</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D216" t="s">
+        <v>884</v>
+      </c>
+      <c r="E216" t="s">
+        <v>937</v>
+      </c>
+      <c r="F216" t="s">
+        <v>952</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>965</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="D217" t="s">
+        <v>888</v>
+      </c>
+      <c r="E217" t="s">
+        <v>937</v>
+      </c>
+      <c r="F217" t="s">
+        <v>952</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>966</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D218" t="s">
+        <v>885</v>
+      </c>
+      <c r="E218" t="s">
+        <v>937</v>
+      </c>
+      <c r="F218" t="s">
+        <v>952</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>967</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D219" t="s">
+        <v>886</v>
+      </c>
+      <c r="E219" t="s">
+        <v>947</v>
+      </c>
+      <c r="F219" t="s">
+        <v>724</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>968</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D220" t="s">
+        <v>887</v>
+      </c>
+      <c r="E220" t="s">
+        <v>937</v>
+      </c>
+      <c r="F220" t="s">
+        <v>724</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>969</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D221" t="s">
+        <v>883</v>
+      </c>
+      <c r="E221" t="s">
+        <v>938</v>
+      </c>
+      <c r="F221" t="s">
+        <v>952</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>970</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D222" t="s">
+        <v>884</v>
+      </c>
+      <c r="E222" t="s">
+        <v>938</v>
+      </c>
+      <c r="F222" t="s">
+        <v>952</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>971</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D223" t="s">
+        <v>885</v>
+      </c>
+      <c r="E223" t="s">
+        <v>938</v>
+      </c>
+      <c r="F223" t="s">
+        <v>952</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>972</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D224" t="s">
+        <v>886</v>
+      </c>
+      <c r="E224" t="s">
+        <v>948</v>
+      </c>
+      <c r="F224" t="s">
+        <v>724</v>
+      </c>
+      <c r="G224" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>973</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D225" t="s">
+        <v>887</v>
+      </c>
+      <c r="E225" t="s">
+        <v>938</v>
+      </c>
+      <c r="F225" t="s">
+        <v>724</v>
+      </c>
+      <c r="G225" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>974</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D226" t="s">
+        <v>883</v>
+      </c>
+      <c r="E226" t="s">
+        <v>939</v>
+      </c>
+      <c r="F226" t="s">
+        <v>952</v>
+      </c>
+      <c r="G226" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>975</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D227" t="s">
+        <v>884</v>
+      </c>
+      <c r="E227" t="s">
+        <v>939</v>
+      </c>
+      <c r="F227" t="s">
+        <v>952</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>976</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="D228" t="s">
+        <v>888</v>
+      </c>
+      <c r="E228" t="s">
+        <v>939</v>
+      </c>
+      <c r="F228" t="s">
+        <v>952</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>977</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D229" t="s">
+        <v>885</v>
+      </c>
+      <c r="E229" t="s">
+        <v>939</v>
+      </c>
+      <c r="F229" t="s">
+        <v>952</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>978</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D230" t="s">
+        <v>886</v>
+      </c>
+      <c r="E230" t="s">
+        <v>939</v>
+      </c>
+      <c r="F230" t="s">
+        <v>724</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>979</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D231" t="s">
+        <v>887</v>
+      </c>
+      <c r="E231" t="s">
+        <v>939</v>
+      </c>
+      <c r="F231" t="s">
+        <v>724</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>980</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D232" t="s">
+        <v>883</v>
+      </c>
+      <c r="E232" t="s">
+        <v>940</v>
+      </c>
+      <c r="F232" t="s">
+        <v>952</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>981</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D233" t="s">
+        <v>884</v>
+      </c>
+      <c r="E233" t="s">
+        <v>940</v>
+      </c>
+      <c r="F233" t="s">
+        <v>952</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>982</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D234" t="s">
+        <v>885</v>
+      </c>
+      <c r="E234" t="s">
+        <v>940</v>
+      </c>
+      <c r="F234" t="s">
+        <v>952</v>
+      </c>
+      <c r="G234" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>983</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D235" t="s">
+        <v>886</v>
+      </c>
+      <c r="E235" t="s">
+        <v>940</v>
+      </c>
+      <c r="F235" t="s">
+        <v>724</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>984</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D236" t="s">
+        <v>887</v>
+      </c>
+      <c r="E236" t="s">
+        <v>940</v>
+      </c>
+      <c r="F236" t="s">
+        <v>724</v>
+      </c>
+      <c r="G236" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>985</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D237" t="s">
+        <v>883</v>
+      </c>
+      <c r="E237" t="s">
+        <v>941</v>
+      </c>
+      <c r="F237" t="s">
+        <v>952</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>986</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D238" t="s">
+        <v>884</v>
+      </c>
+      <c r="E238" t="s">
+        <v>941</v>
+      </c>
+      <c r="F238" t="s">
+        <v>952</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>987</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D239" t="s">
+        <v>885</v>
+      </c>
+      <c r="E239" t="s">
+        <v>941</v>
+      </c>
+      <c r="F239" t="s">
+        <v>952</v>
+      </c>
+      <c r="G239" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>988</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D240" t="s">
+        <v>886</v>
+      </c>
+      <c r="E240" t="s">
+        <v>941</v>
+      </c>
+      <c r="F240" t="s">
+        <v>724</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>989</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D241" t="s">
+        <v>887</v>
+      </c>
+      <c r="E241" t="s">
+        <v>941</v>
+      </c>
+      <c r="F241" t="s">
+        <v>724</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>990</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D242" t="s">
+        <v>883</v>
+      </c>
+      <c r="E242" t="s">
+        <v>942</v>
+      </c>
+      <c r="F242" t="s">
+        <v>952</v>
+      </c>
+      <c r="G242" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>991</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D243" t="s">
+        <v>884</v>
+      </c>
+      <c r="E243" t="s">
+        <v>942</v>
+      </c>
+      <c r="F243" t="s">
+        <v>952</v>
+      </c>
+      <c r="G243" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>992</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D244" t="s">
+        <v>885</v>
+      </c>
+      <c r="E244" t="s">
+        <v>942</v>
+      </c>
+      <c r="F244" t="s">
+        <v>952</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>993</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D245" t="s">
+        <v>886</v>
+      </c>
+      <c r="E245" t="s">
+        <v>949</v>
+      </c>
+      <c r="F245" t="s">
+        <v>724</v>
+      </c>
+      <c r="G245" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>994</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D246" t="s">
+        <v>887</v>
+      </c>
+      <c r="E246" t="s">
+        <v>942</v>
+      </c>
+      <c r="F246" t="s">
+        <v>724</v>
+      </c>
+      <c r="G246" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>995</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D247" t="s">
+        <v>883</v>
+      </c>
+      <c r="E247" t="s">
+        <v>943</v>
+      </c>
+      <c r="F247" t="s">
+        <v>952</v>
+      </c>
+      <c r="G247" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>996</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D248" t="s">
+        <v>884</v>
+      </c>
+      <c r="E248" t="s">
+        <v>943</v>
+      </c>
+      <c r="F248" t="s">
+        <v>952</v>
+      </c>
+      <c r="G248" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>997</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D249" t="s">
+        <v>885</v>
+      </c>
+      <c r="E249" t="s">
+        <v>943</v>
+      </c>
+      <c r="F249" t="s">
+        <v>952</v>
+      </c>
+      <c r="G249" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>998</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D250" t="s">
+        <v>886</v>
+      </c>
+      <c r="E250" t="s">
+        <v>950</v>
+      </c>
+      <c r="F250" t="s">
+        <v>724</v>
+      </c>
+      <c r="G250" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>999</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D251" t="s">
+        <v>887</v>
+      </c>
+      <c r="E251" t="s">
+        <v>943</v>
+      </c>
+      <c r="F251" t="s">
+        <v>724</v>
+      </c>
+      <c r="G251" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D252" t="s">
+        <v>883</v>
+      </c>
+      <c r="E252" t="s">
+        <v>944</v>
+      </c>
+      <c r="F252" t="s">
+        <v>952</v>
+      </c>
+      <c r="G252" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D253" t="s">
+        <v>884</v>
+      </c>
+      <c r="E253" t="s">
+        <v>944</v>
+      </c>
+      <c r="F253" t="s">
+        <v>952</v>
+      </c>
+      <c r="G253" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D254" t="s">
+        <v>885</v>
+      </c>
+      <c r="E254" t="s">
+        <v>944</v>
+      </c>
+      <c r="F254" t="s">
+        <v>952</v>
+      </c>
+      <c r="G254" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D255" t="s">
+        <v>886</v>
+      </c>
+      <c r="E255" t="s">
+        <v>951</v>
+      </c>
+      <c r="F255" t="s">
+        <v>724</v>
+      </c>
+      <c r="G255" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D256" t="s">
+        <v>887</v>
+      </c>
+      <c r="E256" t="s">
+        <v>944</v>
+      </c>
+      <c r="F256" t="s">
+        <v>724</v>
+      </c>
+      <c r="G256" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D257" t="s">
+        <v>883</v>
+      </c>
+      <c r="E257" t="s">
+        <v>945</v>
+      </c>
+      <c r="F257" t="s">
+        <v>952</v>
+      </c>
+      <c r="G257" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D258" t="s">
+        <v>884</v>
+      </c>
+      <c r="E258" t="s">
+        <v>945</v>
+      </c>
+      <c r="F258" t="s">
+        <v>952</v>
+      </c>
+      <c r="G258" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D259" t="s">
+        <v>885</v>
+      </c>
+      <c r="E259" t="s">
+        <v>945</v>
+      </c>
+      <c r="F259" t="s">
+        <v>952</v>
+      </c>
+      <c r="G259" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D260" t="s">
+        <v>886</v>
+      </c>
+      <c r="E260" t="s">
+        <v>945</v>
+      </c>
+      <c r="F260" t="s">
+        <v>724</v>
+      </c>
+      <c r="G260" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D261" t="s">
+        <v>887</v>
+      </c>
+      <c r="E261" t="s">
+        <v>945</v>
+      </c>
+      <c r="F261" t="s">
+        <v>724</v>
+      </c>
+      <c r="G261" s="4" t="s">
         <v>835</v>
       </c>
     </row>
@@ -17978,7 +19942,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C5BFE-6C5D-49EF-B6DC-8FDF9610AF86}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18347,7 +20311,18 @@
         <v>740</v>
       </c>
       <c r="D39" t="s">
-        <v>913</v>
+        <v>911</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="10">
+        <v>45859</v>
+      </c>
+      <c r="C40" t="s">
+        <v>740</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1010</v>
       </c>
     </row>
   </sheetData>

--- a/InstrumentList_v1.1.xlsx
+++ b/InstrumentList_v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\MAQ-Observations.nl\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCAEB14-F99A-4DBD-B9FE-02508F759E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495FC12D-AD84-46FA-8F1B-D4CFE893802B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4777" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4785" uniqueCount="1015">
   <si>
     <t>Stream name</t>
   </si>
@@ -3766,6 +3766,18 @@
   </si>
   <si>
     <t>Amsterdam: Included all 23 stations of Distributed Network. Added Distributed Network as ADVANCED download package. Added Veenkampen and Amsterdam to ADVANCED Leaf Wetness package</t>
+  </si>
+  <si>
+    <t>DH_1_1_1</t>
+  </si>
+  <si>
+    <t>Distance sensor</t>
+  </si>
+  <si>
+    <t>Distance / Grass height</t>
+  </si>
+  <si>
+    <t>Added distance sensor Veenkampen</t>
   </si>
 </sst>
 </file>
@@ -4214,9 +4226,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603FFA7C-CA32-46E1-B5C1-AB3A403C245A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B209" sqref="B209"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8540,6 +8554,26 @@
         <v>728</v>
       </c>
       <c r="G214" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F215" t="s">
+        <v>724</v>
+      </c>
+      <c r="G215" t="s">
         <v>846</v>
       </c>
     </row>
@@ -19942,7 +19976,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C5BFE-6C5D-49EF-B6DC-8FDF9610AF86}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20325,6 +20359,17 @@
         <v>1010</v>
       </c>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="10">
+        <v>45859</v>
+      </c>
+      <c r="C41" t="s">
+        <v>740</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1014</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{4C6C8172-E3B1-4460-AE30-8C1A4FB4F619}"/>

--- a/InstrumentList_v1.1.xlsx
+++ b/InstrumentList_v1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\MAQ-Observations.nl\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495FC12D-AD84-46FA-8F1B-D4CFE893802B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B11E1E-DB7A-4835-9A3C-DA7EBC1B4F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Veenkampen" sheetId="1" r:id="rId1"/>
@@ -3171,9 +3171,6 @@
     <t>The data being measured is provided as Open Access data through https://maq-observations.nl/. This site is also part of the Ruisdael Observatory, a nationwide observatory for measurements of the atmosphere.</t>
   </si>
   <si>
-    <t>Please refer to our data license page: https://maq-observations.nl/maq-data-license/</t>
-  </si>
-  <si>
     <t>Lineage statement:</t>
   </si>
   <si>
@@ -3192,9 +3189,6 @@
     <t>Dataset end time:</t>
   </si>
   <si>
-    <t>https://creativecommons.org/licenses/by/4.0/</t>
-  </si>
-  <si>
     <t>License:</t>
   </si>
   <si>
@@ -3282,9 +3276,6 @@
     <t>2011-06-01 (Veenkampen); 2022-01-21 (Loobos); 2018-05-01 (Amsterdam)</t>
   </si>
   <si>
-    <t>Continuous, 10 minutes</t>
-  </si>
-  <si>
     <t>Datset temporal resolution:</t>
   </si>
   <si>
@@ -3778,6 +3769,15 @@
   </si>
   <si>
     <t>Added distance sensor Veenkampen</t>
+  </si>
+  <si>
+    <t>Continuous, every 10 minutes</t>
+  </si>
+  <si>
+    <t>Veenkampen + Loobos: CC-BY 4.0 https://creativecommons.org/licenses/by/4.0/; Amsterdam: CC-BY-NC 4.0 https://creativecommons.org/licenses/by-nc/4.0/</t>
+  </si>
+  <si>
+    <t>Please refer to our data license page for the most up-to-date terms and conditions: https://maq-observations.nl/maq-data-license/</t>
   </si>
 </sst>
 </file>
@@ -4228,13 +4228,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G215"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B209" sqref="B209"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
@@ -7676,7 +7674,7 @@
         <v>729</v>
       </c>
       <c r="G174" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -7696,7 +7694,7 @@
         <v>724</v>
       </c>
       <c r="G175" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -7716,7 +7714,7 @@
         <v>724</v>
       </c>
       <c r="G176" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -7736,7 +7734,7 @@
         <v>724</v>
       </c>
       <c r="G177" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -7756,7 +7754,7 @@
         <v>724</v>
       </c>
       <c r="G178" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -7776,7 +7774,7 @@
         <v>724</v>
       </c>
       <c r="G179" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -7796,7 +7794,7 @@
         <v>724</v>
       </c>
       <c r="G180" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -7816,7 +7814,7 @@
         <v>724</v>
       </c>
       <c r="G181" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -7836,7 +7834,7 @@
         <v>724</v>
       </c>
       <c r="G182" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -7856,7 +7854,7 @@
         <v>724</v>
       </c>
       <c r="G183" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -7876,7 +7874,7 @@
         <v>724</v>
       </c>
       <c r="G184" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -7896,7 +7894,7 @@
         <v>724</v>
       </c>
       <c r="G185" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -7916,7 +7914,7 @@
         <v>724</v>
       </c>
       <c r="G186" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -7936,7 +7934,7 @@
         <v>724</v>
       </c>
       <c r="G187" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -7956,7 +7954,7 @@
         <v>724</v>
       </c>
       <c r="G188" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -7979,7 +7977,7 @@
         <v>729</v>
       </c>
       <c r="G189" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8002,7 +8000,7 @@
         <v>729</v>
       </c>
       <c r="G190" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -8513,68 +8511,68 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D213" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="E213" t="s">
         <v>842</v>
-      </c>
-      <c r="E213" t="s">
-        <v>844</v>
       </c>
       <c r="F213" t="s">
         <v>728</v>
       </c>
       <c r="G213" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C214" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="D214" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="D214" s="4" t="s">
+      <c r="E214" t="s">
         <v>843</v>
-      </c>
-      <c r="E214" t="s">
-        <v>845</v>
       </c>
       <c r="F214" t="s">
         <v>728</v>
       </c>
       <c r="G214" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="F215" t="s">
         <v>724</v>
       </c>
       <c r="G215" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -8647,7 +8645,7 @@
         <v>731</v>
       </c>
       <c r="G4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8667,7 +8665,7 @@
         <v>726</v>
       </c>
       <c r="G5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8687,7 +8685,7 @@
         <v>726</v>
       </c>
       <c r="G6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8707,7 +8705,7 @@
         <v>726</v>
       </c>
       <c r="G7" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8727,7 +8725,7 @@
         <v>724</v>
       </c>
       <c r="G8" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8747,7 +8745,7 @@
         <v>724</v>
       </c>
       <c r="G9" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8767,7 +8765,7 @@
         <v>724</v>
       </c>
       <c r="G10" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -8787,7 +8785,7 @@
         <v>731</v>
       </c>
       <c r="G11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -8807,7 +8805,7 @@
         <v>731</v>
       </c>
       <c r="G12" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -8827,7 +8825,7 @@
         <v>724</v>
       </c>
       <c r="G13" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -8847,7 +8845,7 @@
         <v>724</v>
       </c>
       <c r="G14" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -8867,7 +8865,7 @@
         <v>724</v>
       </c>
       <c r="G15" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -8887,7 +8885,7 @@
         <v>724</v>
       </c>
       <c r="G16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -8907,7 +8905,7 @@
         <v>724</v>
       </c>
       <c r="G17" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -8927,7 +8925,7 @@
         <v>732</v>
       </c>
       <c r="G18" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -8947,7 +8945,7 @@
         <v>731</v>
       </c>
       <c r="G19" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8967,7 +8965,7 @@
         <v>731</v>
       </c>
       <c r="G20" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -8987,7 +8985,7 @@
         <v>724</v>
       </c>
       <c r="G21" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -9007,7 +9005,7 @@
         <v>724</v>
       </c>
       <c r="G22" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -9027,7 +9025,7 @@
         <v>724</v>
       </c>
       <c r="G23" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -9047,7 +9045,7 @@
         <v>724</v>
       </c>
       <c r="G24" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -9067,7 +9065,7 @@
         <v>731</v>
       </c>
       <c r="G25" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -9087,7 +9085,7 @@
         <v>724</v>
       </c>
       <c r="G26" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -9107,7 +9105,7 @@
         <v>724</v>
       </c>
       <c r="G27" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -9127,7 +9125,7 @@
         <v>724</v>
       </c>
       <c r="G28" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -9147,7 +9145,7 @@
         <v>724</v>
       </c>
       <c r="G29" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -13979,7 +13977,7 @@
         <v>489</v>
       </c>
       <c r="F276" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G276" t="s">
         <v>736</v>
@@ -13999,7 +13997,7 @@
         <v>490</v>
       </c>
       <c r="F277" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G277" t="s">
         <v>736</v>
@@ -14019,10 +14017,10 @@
         <v>488</v>
       </c>
       <c r="E278" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="F278" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G278" t="s">
         <v>736</v>
@@ -14042,7 +14040,7 @@
         <v>493</v>
       </c>
       <c r="F279" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G279" t="s">
         <v>736</v>
@@ -14062,7 +14060,7 @@
         <v>492</v>
       </c>
       <c r="F280" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G280" t="s">
         <v>736</v>
@@ -14082,7 +14080,7 @@
         <v>491</v>
       </c>
       <c r="F281" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G281" t="s">
         <v>736</v>
@@ -14102,7 +14100,7 @@
         <v>484</v>
       </c>
       <c r="F282" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G282" t="s">
         <v>736</v>
@@ -14122,7 +14120,7 @@
         <v>485</v>
       </c>
       <c r="F283" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G283" t="s">
         <v>736</v>
@@ -14142,7 +14140,7 @@
         <v>486</v>
       </c>
       <c r="F284" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G284" t="s">
         <v>736</v>
@@ -14162,7 +14160,7 @@
         <v>487</v>
       </c>
       <c r="F285" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G285" t="s">
         <v>736</v>
@@ -14345,7 +14343,7 @@
         <v>724</v>
       </c>
       <c r="G294" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -14365,7 +14363,7 @@
         <v>724</v>
       </c>
       <c r="G295" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -14385,7 +14383,7 @@
         <v>724</v>
       </c>
       <c r="G296" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -14405,7 +14403,7 @@
         <v>724</v>
       </c>
       <c r="G297" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -14424,7 +14422,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
@@ -17208,2762 +17206,2762 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D142" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E142" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="F142" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D143" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E143" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="F143" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D144" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E144" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F144" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D145" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E145" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F145" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D146" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E146" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F146" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D147" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E147" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F147" t="s">
         <v>724</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D148" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E148" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F148" t="s">
         <v>724</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D149" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E149" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F149" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D150" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E150" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F150" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D151" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E151" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F151" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D152" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E152" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F152" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D153" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E153" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F153" t="s">
         <v>724</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D154" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E154" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F154" t="s">
         <v>724</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D155" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E155" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="F155" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D156" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E156" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="F156" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D157" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E157" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="F157" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D158" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E158" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="F158" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D159" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E159" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="F159" t="s">
         <v>724</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D160" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E160" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="F160" t="s">
         <v>724</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D161" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E161" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F161" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D162" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E162" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F162" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D163" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E163" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F163" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D164" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E164" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F164" t="s">
         <v>724</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D165" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E165" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F165" t="s">
         <v>724</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D166" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E166" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="F166" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D167" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E167" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="F167" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D168" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E168" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="F168" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D169" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E169" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="F169" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D170" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E170" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="F170" t="s">
         <v>724</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D171" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E171" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="F171" t="s">
         <v>724</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D172" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E172" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="F172" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D173" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E173" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="F173" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D174" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E174" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="F174" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D175" t="s">
+        <v>883</v>
+      </c>
+      <c r="E175" t="s">
         <v>886</v>
       </c>
-      <c r="E175" t="s">
-        <v>889</v>
-      </c>
       <c r="F175" t="s">
         <v>724</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D176" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E176" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="F176" t="s">
         <v>724</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D177" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E177" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="F177" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D178" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E178" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="F178" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D179" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E179" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="F179" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D180" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E180" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="F180" t="s">
         <v>724</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D181" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E181" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="F181" t="s">
         <v>724</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E182" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="F182" t="s">
         <v>728</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C183" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="D183" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="D183" s="4" t="s">
-        <v>843</v>
-      </c>
       <c r="E183" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="F183" t="s">
         <v>728</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D184" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E184" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="F184" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D185" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E185" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="F185" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D186" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E186" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="F186" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D187" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E187" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="F187" t="s">
         <v>724</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D188" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E188" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="F188" t="s">
         <v>724</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D189" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E189" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="F189" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D190" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E190" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="F190" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D191" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E191" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="F191" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D192" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E192" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="F192" t="s">
         <v>724</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D193" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E193" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="F193" t="s">
         <v>724</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D194" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E194" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="F194" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D195" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E195" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="F195" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D196" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E196" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="F196" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D197" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E197" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="F197" t="s">
         <v>724</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D198" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E198" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="F198" t="s">
         <v>724</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D199" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E199" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="F199" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D200" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E200" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="F200" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D201" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E201" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="F201" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D202" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E202" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="F202" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D203" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E203" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="F203" t="s">
         <v>724</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D204" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E204" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="F204" t="s">
         <v>724</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D205" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E205" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="F205" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D206" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E206" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="F206" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D207" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E207" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="F207" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D208" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E208" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="F208" t="s">
         <v>724</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D209" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E209" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="F209" t="s">
         <v>724</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D210" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E210" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F210" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D211" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E211" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F211" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D212" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E212" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F212" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D213" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E213" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="F213" t="s">
         <v>724</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D214" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E214" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F214" t="s">
         <v>724</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D215" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E215" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F215" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D216" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E216" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F216" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D217" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E217" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F217" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D218" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E218" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F218" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D219" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E219" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="F219" t="s">
         <v>724</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D220" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E220" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F220" t="s">
         <v>724</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D221" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E221" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F221" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D222" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E222" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F222" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D223" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E223" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F223" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D224" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E224" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="F224" t="s">
         <v>724</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D225" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E225" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F225" t="s">
         <v>724</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D226" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E226" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F226" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D227" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E227" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F227" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D228" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E228" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F228" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D229" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E229" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F229" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D230" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E230" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F230" t="s">
         <v>724</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D231" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E231" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F231" t="s">
         <v>724</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D232" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E232" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F232" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D233" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E233" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F233" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D234" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E234" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F234" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D235" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E235" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F235" t="s">
         <v>724</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D236" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E236" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F236" t="s">
         <v>724</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D237" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E237" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F237" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D238" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E238" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F238" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D239" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E239" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F239" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D240" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E240" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F240" t="s">
         <v>724</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D241" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E241" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F241" t="s">
         <v>724</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D242" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E242" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="F242" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D243" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E243" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="F243" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D244" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E244" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="F244" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D245" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E245" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="F245" t="s">
         <v>724</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D246" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E246" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="F246" t="s">
         <v>724</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D247" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E247" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F247" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D248" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E248" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F248" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D249" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E249" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F249" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D250" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E250" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="F250" t="s">
         <v>724</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D251" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E251" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F251" t="s">
         <v>724</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D252" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E252" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F252" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D253" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E253" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F253" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D254" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E254" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F254" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D255" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E255" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="F255" t="s">
         <v>724</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D256" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E256" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F256" t="s">
         <v>724</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D257" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E257" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="F257" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D258" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E258" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="F258" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D259" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E259" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="F259" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D260" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E260" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="F260" t="s">
         <v>724</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D261" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E261" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="F261" t="s">
         <v>724</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -20055,7 +20053,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B12" t="s">
         <v>810</v>
@@ -20063,7 +20061,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B13" t="s">
         <v>811</v>
@@ -20071,58 +20069,58 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B14" t="s">
-        <v>812</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B16" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B17" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B18" t="s">
-        <v>849</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B19" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B20" t="s">
-        <v>819</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -20252,7 +20250,7 @@
         <v>740</v>
       </c>
       <c r="D31" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -20276,7 +20274,7 @@
         <v>740</v>
       </c>
       <c r="D33" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -20288,7 +20286,7 @@
         <v>740</v>
       </c>
       <c r="D34" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -20300,7 +20298,7 @@
         <v>740</v>
       </c>
       <c r="D35" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -20312,7 +20310,7 @@
         <v>740</v>
       </c>
       <c r="D36" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -20323,7 +20321,7 @@
         <v>740</v>
       </c>
       <c r="D37" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -20334,7 +20332,7 @@
         <v>740</v>
       </c>
       <c r="D38" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -20345,7 +20343,7 @@
         <v>740</v>
       </c>
       <c r="D39" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -20356,7 +20354,7 @@
         <v>740</v>
       </c>
       <c r="D40" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -20367,7 +20365,7 @@
         <v>740</v>
       </c>
       <c r="D41" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
   </sheetData>

--- a/InstrumentList_v1.1.xlsx
+++ b/InstrumentList_v1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\MAQ-Observations.nl\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B11E1E-DB7A-4835-9A3C-DA7EBC1B4F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBB90D3-DB56-414E-8DA9-D870E20C7C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
+    <workbookView xWindow="54495" yWindow="-6525" windowWidth="26010" windowHeight="20985" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Veenkampen" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4785" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4794" uniqueCount="1023">
   <si>
     <t>Stream name</t>
   </si>
@@ -3273,9 +3273,6 @@
     <t>Updated Veenkampen with Leaf Wetness Sensor from IoT</t>
   </si>
   <si>
-    <t>2011-06-01 (Veenkampen); 2022-01-21 (Loobos); 2018-05-01 (Amsterdam)</t>
-  </si>
-  <si>
     <t>Datset temporal resolution:</t>
   </si>
   <si>
@@ -3774,10 +3771,37 @@
     <t>Continuous, every 10 minutes</t>
   </si>
   <si>
-    <t>Veenkampen + Loobos: CC-BY 4.0 https://creativecommons.org/licenses/by/4.0/; Amsterdam: CC-BY-NC 4.0 https://creativecommons.org/licenses/by-nc/4.0/</t>
-  </si>
-  <si>
     <t>Please refer to our data license page for the most up-to-date terms and conditions: https://maq-observations.nl/maq-data-license/</t>
+  </si>
+  <si>
+    <t>2022-01-21 (Loobos)</t>
+  </si>
+  <si>
+    <t>2011-06-01 (Veenkampen)</t>
+  </si>
+  <si>
+    <t>2018-05-01 (Amsterdam)</t>
+  </si>
+  <si>
+    <t>Location of collected data:</t>
+  </si>
+  <si>
+    <t>51.981378 N, 5.621481 E (Veenkampen)</t>
+  </si>
+  <si>
+    <t>52.166446 N, 5.743575 E (Loobos)</t>
+  </si>
+  <si>
+    <t>CC-BY 4.0 https://creativecommons.org/licenses/by/4.0/ (Veenkampen + Loobos)</t>
+  </si>
+  <si>
+    <t>CC-BY-NC 4.0 https://creativecommons.org/licenses/by-nc/4.0/ (Amsterdam)</t>
+  </si>
+  <si>
+    <t>52.366574 N, 4.892917 E (Amsterdam, unless otherwise specified; e.g. distributed network)</t>
+  </si>
+  <si>
+    <t>Added location  of collected data + split up lines for clarity</t>
   </si>
 </sst>
 </file>
@@ -8557,16 +8581,16 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C215" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D215" s="4" t="s">
         <v>1009</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>1010</v>
       </c>
       <c r="F215" t="s">
         <v>724</v>
@@ -13977,7 +14001,7 @@
         <v>489</v>
       </c>
       <c r="F276" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G276" t="s">
         <v>736</v>
@@ -13997,7 +14021,7 @@
         <v>490</v>
       </c>
       <c r="F277" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G277" t="s">
         <v>736</v>
@@ -14017,10 +14041,10 @@
         <v>488</v>
       </c>
       <c r="E278" t="s">
+        <v>908</v>
+      </c>
+      <c r="F278" t="s">
         <v>909</v>
-      </c>
-      <c r="F278" t="s">
-        <v>910</v>
       </c>
       <c r="G278" t="s">
         <v>736</v>
@@ -14040,7 +14064,7 @@
         <v>493</v>
       </c>
       <c r="F279" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G279" t="s">
         <v>736</v>
@@ -14060,7 +14084,7 @@
         <v>492</v>
       </c>
       <c r="F280" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G280" t="s">
         <v>736</v>
@@ -14080,7 +14104,7 @@
         <v>491</v>
       </c>
       <c r="F281" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G281" t="s">
         <v>736</v>
@@ -14100,7 +14124,7 @@
         <v>484</v>
       </c>
       <c r="F282" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G282" t="s">
         <v>736</v>
@@ -14120,7 +14144,7 @@
         <v>485</v>
       </c>
       <c r="F283" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G283" t="s">
         <v>736</v>
@@ -14140,7 +14164,7 @@
         <v>486</v>
       </c>
       <c r="F284" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G284" t="s">
         <v>736</v>
@@ -14160,7 +14184,7 @@
         <v>487</v>
       </c>
       <c r="F285" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G285" t="s">
         <v>736</v>
@@ -17215,13 +17239,13 @@
         <v>835</v>
       </c>
       <c r="D142" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E142" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F142" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>833</v>
@@ -17238,13 +17262,13 @@
         <v>835</v>
       </c>
       <c r="D143" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E143" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F143" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>833</v>
@@ -17261,13 +17285,13 @@
         <v>835</v>
       </c>
       <c r="D144" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E144" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F144" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>833</v>
@@ -17284,13 +17308,13 @@
         <v>835</v>
       </c>
       <c r="D145" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E145" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F145" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>833</v>
@@ -17307,13 +17331,13 @@
         <v>836</v>
       </c>
       <c r="D146" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E146" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F146" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>833</v>
@@ -17330,10 +17354,10 @@
         <v>836</v>
       </c>
       <c r="D147" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E147" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F147" t="s">
         <v>724</v>
@@ -17353,10 +17377,10 @@
         <v>836</v>
       </c>
       <c r="D148" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E148" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F148" t="s">
         <v>724</v>
@@ -17367,7 +17391,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>347</v>
@@ -17376,13 +17400,13 @@
         <v>835</v>
       </c>
       <c r="D149" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E149" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F149" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>833</v>
@@ -17390,7 +17414,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>347</v>
@@ -17399,13 +17423,13 @@
         <v>835</v>
       </c>
       <c r="D150" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E150" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F150" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>833</v>
@@ -17413,22 +17437,22 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D151" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E151" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F151" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>833</v>
@@ -17436,7 +17460,7 @@
     </row>
     <row r="152" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>361</v>
@@ -17445,13 +17469,13 @@
         <v>836</v>
       </c>
       <c r="D152" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E152" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F152" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>833</v>
@@ -17459,7 +17483,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>354</v>
@@ -17468,10 +17492,10 @@
         <v>836</v>
       </c>
       <c r="D153" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E153" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F153" t="s">
         <v>724</v>
@@ -17482,7 +17506,7 @@
     </row>
     <row r="154" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>361</v>
@@ -17491,10 +17515,10 @@
         <v>836</v>
       </c>
       <c r="D154" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E154" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F154" t="s">
         <v>724</v>
@@ -17505,22 +17529,22 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D155" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E155" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F155" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>833</v>
@@ -17528,7 +17552,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>347</v>
@@ -17537,13 +17561,13 @@
         <v>835</v>
       </c>
       <c r="D156" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E156" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F156" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>833</v>
@@ -17551,7 +17575,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>348</v>
@@ -17560,13 +17584,13 @@
         <v>835</v>
       </c>
       <c r="D157" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E157" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F157" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>833</v>
@@ -17574,7 +17598,7 @@
     </row>
     <row r="158" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>361</v>
@@ -17583,13 +17607,13 @@
         <v>836</v>
       </c>
       <c r="D158" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E158" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F158" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>833</v>
@@ -17597,7 +17621,7 @@
     </row>
     <row r="159" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>361</v>
@@ -17606,10 +17630,10 @@
         <v>836</v>
       </c>
       <c r="D159" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E159" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F159" t="s">
         <v>724</v>
@@ -17620,7 +17644,7 @@
     </row>
     <row r="160" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>361</v>
@@ -17629,10 +17653,10 @@
         <v>836</v>
       </c>
       <c r="D160" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E160" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F160" t="s">
         <v>724</v>
@@ -17643,7 +17667,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>347</v>
@@ -17652,13 +17676,13 @@
         <v>835</v>
       </c>
       <c r="D161" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E161" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F161" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>833</v>
@@ -17666,7 +17690,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>348</v>
@@ -17675,13 +17699,13 @@
         <v>835</v>
       </c>
       <c r="D162" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E162" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F162" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>833</v>
@@ -17689,7 +17713,7 @@
     </row>
     <row r="163" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>361</v>
@@ -17698,13 +17722,13 @@
         <v>836</v>
       </c>
       <c r="D163" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E163" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F163" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>833</v>
@@ -17712,7 +17736,7 @@
     </row>
     <row r="164" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>361</v>
@@ -17721,10 +17745,10 @@
         <v>836</v>
       </c>
       <c r="D164" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E164" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F164" t="s">
         <v>724</v>
@@ -17735,7 +17759,7 @@
     </row>
     <row r="165" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>361</v>
@@ -17744,10 +17768,10 @@
         <v>836</v>
       </c>
       <c r="D165" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E165" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F165" t="s">
         <v>724</v>
@@ -17758,7 +17782,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>347</v>
@@ -17767,13 +17791,13 @@
         <v>835</v>
       </c>
       <c r="D166" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E166" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F166" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>833</v>
@@ -17781,7 +17805,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>348</v>
@@ -17790,13 +17814,13 @@
         <v>835</v>
       </c>
       <c r="D167" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E167" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F167" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>833</v>
@@ -17804,22 +17828,22 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D168" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E168" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F168" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>833</v>
@@ -17827,7 +17851,7 @@
     </row>
     <row r="169" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>361</v>
@@ -17836,13 +17860,13 @@
         <v>836</v>
       </c>
       <c r="D169" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E169" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F169" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>833</v>
@@ -17850,7 +17874,7 @@
     </row>
     <row r="170" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>361</v>
@@ -17859,10 +17883,10 @@
         <v>836</v>
       </c>
       <c r="D170" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E170" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F170" t="s">
         <v>724</v>
@@ -17873,7 +17897,7 @@
     </row>
     <row r="171" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>361</v>
@@ -17882,10 +17906,10 @@
         <v>836</v>
       </c>
       <c r="D171" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E171" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F171" t="s">
         <v>724</v>
@@ -17896,7 +17920,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>347</v>
@@ -17905,13 +17929,13 @@
         <v>835</v>
       </c>
       <c r="D172" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E172" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F172" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>833</v>
@@ -17919,7 +17943,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>348</v>
@@ -17928,13 +17952,13 @@
         <v>835</v>
       </c>
       <c r="D173" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E173" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F173" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>833</v>
@@ -17942,7 +17966,7 @@
     </row>
     <row r="174" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>361</v>
@@ -17951,13 +17975,13 @@
         <v>836</v>
       </c>
       <c r="D174" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E174" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F174" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>833</v>
@@ -17965,7 +17989,7 @@
     </row>
     <row r="175" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>361</v>
@@ -17974,10 +17998,10 @@
         <v>836</v>
       </c>
       <c r="D175" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E175" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F175" t="s">
         <v>724</v>
@@ -17988,7 +18012,7 @@
     </row>
     <row r="176" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>361</v>
@@ -17997,10 +18021,10 @@
         <v>836</v>
       </c>
       <c r="D176" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E176" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F176" t="s">
         <v>724</v>
@@ -18011,7 +18035,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>347</v>
@@ -18020,13 +18044,13 @@
         <v>835</v>
       </c>
       <c r="D177" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E177" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F177" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>833</v>
@@ -18034,7 +18058,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>348</v>
@@ -18043,13 +18067,13 @@
         <v>835</v>
       </c>
       <c r="D178" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E178" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F178" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>833</v>
@@ -18057,7 +18081,7 @@
     </row>
     <row r="179" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>361</v>
@@ -18066,13 +18090,13 @@
         <v>836</v>
       </c>
       <c r="D179" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E179" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F179" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>833</v>
@@ -18080,7 +18104,7 @@
     </row>
     <row r="180" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>361</v>
@@ -18089,10 +18113,10 @@
         <v>836</v>
       </c>
       <c r="D180" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E180" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F180" t="s">
         <v>724</v>
@@ -18103,7 +18127,7 @@
     </row>
     <row r="181" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>361</v>
@@ -18112,10 +18136,10 @@
         <v>836</v>
       </c>
       <c r="D181" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E181" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F181" t="s">
         <v>724</v>
@@ -18126,7 +18150,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>348</v>
@@ -18138,7 +18162,7 @@
         <v>840</v>
       </c>
       <c r="E182" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F182" t="s">
         <v>728</v>
@@ -18149,7 +18173,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>347</v>
@@ -18161,7 +18185,7 @@
         <v>841</v>
       </c>
       <c r="E183" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F183" t="s">
         <v>728</v>
@@ -18172,7 +18196,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>347</v>
@@ -18181,13 +18205,13 @@
         <v>835</v>
       </c>
       <c r="D184" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E184" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F184" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>833</v>
@@ -18195,7 +18219,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>348</v>
@@ -18204,13 +18228,13 @@
         <v>835</v>
       </c>
       <c r="D185" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E185" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F185" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>833</v>
@@ -18218,7 +18242,7 @@
     </row>
     <row r="186" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>361</v>
@@ -18227,13 +18251,13 @@
         <v>836</v>
       </c>
       <c r="D186" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E186" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F186" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>833</v>
@@ -18241,7 +18265,7 @@
     </row>
     <row r="187" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>361</v>
@@ -18250,10 +18274,10 @@
         <v>836</v>
       </c>
       <c r="D187" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E187" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F187" t="s">
         <v>724</v>
@@ -18264,7 +18288,7 @@
     </row>
     <row r="188" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>361</v>
@@ -18273,10 +18297,10 @@
         <v>836</v>
       </c>
       <c r="D188" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E188" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F188" t="s">
         <v>724</v>
@@ -18287,7 +18311,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>347</v>
@@ -18296,13 +18320,13 @@
         <v>835</v>
       </c>
       <c r="D189" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E189" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F189" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>833</v>
@@ -18310,7 +18334,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>348</v>
@@ -18319,13 +18343,13 @@
         <v>835</v>
       </c>
       <c r="D190" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E190" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F190" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>833</v>
@@ -18333,7 +18357,7 @@
     </row>
     <row r="191" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>361</v>
@@ -18342,13 +18366,13 @@
         <v>836</v>
       </c>
       <c r="D191" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E191" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F191" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>833</v>
@@ -18356,7 +18380,7 @@
     </row>
     <row r="192" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>361</v>
@@ -18365,10 +18389,10 @@
         <v>836</v>
       </c>
       <c r="D192" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E192" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F192" t="s">
         <v>724</v>
@@ -18379,7 +18403,7 @@
     </row>
     <row r="193" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>361</v>
@@ -18388,10 +18412,10 @@
         <v>836</v>
       </c>
       <c r="D193" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E193" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F193" t="s">
         <v>724</v>
@@ -18402,7 +18426,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>347</v>
@@ -18411,13 +18435,13 @@
         <v>835</v>
       </c>
       <c r="D194" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E194" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F194" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>833</v>
@@ -18425,7 +18449,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>348</v>
@@ -18434,13 +18458,13 @@
         <v>835</v>
       </c>
       <c r="D195" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E195" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F195" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>833</v>
@@ -18448,7 +18472,7 @@
     </row>
     <row r="196" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>361</v>
@@ -18457,13 +18481,13 @@
         <v>836</v>
       </c>
       <c r="D196" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E196" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F196" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>833</v>
@@ -18471,7 +18495,7 @@
     </row>
     <row r="197" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>361</v>
@@ -18480,10 +18504,10 @@
         <v>836</v>
       </c>
       <c r="D197" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E197" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F197" t="s">
         <v>724</v>
@@ -18494,7 +18518,7 @@
     </row>
     <row r="198" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>361</v>
@@ -18503,10 +18527,10 @@
         <v>836</v>
       </c>
       <c r="D198" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E198" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F198" t="s">
         <v>724</v>
@@ -18517,7 +18541,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>347</v>
@@ -18526,13 +18550,13 @@
         <v>835</v>
       </c>
       <c r="D199" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E199" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F199" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>833</v>
@@ -18540,7 +18564,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>348</v>
@@ -18549,13 +18573,13 @@
         <v>835</v>
       </c>
       <c r="D200" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E200" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F200" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>833</v>
@@ -18563,22 +18587,22 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D201" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E201" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F201" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>833</v>
@@ -18586,7 +18610,7 @@
     </row>
     <row r="202" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>361</v>
@@ -18595,13 +18619,13 @@
         <v>836</v>
       </c>
       <c r="D202" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E202" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F202" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G202" s="4" t="s">
         <v>833</v>
@@ -18609,7 +18633,7 @@
     </row>
     <row r="203" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>361</v>
@@ -18618,10 +18642,10 @@
         <v>836</v>
       </c>
       <c r="D203" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E203" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F203" t="s">
         <v>724</v>
@@ -18632,7 +18656,7 @@
     </row>
     <row r="204" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>361</v>
@@ -18641,10 +18665,10 @@
         <v>836</v>
       </c>
       <c r="D204" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E204" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F204" t="s">
         <v>724</v>
@@ -18655,7 +18679,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>347</v>
@@ -18664,13 +18688,13 @@
         <v>835</v>
       </c>
       <c r="D205" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E205" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F205" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G205" s="4" t="s">
         <v>833</v>
@@ -18678,7 +18702,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>348</v>
@@ -18687,13 +18711,13 @@
         <v>835</v>
       </c>
       <c r="D206" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E206" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F206" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G206" s="4" t="s">
         <v>833</v>
@@ -18701,7 +18725,7 @@
     </row>
     <row r="207" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>361</v>
@@ -18710,13 +18734,13 @@
         <v>836</v>
       </c>
       <c r="D207" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E207" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F207" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G207" s="4" t="s">
         <v>833</v>
@@ -18724,7 +18748,7 @@
     </row>
     <row r="208" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>361</v>
@@ -18733,10 +18757,10 @@
         <v>836</v>
       </c>
       <c r="D208" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E208" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F208" t="s">
         <v>724</v>
@@ -18747,7 +18771,7 @@
     </row>
     <row r="209" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>361</v>
@@ -18756,10 +18780,10 @@
         <v>836</v>
       </c>
       <c r="D209" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E209" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F209" t="s">
         <v>724</v>
@@ -18770,7 +18794,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>347</v>
@@ -18779,13 +18803,13 @@
         <v>835</v>
       </c>
       <c r="D210" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E210" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F210" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G210" s="4" t="s">
         <v>833</v>
@@ -18793,7 +18817,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>348</v>
@@ -18802,13 +18826,13 @@
         <v>835</v>
       </c>
       <c r="D211" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E211" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F211" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G211" s="4" t="s">
         <v>833</v>
@@ -18816,7 +18840,7 @@
     </row>
     <row r="212" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>361</v>
@@ -18825,13 +18849,13 @@
         <v>836</v>
       </c>
       <c r="D212" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E212" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F212" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G212" s="4" t="s">
         <v>833</v>
@@ -18839,7 +18863,7 @@
     </row>
     <row r="213" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>361</v>
@@ -18848,10 +18872,10 @@
         <v>836</v>
       </c>
       <c r="D213" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E213" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F213" t="s">
         <v>724</v>
@@ -18862,7 +18886,7 @@
     </row>
     <row r="214" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>361</v>
@@ -18871,10 +18895,10 @@
         <v>836</v>
       </c>
       <c r="D214" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E214" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F214" t="s">
         <v>724</v>
@@ -18885,7 +18909,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>347</v>
@@ -18894,13 +18918,13 @@
         <v>835</v>
       </c>
       <c r="D215" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E215" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F215" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G215" s="4" t="s">
         <v>833</v>
@@ -18908,7 +18932,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>348</v>
@@ -18917,13 +18941,13 @@
         <v>835</v>
       </c>
       <c r="D216" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E216" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F216" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G216" s="4" t="s">
         <v>833</v>
@@ -18931,22 +18955,22 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D217" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E217" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F217" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G217" s="4" t="s">
         <v>833</v>
@@ -18954,7 +18978,7 @@
     </row>
     <row r="218" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>361</v>
@@ -18963,13 +18987,13 @@
         <v>836</v>
       </c>
       <c r="D218" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E218" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F218" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G218" s="4" t="s">
         <v>833</v>
@@ -18977,7 +19001,7 @@
     </row>
     <row r="219" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>361</v>
@@ -18986,10 +19010,10 @@
         <v>836</v>
       </c>
       <c r="D219" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E219" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F219" t="s">
         <v>724</v>
@@ -19000,7 +19024,7 @@
     </row>
     <row r="220" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>361</v>
@@ -19009,10 +19033,10 @@
         <v>836</v>
       </c>
       <c r="D220" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E220" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F220" t="s">
         <v>724</v>
@@ -19023,7 +19047,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>347</v>
@@ -19032,13 +19056,13 @@
         <v>835</v>
       </c>
       <c r="D221" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E221" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F221" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G221" s="4" t="s">
         <v>833</v>
@@ -19046,7 +19070,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>348</v>
@@ -19055,13 +19079,13 @@
         <v>835</v>
       </c>
       <c r="D222" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E222" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F222" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G222" s="4" t="s">
         <v>833</v>
@@ -19069,7 +19093,7 @@
     </row>
     <row r="223" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>361</v>
@@ -19078,13 +19102,13 @@
         <v>836</v>
       </c>
       <c r="D223" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E223" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F223" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G223" s="4" t="s">
         <v>833</v>
@@ -19092,7 +19116,7 @@
     </row>
     <row r="224" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>361</v>
@@ -19101,10 +19125,10 @@
         <v>836</v>
       </c>
       <c r="D224" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E224" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F224" t="s">
         <v>724</v>
@@ -19115,7 +19139,7 @@
     </row>
     <row r="225" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>361</v>
@@ -19124,10 +19148,10 @@
         <v>836</v>
       </c>
       <c r="D225" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E225" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F225" t="s">
         <v>724</v>
@@ -19138,7 +19162,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>347</v>
@@ -19147,13 +19171,13 @@
         <v>835</v>
       </c>
       <c r="D226" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E226" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F226" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G226" s="4" t="s">
         <v>833</v>
@@ -19161,7 +19185,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>348</v>
@@ -19170,13 +19194,13 @@
         <v>835</v>
       </c>
       <c r="D227" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E227" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F227" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G227" s="4" t="s">
         <v>833</v>
@@ -19184,22 +19208,22 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D228" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E228" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F228" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G228" s="4" t="s">
         <v>833</v>
@@ -19207,7 +19231,7 @@
     </row>
     <row r="229" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>361</v>
@@ -19216,13 +19240,13 @@
         <v>836</v>
       </c>
       <c r="D229" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E229" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F229" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G229" s="4" t="s">
         <v>833</v>
@@ -19230,7 +19254,7 @@
     </row>
     <row r="230" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>361</v>
@@ -19239,10 +19263,10 @@
         <v>836</v>
       </c>
       <c r="D230" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E230" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F230" t="s">
         <v>724</v>
@@ -19253,7 +19277,7 @@
     </row>
     <row r="231" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>361</v>
@@ -19262,10 +19286,10 @@
         <v>836</v>
       </c>
       <c r="D231" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E231" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F231" t="s">
         <v>724</v>
@@ -19276,7 +19300,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>347</v>
@@ -19285,13 +19309,13 @@
         <v>835</v>
       </c>
       <c r="D232" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E232" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F232" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G232" s="4" t="s">
         <v>833</v>
@@ -19299,7 +19323,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>348</v>
@@ -19308,13 +19332,13 @@
         <v>835</v>
       </c>
       <c r="D233" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E233" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F233" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G233" s="4" t="s">
         <v>833</v>
@@ -19322,7 +19346,7 @@
     </row>
     <row r="234" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>361</v>
@@ -19331,13 +19355,13 @@
         <v>836</v>
       </c>
       <c r="D234" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E234" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F234" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G234" s="4" t="s">
         <v>833</v>
@@ -19345,7 +19369,7 @@
     </row>
     <row r="235" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>361</v>
@@ -19354,10 +19378,10 @@
         <v>836</v>
       </c>
       <c r="D235" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E235" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F235" t="s">
         <v>724</v>
@@ -19368,7 +19392,7 @@
     </row>
     <row r="236" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>361</v>
@@ -19377,10 +19401,10 @@
         <v>836</v>
       </c>
       <c r="D236" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E236" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F236" t="s">
         <v>724</v>
@@ -19391,7 +19415,7 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>347</v>
@@ -19400,13 +19424,13 @@
         <v>835</v>
       </c>
       <c r="D237" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E237" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F237" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G237" s="4" t="s">
         <v>833</v>
@@ -19414,7 +19438,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>348</v>
@@ -19423,13 +19447,13 @@
         <v>835</v>
       </c>
       <c r="D238" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E238" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F238" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G238" s="4" t="s">
         <v>833</v>
@@ -19437,7 +19461,7 @@
     </row>
     <row r="239" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>361</v>
@@ -19446,13 +19470,13 @@
         <v>836</v>
       </c>
       <c r="D239" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E239" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F239" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G239" s="4" t="s">
         <v>833</v>
@@ -19460,7 +19484,7 @@
     </row>
     <row r="240" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>361</v>
@@ -19469,10 +19493,10 @@
         <v>836</v>
       </c>
       <c r="D240" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E240" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F240" t="s">
         <v>724</v>
@@ -19483,7 +19507,7 @@
     </row>
     <row r="241" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>361</v>
@@ -19492,10 +19516,10 @@
         <v>836</v>
       </c>
       <c r="D241" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E241" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F241" t="s">
         <v>724</v>
@@ -19506,7 +19530,7 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>347</v>
@@ -19515,13 +19539,13 @@
         <v>835</v>
       </c>
       <c r="D242" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E242" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F242" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G242" s="4" t="s">
         <v>833</v>
@@ -19529,7 +19553,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>348</v>
@@ -19538,13 +19562,13 @@
         <v>835</v>
       </c>
       <c r="D243" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E243" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F243" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G243" s="4" t="s">
         <v>833</v>
@@ -19552,7 +19576,7 @@
     </row>
     <row r="244" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>361</v>
@@ -19561,13 +19585,13 @@
         <v>836</v>
       </c>
       <c r="D244" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E244" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F244" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G244" s="4" t="s">
         <v>833</v>
@@ -19575,7 +19599,7 @@
     </row>
     <row r="245" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>361</v>
@@ -19584,10 +19608,10 @@
         <v>836</v>
       </c>
       <c r="D245" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E245" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F245" t="s">
         <v>724</v>
@@ -19598,7 +19622,7 @@
     </row>
     <row r="246" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>361</v>
@@ -19607,10 +19631,10 @@
         <v>836</v>
       </c>
       <c r="D246" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E246" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F246" t="s">
         <v>724</v>
@@ -19621,7 +19645,7 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>347</v>
@@ -19630,13 +19654,13 @@
         <v>835</v>
       </c>
       <c r="D247" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E247" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F247" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G247" s="4" t="s">
         <v>833</v>
@@ -19644,7 +19668,7 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>348</v>
@@ -19653,13 +19677,13 @@
         <v>835</v>
       </c>
       <c r="D248" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E248" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F248" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G248" s="4" t="s">
         <v>833</v>
@@ -19667,7 +19691,7 @@
     </row>
     <row r="249" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>361</v>
@@ -19676,13 +19700,13 @@
         <v>836</v>
       </c>
       <c r="D249" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E249" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F249" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G249" s="4" t="s">
         <v>833</v>
@@ -19690,7 +19714,7 @@
     </row>
     <row r="250" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>361</v>
@@ -19699,10 +19723,10 @@
         <v>836</v>
       </c>
       <c r="D250" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E250" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F250" t="s">
         <v>724</v>
@@ -19713,7 +19737,7 @@
     </row>
     <row r="251" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>361</v>
@@ -19722,10 +19746,10 @@
         <v>836</v>
       </c>
       <c r="D251" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E251" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F251" t="s">
         <v>724</v>
@@ -19736,7 +19760,7 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>347</v>
@@ -19745,13 +19769,13 @@
         <v>835</v>
       </c>
       <c r="D252" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E252" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F252" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G252" s="4" t="s">
         <v>833</v>
@@ -19759,7 +19783,7 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>348</v>
@@ -19768,13 +19792,13 @@
         <v>835</v>
       </c>
       <c r="D253" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E253" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F253" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G253" s="4" t="s">
         <v>833</v>
@@ -19782,7 +19806,7 @@
     </row>
     <row r="254" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>361</v>
@@ -19791,13 +19815,13 @@
         <v>836</v>
       </c>
       <c r="D254" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E254" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F254" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G254" s="4" t="s">
         <v>833</v>
@@ -19805,7 +19829,7 @@
     </row>
     <row r="255" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>361</v>
@@ -19814,10 +19838,10 @@
         <v>836</v>
       </c>
       <c r="D255" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E255" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F255" t="s">
         <v>724</v>
@@ -19828,7 +19852,7 @@
     </row>
     <row r="256" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>361</v>
@@ -19837,10 +19861,10 @@
         <v>836</v>
       </c>
       <c r="D256" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E256" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F256" t="s">
         <v>724</v>
@@ -19851,7 +19875,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>347</v>
@@ -19860,13 +19884,13 @@
         <v>835</v>
       </c>
       <c r="D257" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E257" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F257" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G257" s="4" t="s">
         <v>833</v>
@@ -19874,7 +19898,7 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>348</v>
@@ -19883,13 +19907,13 @@
         <v>835</v>
       </c>
       <c r="D258" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E258" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F258" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G258" s="4" t="s">
         <v>833</v>
@@ -19897,7 +19921,7 @@
     </row>
     <row r="259" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>361</v>
@@ -19906,13 +19930,13 @@
         <v>836</v>
       </c>
       <c r="D259" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E259" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F259" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G259" s="4" t="s">
         <v>833</v>
@@ -19920,7 +19944,7 @@
     </row>
     <row r="260" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>361</v>
@@ -19929,10 +19953,10 @@
         <v>836</v>
       </c>
       <c r="D260" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E260" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F260" t="s">
         <v>724</v>
@@ -19943,7 +19967,7 @@
     </row>
     <row r="261" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>361</v>
@@ -19952,10 +19976,10 @@
         <v>836</v>
       </c>
       <c r="D261" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E261" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F261" t="s">
         <v>724</v>
@@ -19974,7 +19998,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C5BFE-6C5D-49EF-B6DC-8FDF9610AF86}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20072,7 +20096,7 @@
         <v>814</v>
       </c>
       <c r="B14" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -20080,292 +20104,341 @@
         <v>816</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>846</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="B16" t="s">
-        <v>815</v>
+      <c r="A16" s="1"/>
+      <c r="B16" s="11" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B17" t="s">
-        <v>848</v>
+      <c r="A17" s="1"/>
+      <c r="B17" s="11" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B18" t="s">
-        <v>1012</v>
+        <v>815</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>820</v>
+        <v>846</v>
       </c>
       <c r="B19" t="s">
-        <v>821</v>
+        <v>847</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B20" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="B21" s="10">
-        <v>45245</v>
+        <v>1016</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="B22" s="10">
-        <v>45250</v>
-      </c>
-      <c r="C22" t="s">
-        <v>740</v>
-      </c>
-      <c r="D22" t="s">
-        <v>749</v>
+      <c r="A22" s="1"/>
+      <c r="B22" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="10">
-        <v>45261</v>
-      </c>
-      <c r="C23" t="s">
-        <v>740</v>
-      </c>
-      <c r="D23" t="s">
-        <v>750</v>
+      <c r="B23" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="10">
-        <v>45268</v>
-      </c>
-      <c r="C24" t="s">
-        <v>740</v>
-      </c>
-      <c r="D24" t="s">
-        <v>751</v>
+      <c r="A24" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B24" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="10">
-        <v>45405</v>
-      </c>
-      <c r="C25" t="s">
-        <v>746</v>
-      </c>
-      <c r="D25" t="s">
-        <v>752</v>
+      <c r="A25" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="10">
-        <v>45420</v>
-      </c>
-      <c r="C26" t="s">
-        <v>740</v>
-      </c>
-      <c r="D26" t="s">
-        <v>757</v>
+      <c r="B26" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>747</v>
+      </c>
       <c r="B27" s="10">
-        <v>45425</v>
-      </c>
-      <c r="C27" t="s">
-        <v>740</v>
-      </c>
-      <c r="D27" t="s">
-        <v>758</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>748</v>
+      </c>
       <c r="B28" s="10">
-        <v>45565</v>
+        <v>45250</v>
       </c>
       <c r="C28" t="s">
         <v>740</v>
       </c>
       <c r="D28" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="10">
-        <v>45638</v>
+        <v>45261</v>
       </c>
       <c r="C29" t="s">
         <v>740</v>
       </c>
       <c r="D29" t="s">
-        <v>780</v>
+        <v>750</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="10">
-        <v>45714</v>
+        <v>45268</v>
       </c>
       <c r="C30" t="s">
         <v>740</v>
       </c>
       <c r="D30" t="s">
-        <v>807</v>
+        <v>751</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="10">
-        <v>45717</v>
+        <v>45405</v>
       </c>
       <c r="C31" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="D31" t="s">
-        <v>822</v>
+        <v>752</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="10">
-        <v>45722</v>
+        <v>45420</v>
       </c>
       <c r="C32" t="s">
         <v>740</v>
       </c>
       <c r="D32" t="s">
-        <v>809</v>
+        <v>757</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="10">
-        <v>45726</v>
+        <v>45425</v>
       </c>
       <c r="C33" t="s">
         <v>740</v>
       </c>
       <c r="D33" t="s">
-        <v>825</v>
+        <v>758</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="10">
-        <v>45777</v>
+        <v>45565</v>
       </c>
       <c r="C34" t="s">
         <v>740</v>
       </c>
       <c r="D34" t="s">
-        <v>834</v>
+        <v>759</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="10">
-        <v>45785</v>
+        <v>45638</v>
       </c>
       <c r="C35" t="s">
         <v>740</v>
       </c>
       <c r="D35" t="s">
-        <v>845</v>
+        <v>780</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="10">
-        <v>45796</v>
+        <v>45714</v>
       </c>
       <c r="C36" t="s">
         <v>740</v>
       </c>
       <c r="D36" t="s">
-        <v>856</v>
+        <v>807</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
       <c r="B37" s="10">
-        <v>45811</v>
+        <v>45717</v>
       </c>
       <c r="C37" t="s">
         <v>740</v>
       </c>
       <c r="D37" t="s">
-        <v>868</v>
+        <v>822</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
       <c r="B38" s="10">
-        <v>45813</v>
+        <v>45722</v>
       </c>
       <c r="C38" t="s">
         <v>740</v>
       </c>
       <c r="D38" t="s">
-        <v>869</v>
+        <v>809</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
       <c r="B39" s="10">
-        <v>45841</v>
+        <v>45726</v>
       </c>
       <c r="C39" t="s">
         <v>740</v>
       </c>
       <c r="D39" t="s">
-        <v>908</v>
+        <v>825</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
       <c r="B40" s="10">
-        <v>45859</v>
+        <v>45777</v>
       </c>
       <c r="C40" t="s">
         <v>740</v>
       </c>
       <c r="D40" t="s">
-        <v>1007</v>
+        <v>834</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
       <c r="B41" s="10">
-        <v>45859</v>
+        <v>45785</v>
       </c>
       <c r="C41" t="s">
         <v>740</v>
       </c>
       <c r="D41" t="s">
-        <v>1011</v>
+        <v>845</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="10">
+        <v>45796</v>
+      </c>
+      <c r="C42" t="s">
+        <v>740</v>
+      </c>
+      <c r="D42" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="10">
+        <v>45811</v>
+      </c>
+      <c r="C43" t="s">
+        <v>740</v>
+      </c>
+      <c r="D43" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="10">
+        <v>45813</v>
+      </c>
+      <c r="C44" t="s">
+        <v>740</v>
+      </c>
+      <c r="D44" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="10">
+        <v>45841</v>
+      </c>
+      <c r="C45" t="s">
+        <v>740</v>
+      </c>
+      <c r="D45" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="10">
+        <v>45859</v>
+      </c>
+      <c r="C46" t="s">
+        <v>740</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="10">
+        <v>45859</v>
+      </c>
+      <c r="C47" t="s">
+        <v>740</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="10">
+        <v>45901</v>
+      </c>
+      <c r="C48" t="s">
+        <v>740</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1022</v>
       </c>
     </row>
   </sheetData>

--- a/InstrumentList_v1.1.xlsx
+++ b/InstrumentList_v1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\MAQ-Observations.nl\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBB90D3-DB56-414E-8DA9-D870E20C7C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54A5B5C-4557-4D39-8A60-20B6E22C86DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54495" yWindow="-6525" windowWidth="26010" windowHeight="20985" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
+    <workbookView xWindow="28680" yWindow="-6645" windowWidth="51840" windowHeight="21120" activeTab="3" xr2:uid="{F886D0CD-42D9-4E67-83C9-C1370524BEBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Veenkampen" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4794" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4894" uniqueCount="1059">
   <si>
     <t>Stream name</t>
   </si>
@@ -3802,6 +3802,114 @@
   </si>
   <si>
     <t>Added location  of collected data + split up lines for clarity</t>
+  </si>
+  <si>
+    <t>MM_P_1_1_1</t>
+  </si>
+  <si>
+    <t>MM_DENDRO_1_1_1</t>
+  </si>
+  <si>
+    <t>MM_TENS_2_1_1</t>
+  </si>
+  <si>
+    <t>MM_TENS_3_1_1</t>
+  </si>
+  <si>
+    <t>MM_TENS_4_1_1</t>
+  </si>
+  <si>
+    <t>MM_TENS_5_1_1</t>
+  </si>
+  <si>
+    <t>MM_TENS_6_1_1</t>
+  </si>
+  <si>
+    <t>MM_TENS_7_1_1</t>
+  </si>
+  <si>
+    <t>MM_VWC_1_1_1</t>
+  </si>
+  <si>
+    <t>MM_VWC_2_1_1</t>
+  </si>
+  <si>
+    <t>MM_VWC_3_1_1</t>
+  </si>
+  <si>
+    <t>MM_VWC_4_1_1</t>
+  </si>
+  <si>
+    <t>MM_VWC_5_1_1</t>
+  </si>
+  <si>
+    <t>MM_VWC_6_1_1</t>
+  </si>
+  <si>
+    <t>µm</t>
+  </si>
+  <si>
+    <t>Polymer Tensiometer</t>
+  </si>
+  <si>
+    <t>Soil moisture sensor</t>
+  </si>
+  <si>
+    <t>Dendrometer</t>
+  </si>
+  <si>
+    <t>Volumetric water content (0.15m)</t>
+  </si>
+  <si>
+    <t>Volumetric water content (0.30m)</t>
+  </si>
+  <si>
+    <t>Volumetric water content (0.60m)</t>
+  </si>
+  <si>
+    <t>Volumetric water content (0.90m)</t>
+  </si>
+  <si>
+    <t>Volumetric water content (1.20m)</t>
+  </si>
+  <si>
+    <t>Volumetric water content (2.10m)</t>
+  </si>
+  <si>
+    <t>Suction tension (0.30m)</t>
+  </si>
+  <si>
+    <t>Tree circumference</t>
+  </si>
+  <si>
+    <t>Precipitation throughfall</t>
+  </si>
+  <si>
+    <t>Measured at forest floor, Installed by MoistureMatters</t>
+  </si>
+  <si>
+    <t>Installed by MoistureMatters</t>
+  </si>
+  <si>
+    <t>Defined positive for negative pressures, Installed by MoistureMatters</t>
+  </si>
+  <si>
+    <t>Suction tension (0.60m)</t>
+  </si>
+  <si>
+    <t>Suction tension (0.90m)</t>
+  </si>
+  <si>
+    <t>Suction tension (1.20m)</t>
+  </si>
+  <si>
+    <t>Suction tension (2.10m)</t>
+  </si>
+  <si>
+    <t>Suction tension (3.00m)</t>
+  </si>
+  <si>
+    <t>Added 14 streams from MoistureMatters data including precipidation througfall, dendrometer, tensiometers (6 depths) and volumetric water content (6 depths)</t>
   </si>
 </sst>
 </file>
@@ -8609,7 +8717,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D85B173-4606-43CD-8DE5-2BDAFAD80035}">
-  <dimension ref="A1:G297"/>
+  <dimension ref="A1:G311"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14428,6 +14536,328 @@
       </c>
       <c r="G297" t="s">
         <v>824</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E298" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F298" t="s">
+        <v>724</v>
+      </c>
+      <c r="G298" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E299" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F299" t="s">
+        <v>724</v>
+      </c>
+      <c r="G299" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E300" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F300" t="s">
+        <v>724</v>
+      </c>
+      <c r="G300" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E301" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F301" t="s">
+        <v>724</v>
+      </c>
+      <c r="G301" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F302" t="s">
+        <v>724</v>
+      </c>
+      <c r="G302" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E303" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F303" t="s">
+        <v>724</v>
+      </c>
+      <c r="G303" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F304" t="s">
+        <v>724</v>
+      </c>
+      <c r="G304" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E305" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F305" t="s">
+        <v>724</v>
+      </c>
+      <c r="G305" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F306" t="s">
+        <v>724</v>
+      </c>
+      <c r="G306" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F307" t="s">
+        <v>724</v>
+      </c>
+      <c r="G307" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E308" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F308" t="s">
+        <v>724</v>
+      </c>
+      <c r="G308" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E309" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F309" t="s">
+        <v>724</v>
+      </c>
+      <c r="G309" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E310" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F310" t="s">
+        <v>724</v>
+      </c>
+      <c r="G310" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E311" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F311" t="s">
+        <v>724</v>
+      </c>
+      <c r="G311" t="s">
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -19998,7 +20428,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C5BFE-6C5D-49EF-B6DC-8FDF9610AF86}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20441,6 +20871,17 @@
         <v>1022</v>
       </c>
     </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="10">
+        <v>45938</v>
+      </c>
+      <c r="C49" t="s">
+        <v>740</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1058</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{4C6C8172-E3B1-4460-AE30-8C1A4FB4F619}"/>
